--- a/results/flows_for_eSankey.xlsx
+++ b/results/flows_for_eSankey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romainb\Documents\6. Papers\6. Dynamic MFA Al in Passenger cars\Dynamic-MFA-Al-in-Passenger-Cars\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA23EB-EAE1-46D4-A2ED-9248F19BA96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154E3ACF-55B6-4B50-91F6-2426C77132A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="4332" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eSankey" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>F_1_2_ta</t>
   </si>
@@ -71,9 +71,6 @@
     <t>F_0_1_ta</t>
   </si>
   <si>
-    <t>scrap_surplus_ta</t>
-  </si>
-  <si>
     <t>S_2_ta</t>
   </si>
   <si>
@@ -96,6 +93,15 @@
   </si>
   <si>
     <t xml:space="preserve">Year: </t>
+  </si>
+  <si>
+    <t>F_7_8_ta</t>
+  </si>
+  <si>
+    <t>F_8_1_ta</t>
+  </si>
+  <si>
+    <t>F_1_9_ta</t>
   </si>
 </sst>
 </file>
@@ -332,49 +338,58 @@
             <v>Alloy</v>
           </cell>
           <cell r="C1" t="str">
+            <v>F_2_3_ta</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>F_3_4_ta</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>F_4_0_ta</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>F_4_5_ta</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>F_4_7_ta</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>F_5_6_ta</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>F_5_7_ta</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>F_6_0_ta</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>F_6_1_ta</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>F_7_0_ta</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>F_7_1_ta</v>
+          </cell>
+          <cell r="N1" t="str">
             <v>F_1_2_ta</v>
           </cell>
-          <cell r="D1" t="str">
-            <v>F_2_3_ta</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>F_3_0_ta</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>F_3_4_ta</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>F_3_6_ta</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>F_4_5_ta</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>F_4_6_ta</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>F_5_0_ta</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>F_5_1_ta</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>F_6_0_ta</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>F_6_1_ta</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>F_0_1_ta</v>
-          </cell>
           <cell r="O1" t="str">
-            <v>scrap_surplus_ta</v>
+            <v>F_1_9_ta</v>
           </cell>
           <cell r="P1" t="str">
             <v>S_2_ta</v>
           </cell>
           <cell r="Q1" t="str">
             <v>dS_2_ta</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>F_0_1_ta</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>F_7_8_ta</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>F_8_1_ta</v>
           </cell>
         </row>
         <row r="2">
@@ -429,6 +444,15 @@
           <cell r="Q2">
             <v>0</v>
           </cell>
+          <cell r="R2">
+            <v>0</v>
+          </cell>
+          <cell r="S2">
+            <v>0</v>
+          </cell>
+          <cell r="T2">
+            <v>0</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3">
@@ -482,6 +506,15 @@
           <cell r="Q3">
             <v>0</v>
           </cell>
+          <cell r="R3">
+            <v>0</v>
+          </cell>
+          <cell r="S3">
+            <v>0</v>
+          </cell>
+          <cell r="T3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4">
@@ -535,6 +568,15 @@
           <cell r="Q4">
             <v>0</v>
           </cell>
+          <cell r="R4">
+            <v>0</v>
+          </cell>
+          <cell r="S4">
+            <v>0</v>
+          </cell>
+          <cell r="T4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5">
@@ -588,6 +630,15 @@
           <cell r="Q5">
             <v>0</v>
           </cell>
+          <cell r="R5">
+            <v>0</v>
+          </cell>
+          <cell r="S5">
+            <v>0</v>
+          </cell>
+          <cell r="T5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6">
@@ -641,6 +692,15 @@
           <cell r="Q6">
             <v>0</v>
           </cell>
+          <cell r="R6">
+            <v>0</v>
+          </cell>
+          <cell r="S6">
+            <v>0</v>
+          </cell>
+          <cell r="T6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7">
@@ -694,6 +754,15 @@
           <cell r="Q7">
             <v>0</v>
           </cell>
+          <cell r="R7">
+            <v>0</v>
+          </cell>
+          <cell r="S7">
+            <v>0</v>
+          </cell>
+          <cell r="T7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8">
@@ -747,6 +816,15 @@
           <cell r="Q8">
             <v>0</v>
           </cell>
+          <cell r="R8">
+            <v>0</v>
+          </cell>
+          <cell r="S8">
+            <v>0</v>
+          </cell>
+          <cell r="T8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9">
@@ -800,6 +878,15 @@
           <cell r="Q9">
             <v>0</v>
           </cell>
+          <cell r="R9">
+            <v>0</v>
+          </cell>
+          <cell r="S9">
+            <v>0</v>
+          </cell>
+          <cell r="T9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10">
@@ -853,6 +940,15 @@
           <cell r="Q10">
             <v>0</v>
           </cell>
+          <cell r="R10">
+            <v>0</v>
+          </cell>
+          <cell r="S10">
+            <v>0</v>
+          </cell>
+          <cell r="T10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11">
@@ -906,6 +1002,15 @@
           <cell r="Q11">
             <v>0</v>
           </cell>
+          <cell r="R11">
+            <v>0</v>
+          </cell>
+          <cell r="S11">
+            <v>0</v>
+          </cell>
+          <cell r="T11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12">
@@ -959,6 +1064,15 @@
           <cell r="Q12">
             <v>0</v>
           </cell>
+          <cell r="R12">
+            <v>0</v>
+          </cell>
+          <cell r="S12">
+            <v>0</v>
+          </cell>
+          <cell r="T12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13">
@@ -1012,6 +1126,15 @@
           <cell r="Q13">
             <v>0</v>
           </cell>
+          <cell r="R13">
+            <v>0</v>
+          </cell>
+          <cell r="S13">
+            <v>0</v>
+          </cell>
+          <cell r="T13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14">
@@ -1065,6 +1188,15 @@
           <cell r="Q14">
             <v>0</v>
           </cell>
+          <cell r="R14">
+            <v>0</v>
+          </cell>
+          <cell r="S14">
+            <v>0</v>
+          </cell>
+          <cell r="T14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15">
@@ -1118,6 +1250,15 @@
           <cell r="Q15">
             <v>0</v>
           </cell>
+          <cell r="R15">
+            <v>0</v>
+          </cell>
+          <cell r="S15">
+            <v>0</v>
+          </cell>
+          <cell r="T15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16">
@@ -1171,6 +1312,15 @@
           <cell r="Q16">
             <v>0</v>
           </cell>
+          <cell r="R16">
+            <v>0</v>
+          </cell>
+          <cell r="S16">
+            <v>0</v>
+          </cell>
+          <cell r="T16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17">
@@ -1224,6 +1374,15 @@
           <cell r="Q17">
             <v>0</v>
           </cell>
+          <cell r="R17">
+            <v>0</v>
+          </cell>
+          <cell r="S17">
+            <v>0</v>
+          </cell>
+          <cell r="T17">
+            <v>0</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18">
@@ -1277,6 +1436,15 @@
           <cell r="Q18">
             <v>0</v>
           </cell>
+          <cell r="R18">
+            <v>0</v>
+          </cell>
+          <cell r="S18">
+            <v>0</v>
+          </cell>
+          <cell r="T18">
+            <v>0</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19">
@@ -1330,6 +1498,15 @@
           <cell r="Q19">
             <v>0</v>
           </cell>
+          <cell r="R19">
+            <v>0</v>
+          </cell>
+          <cell r="S19">
+            <v>0</v>
+          </cell>
+          <cell r="T19">
+            <v>0</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20">
@@ -1383,6 +1560,15 @@
           <cell r="Q20">
             <v>0</v>
           </cell>
+          <cell r="R20">
+            <v>0</v>
+          </cell>
+          <cell r="S20">
+            <v>0</v>
+          </cell>
+          <cell r="T20">
+            <v>0</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21">
@@ -1436,6 +1622,15 @@
           <cell r="Q21">
             <v>0</v>
           </cell>
+          <cell r="R21">
+            <v>0</v>
+          </cell>
+          <cell r="S21">
+            <v>0</v>
+          </cell>
+          <cell r="T21">
+            <v>0</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22">
@@ -1489,6 +1684,15 @@
           <cell r="Q22">
             <v>0</v>
           </cell>
+          <cell r="R22">
+            <v>0</v>
+          </cell>
+          <cell r="S22">
+            <v>0</v>
+          </cell>
+          <cell r="T22">
+            <v>0</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23">
@@ -1542,6 +1746,15 @@
           <cell r="Q23">
             <v>0</v>
           </cell>
+          <cell r="R23">
+            <v>0</v>
+          </cell>
+          <cell r="S23">
+            <v>0</v>
+          </cell>
+          <cell r="T23">
+            <v>0</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24">
@@ -1595,6 +1808,15 @@
           <cell r="Q24">
             <v>0</v>
           </cell>
+          <cell r="R24">
+            <v>0</v>
+          </cell>
+          <cell r="S24">
+            <v>0</v>
+          </cell>
+          <cell r="T24">
+            <v>0</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25">
@@ -1648,6 +1870,15 @@
           <cell r="Q25">
             <v>0</v>
           </cell>
+          <cell r="R25">
+            <v>0</v>
+          </cell>
+          <cell r="S25">
+            <v>0</v>
+          </cell>
+          <cell r="T25">
+            <v>0</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26">
@@ -1701,6 +1932,15 @@
           <cell r="Q26">
             <v>0</v>
           </cell>
+          <cell r="R26">
+            <v>0</v>
+          </cell>
+          <cell r="S26">
+            <v>0</v>
+          </cell>
+          <cell r="T26">
+            <v>0</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27">
@@ -1754,6 +1994,15 @@
           <cell r="Q27">
             <v>0</v>
           </cell>
+          <cell r="R27">
+            <v>0</v>
+          </cell>
+          <cell r="S27">
+            <v>0</v>
+          </cell>
+          <cell r="T27">
+            <v>0</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="A28">
@@ -1807,6 +2056,15 @@
           <cell r="Q28">
             <v>0</v>
           </cell>
+          <cell r="R28">
+            <v>0</v>
+          </cell>
+          <cell r="S28">
+            <v>0</v>
+          </cell>
+          <cell r="T28">
+            <v>0</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="A29">
@@ -1860,6 +2118,15 @@
           <cell r="Q29">
             <v>0</v>
           </cell>
+          <cell r="R29">
+            <v>0</v>
+          </cell>
+          <cell r="S29">
+            <v>0</v>
+          </cell>
+          <cell r="T29">
+            <v>0</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="A30">
@@ -1913,6 +2180,15 @@
           <cell r="Q30">
             <v>0</v>
           </cell>
+          <cell r="R30">
+            <v>0</v>
+          </cell>
+          <cell r="S30">
+            <v>0</v>
+          </cell>
+          <cell r="T30">
+            <v>0</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31">
@@ -1966,6 +2242,15 @@
           <cell r="Q31">
             <v>0</v>
           </cell>
+          <cell r="R31">
+            <v>0</v>
+          </cell>
+          <cell r="S31">
+            <v>0</v>
+          </cell>
+          <cell r="T31">
+            <v>0</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32">
@@ -2019,6 +2304,15 @@
           <cell r="Q32">
             <v>0</v>
           </cell>
+          <cell r="R32">
+            <v>0</v>
+          </cell>
+          <cell r="S32">
+            <v>0</v>
+          </cell>
+          <cell r="T32">
+            <v>0</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="A33">
@@ -2072,6 +2366,15 @@
           <cell r="Q33">
             <v>0</v>
           </cell>
+          <cell r="R33">
+            <v>0</v>
+          </cell>
+          <cell r="S33">
+            <v>0</v>
+          </cell>
+          <cell r="T33">
+            <v>0</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="A34">
@@ -2125,6 +2428,15 @@
           <cell r="Q34">
             <v>0</v>
           </cell>
+          <cell r="R34">
+            <v>0</v>
+          </cell>
+          <cell r="S34">
+            <v>0</v>
+          </cell>
+          <cell r="T34">
+            <v>0</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="A35">
@@ -2178,6 +2490,15 @@
           <cell r="Q35">
             <v>0</v>
           </cell>
+          <cell r="R35">
+            <v>0</v>
+          </cell>
+          <cell r="S35">
+            <v>0</v>
+          </cell>
+          <cell r="T35">
+            <v>0</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="A36">
@@ -2231,6 +2552,15 @@
           <cell r="Q36">
             <v>0</v>
           </cell>
+          <cell r="R36">
+            <v>0</v>
+          </cell>
+          <cell r="S36">
+            <v>0</v>
+          </cell>
+          <cell r="T36">
+            <v>0</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="A37">
@@ -2284,6 +2614,15 @@
           <cell r="Q37">
             <v>0</v>
           </cell>
+          <cell r="R37">
+            <v>0</v>
+          </cell>
+          <cell r="S37">
+            <v>0</v>
+          </cell>
+          <cell r="T37">
+            <v>0</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="A38">
@@ -2337,6 +2676,15 @@
           <cell r="Q38">
             <v>0</v>
           </cell>
+          <cell r="R38">
+            <v>0</v>
+          </cell>
+          <cell r="S38">
+            <v>0</v>
+          </cell>
+          <cell r="T38">
+            <v>0</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="A39">
@@ -2390,6 +2738,15 @@
           <cell r="Q39">
             <v>0</v>
           </cell>
+          <cell r="R39">
+            <v>0</v>
+          </cell>
+          <cell r="S39">
+            <v>0</v>
+          </cell>
+          <cell r="T39">
+            <v>0</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40">
@@ -2443,6 +2800,15 @@
           <cell r="Q40">
             <v>0</v>
           </cell>
+          <cell r="R40">
+            <v>0</v>
+          </cell>
+          <cell r="S40">
+            <v>0</v>
+          </cell>
+          <cell r="T40">
+            <v>0</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="A41">
@@ -2496,6 +2862,15 @@
           <cell r="Q41">
             <v>0</v>
           </cell>
+          <cell r="R41">
+            <v>0</v>
+          </cell>
+          <cell r="S41">
+            <v>0</v>
+          </cell>
+          <cell r="T41">
+            <v>0</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="A42">
@@ -2549,6 +2924,15 @@
           <cell r="Q42">
             <v>0</v>
           </cell>
+          <cell r="R42">
+            <v>0</v>
+          </cell>
+          <cell r="S42">
+            <v>0</v>
+          </cell>
+          <cell r="T42">
+            <v>0</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="A43">
@@ -2602,6 +2986,15 @@
           <cell r="Q43">
             <v>0</v>
           </cell>
+          <cell r="R43">
+            <v>0</v>
+          </cell>
+          <cell r="S43">
+            <v>0</v>
+          </cell>
+          <cell r="T43">
+            <v>0</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="A44">
@@ -2655,6 +3048,15 @@
           <cell r="Q44">
             <v>0</v>
           </cell>
+          <cell r="R44">
+            <v>0</v>
+          </cell>
+          <cell r="S44">
+            <v>0</v>
+          </cell>
+          <cell r="T44">
+            <v>0</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="A45">
@@ -2708,6 +3110,15 @@
           <cell r="Q45">
             <v>0</v>
           </cell>
+          <cell r="R45">
+            <v>0</v>
+          </cell>
+          <cell r="S45">
+            <v>0</v>
+          </cell>
+          <cell r="T45">
+            <v>0</v>
+          </cell>
         </row>
         <row r="46">
           <cell r="A46">
@@ -2761,6 +3172,15 @@
           <cell r="Q46">
             <v>0</v>
           </cell>
+          <cell r="R46">
+            <v>0</v>
+          </cell>
+          <cell r="S46">
+            <v>0</v>
+          </cell>
+          <cell r="T46">
+            <v>0</v>
+          </cell>
         </row>
         <row r="47">
           <cell r="A47">
@@ -2814,6 +3234,15 @@
           <cell r="Q47">
             <v>0</v>
           </cell>
+          <cell r="R47">
+            <v>0</v>
+          </cell>
+          <cell r="S47">
+            <v>0</v>
+          </cell>
+          <cell r="T47">
+            <v>0</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="A48">
@@ -2867,6 +3296,15 @@
           <cell r="Q48">
             <v>0</v>
           </cell>
+          <cell r="R48">
+            <v>0</v>
+          </cell>
+          <cell r="S48">
+            <v>0</v>
+          </cell>
+          <cell r="T48">
+            <v>0</v>
+          </cell>
         </row>
         <row r="49">
           <cell r="A49">
@@ -2920,6 +3358,15 @@
           <cell r="Q49">
             <v>0</v>
           </cell>
+          <cell r="R49">
+            <v>0</v>
+          </cell>
+          <cell r="S49">
+            <v>0</v>
+          </cell>
+          <cell r="T49">
+            <v>0</v>
+          </cell>
         </row>
         <row r="50">
           <cell r="A50">
@@ -2973,6 +3420,15 @@
           <cell r="Q50">
             <v>0</v>
           </cell>
+          <cell r="R50">
+            <v>0</v>
+          </cell>
+          <cell r="S50">
+            <v>0</v>
+          </cell>
+          <cell r="T50">
+            <v>0</v>
+          </cell>
         </row>
         <row r="51">
           <cell r="A51">
@@ -3026,6 +3482,15 @@
           <cell r="Q51">
             <v>0</v>
           </cell>
+          <cell r="R51">
+            <v>0</v>
+          </cell>
+          <cell r="S51">
+            <v>0</v>
+          </cell>
+          <cell r="T51">
+            <v>0</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="A52">
@@ -3079,6 +3544,15 @@
           <cell r="Q52">
             <v>0</v>
           </cell>
+          <cell r="R52">
+            <v>0</v>
+          </cell>
+          <cell r="S52">
+            <v>0</v>
+          </cell>
+          <cell r="T52">
+            <v>0</v>
+          </cell>
         </row>
         <row r="53">
           <cell r="A53">
@@ -3132,6 +3606,15 @@
           <cell r="Q53">
             <v>0</v>
           </cell>
+          <cell r="R53">
+            <v>0</v>
+          </cell>
+          <cell r="S53">
+            <v>0</v>
+          </cell>
+          <cell r="T53">
+            <v>0</v>
+          </cell>
         </row>
         <row r="54">
           <cell r="A54">
@@ -3185,6 +3668,15 @@
           <cell r="Q54">
             <v>0</v>
           </cell>
+          <cell r="R54">
+            <v>0</v>
+          </cell>
+          <cell r="S54">
+            <v>0</v>
+          </cell>
+          <cell r="T54">
+            <v>0</v>
+          </cell>
         </row>
         <row r="55">
           <cell r="A55">
@@ -3238,6 +3730,15 @@
           <cell r="Q55">
             <v>0</v>
           </cell>
+          <cell r="R55">
+            <v>0</v>
+          </cell>
+          <cell r="S55">
+            <v>0</v>
+          </cell>
+          <cell r="T55">
+            <v>0</v>
+          </cell>
         </row>
         <row r="56">
           <cell r="A56">
@@ -3291,6 +3792,15 @@
           <cell r="Q56">
             <v>0</v>
           </cell>
+          <cell r="R56">
+            <v>0</v>
+          </cell>
+          <cell r="S56">
+            <v>0</v>
+          </cell>
+          <cell r="T56">
+            <v>0</v>
+          </cell>
         </row>
         <row r="57">
           <cell r="A57">
@@ -3344,6 +3854,15 @@
           <cell r="Q57">
             <v>0</v>
           </cell>
+          <cell r="R57">
+            <v>0</v>
+          </cell>
+          <cell r="S57">
+            <v>0</v>
+          </cell>
+          <cell r="T57">
+            <v>0</v>
+          </cell>
         </row>
         <row r="58">
           <cell r="A58">
@@ -3397,6 +3916,15 @@
           <cell r="Q58">
             <v>0</v>
           </cell>
+          <cell r="R58">
+            <v>0</v>
+          </cell>
+          <cell r="S58">
+            <v>0</v>
+          </cell>
+          <cell r="T58">
+            <v>0</v>
+          </cell>
         </row>
         <row r="59">
           <cell r="A59">
@@ -3450,6 +3978,15 @@
           <cell r="Q59">
             <v>0</v>
           </cell>
+          <cell r="R59">
+            <v>0</v>
+          </cell>
+          <cell r="S59">
+            <v>0</v>
+          </cell>
+          <cell r="T59">
+            <v>0</v>
+          </cell>
         </row>
         <row r="60">
           <cell r="A60">
@@ -3503,6 +4040,15 @@
           <cell r="Q60">
             <v>0</v>
           </cell>
+          <cell r="R60">
+            <v>0</v>
+          </cell>
+          <cell r="S60">
+            <v>0</v>
+          </cell>
+          <cell r="T60">
+            <v>0</v>
+          </cell>
         </row>
         <row r="61">
           <cell r="A61">
@@ -3556,6 +4102,15 @@
           <cell r="Q61">
             <v>0</v>
           </cell>
+          <cell r="R61">
+            <v>0</v>
+          </cell>
+          <cell r="S61">
+            <v>0</v>
+          </cell>
+          <cell r="T61">
+            <v>0</v>
+          </cell>
         </row>
         <row r="62">
           <cell r="A62">
@@ -3609,6 +4164,15 @@
           <cell r="Q62">
             <v>0</v>
           </cell>
+          <cell r="R62">
+            <v>0</v>
+          </cell>
+          <cell r="S62">
+            <v>0</v>
+          </cell>
+          <cell r="T62">
+            <v>0</v>
+          </cell>
         </row>
         <row r="63">
           <cell r="A63">
@@ -3662,6 +4226,15 @@
           <cell r="Q63">
             <v>0</v>
           </cell>
+          <cell r="R63">
+            <v>0</v>
+          </cell>
+          <cell r="S63">
+            <v>0</v>
+          </cell>
+          <cell r="T63">
+            <v>0</v>
+          </cell>
         </row>
         <row r="64">
           <cell r="A64">
@@ -3715,6 +4288,15 @@
           <cell r="Q64">
             <v>0</v>
           </cell>
+          <cell r="R64">
+            <v>0</v>
+          </cell>
+          <cell r="S64">
+            <v>0</v>
+          </cell>
+          <cell r="T64">
+            <v>0</v>
+          </cell>
         </row>
         <row r="65">
           <cell r="A65">
@@ -3768,6 +4350,15 @@
           <cell r="Q65">
             <v>0</v>
           </cell>
+          <cell r="R65">
+            <v>0</v>
+          </cell>
+          <cell r="S65">
+            <v>0</v>
+          </cell>
+          <cell r="T65">
+            <v>0</v>
+          </cell>
         </row>
         <row r="66">
           <cell r="A66">
@@ -3821,6 +4412,15 @@
           <cell r="Q66">
             <v>0</v>
           </cell>
+          <cell r="R66">
+            <v>0</v>
+          </cell>
+          <cell r="S66">
+            <v>0</v>
+          </cell>
+          <cell r="T66">
+            <v>0</v>
+          </cell>
         </row>
         <row r="67">
           <cell r="A67">
@@ -3874,6 +4474,15 @@
           <cell r="Q67">
             <v>0</v>
           </cell>
+          <cell r="R67">
+            <v>0</v>
+          </cell>
+          <cell r="S67">
+            <v>0</v>
+          </cell>
+          <cell r="T67">
+            <v>0</v>
+          </cell>
         </row>
         <row r="68">
           <cell r="A68">
@@ -3927,6 +4536,15 @@
           <cell r="Q68">
             <v>0</v>
           </cell>
+          <cell r="R68">
+            <v>0</v>
+          </cell>
+          <cell r="S68">
+            <v>0</v>
+          </cell>
+          <cell r="T68">
+            <v>0</v>
+          </cell>
         </row>
         <row r="69">
           <cell r="A69">
@@ -3980,6 +4598,15 @@
           <cell r="Q69">
             <v>0</v>
           </cell>
+          <cell r="R69">
+            <v>0</v>
+          </cell>
+          <cell r="S69">
+            <v>0</v>
+          </cell>
+          <cell r="T69">
+            <v>0</v>
+          </cell>
         </row>
         <row r="70">
           <cell r="A70">
@@ -4033,6 +4660,15 @@
           <cell r="Q70">
             <v>0</v>
           </cell>
+          <cell r="R70">
+            <v>0</v>
+          </cell>
+          <cell r="S70">
+            <v>0</v>
+          </cell>
+          <cell r="T70">
+            <v>0</v>
+          </cell>
         </row>
         <row r="71">
           <cell r="A71">
@@ -4086,6 +4722,15 @@
           <cell r="Q71">
             <v>0</v>
           </cell>
+          <cell r="R71">
+            <v>0</v>
+          </cell>
+          <cell r="S71">
+            <v>0</v>
+          </cell>
+          <cell r="T71">
+            <v>0</v>
+          </cell>
         </row>
         <row r="72">
           <cell r="A72">
@@ -4139,6 +4784,15 @@
           <cell r="Q72">
             <v>0</v>
           </cell>
+          <cell r="R72">
+            <v>0</v>
+          </cell>
+          <cell r="S72">
+            <v>0</v>
+          </cell>
+          <cell r="T72">
+            <v>0</v>
+          </cell>
         </row>
         <row r="73">
           <cell r="A73">
@@ -4192,6 +4846,15 @@
           <cell r="Q73">
             <v>0</v>
           </cell>
+          <cell r="R73">
+            <v>0</v>
+          </cell>
+          <cell r="S73">
+            <v>0</v>
+          </cell>
+          <cell r="T73">
+            <v>0</v>
+          </cell>
         </row>
         <row r="74">
           <cell r="A74">
@@ -4245,6 +4908,15 @@
           <cell r="Q74">
             <v>0</v>
           </cell>
+          <cell r="R74">
+            <v>0</v>
+          </cell>
+          <cell r="S74">
+            <v>0</v>
+          </cell>
+          <cell r="T74">
+            <v>0</v>
+          </cell>
         </row>
         <row r="75">
           <cell r="A75">
@@ -4298,6 +4970,15 @@
           <cell r="Q75">
             <v>0</v>
           </cell>
+          <cell r="R75">
+            <v>0</v>
+          </cell>
+          <cell r="S75">
+            <v>0</v>
+          </cell>
+          <cell r="T75">
+            <v>0</v>
+          </cell>
         </row>
         <row r="76">
           <cell r="A76">
@@ -4351,6 +5032,15 @@
           <cell r="Q76">
             <v>0</v>
           </cell>
+          <cell r="R76">
+            <v>0</v>
+          </cell>
+          <cell r="S76">
+            <v>0</v>
+          </cell>
+          <cell r="T76">
+            <v>0</v>
+          </cell>
         </row>
         <row r="77">
           <cell r="A77">
@@ -4404,6 +5094,15 @@
           <cell r="Q77">
             <v>0</v>
           </cell>
+          <cell r="R77">
+            <v>0</v>
+          </cell>
+          <cell r="S77">
+            <v>0</v>
+          </cell>
+          <cell r="T77">
+            <v>0</v>
+          </cell>
         </row>
         <row r="78">
           <cell r="A78">
@@ -4457,6 +5156,15 @@
           <cell r="Q78">
             <v>0</v>
           </cell>
+          <cell r="R78">
+            <v>0</v>
+          </cell>
+          <cell r="S78">
+            <v>0</v>
+          </cell>
+          <cell r="T78">
+            <v>0</v>
+          </cell>
         </row>
         <row r="79">
           <cell r="A79">
@@ -4510,6 +5218,15 @@
           <cell r="Q79">
             <v>0</v>
           </cell>
+          <cell r="R79">
+            <v>0</v>
+          </cell>
+          <cell r="S79">
+            <v>0</v>
+          </cell>
+          <cell r="T79">
+            <v>0</v>
+          </cell>
         </row>
         <row r="80">
           <cell r="A80">
@@ -4563,6 +5280,15 @@
           <cell r="Q80">
             <v>0</v>
           </cell>
+          <cell r="R80">
+            <v>0</v>
+          </cell>
+          <cell r="S80">
+            <v>0</v>
+          </cell>
+          <cell r="T80">
+            <v>0</v>
+          </cell>
         </row>
         <row r="81">
           <cell r="A81">
@@ -4616,6 +5342,15 @@
           <cell r="Q81">
             <v>0</v>
           </cell>
+          <cell r="R81">
+            <v>0</v>
+          </cell>
+          <cell r="S81">
+            <v>0</v>
+          </cell>
+          <cell r="T81">
+            <v>0</v>
+          </cell>
         </row>
         <row r="82">
           <cell r="A82">
@@ -4669,6 +5404,15 @@
           <cell r="Q82">
             <v>0</v>
           </cell>
+          <cell r="R82">
+            <v>0</v>
+          </cell>
+          <cell r="S82">
+            <v>0</v>
+          </cell>
+          <cell r="T82">
+            <v>0</v>
+          </cell>
         </row>
         <row r="83">
           <cell r="A83">
@@ -4722,6 +5466,15 @@
           <cell r="Q83">
             <v>0</v>
           </cell>
+          <cell r="R83">
+            <v>0</v>
+          </cell>
+          <cell r="S83">
+            <v>0</v>
+          </cell>
+          <cell r="T83">
+            <v>0</v>
+          </cell>
         </row>
         <row r="84">
           <cell r="A84">
@@ -4775,6 +5528,15 @@
           <cell r="Q84">
             <v>0</v>
           </cell>
+          <cell r="R84">
+            <v>0</v>
+          </cell>
+          <cell r="S84">
+            <v>0</v>
+          </cell>
+          <cell r="T84">
+            <v>0</v>
+          </cell>
         </row>
         <row r="85">
           <cell r="A85">
@@ -4828,6 +5590,15 @@
           <cell r="Q85">
             <v>0</v>
           </cell>
+          <cell r="R85">
+            <v>0</v>
+          </cell>
+          <cell r="S85">
+            <v>0</v>
+          </cell>
+          <cell r="T85">
+            <v>0</v>
+          </cell>
         </row>
         <row r="86">
           <cell r="A86">
@@ -4881,6 +5652,15 @@
           <cell r="Q86">
             <v>0</v>
           </cell>
+          <cell r="R86">
+            <v>0</v>
+          </cell>
+          <cell r="S86">
+            <v>0</v>
+          </cell>
+          <cell r="T86">
+            <v>0</v>
+          </cell>
         </row>
         <row r="87">
           <cell r="A87">
@@ -4934,6 +5714,15 @@
           <cell r="Q87">
             <v>0</v>
           </cell>
+          <cell r="R87">
+            <v>0</v>
+          </cell>
+          <cell r="S87">
+            <v>0</v>
+          </cell>
+          <cell r="T87">
+            <v>0</v>
+          </cell>
         </row>
         <row r="88">
           <cell r="A88">
@@ -4987,6 +5776,15 @@
           <cell r="Q88">
             <v>0</v>
           </cell>
+          <cell r="R88">
+            <v>0</v>
+          </cell>
+          <cell r="S88">
+            <v>0</v>
+          </cell>
+          <cell r="T88">
+            <v>0</v>
+          </cell>
         </row>
         <row r="89">
           <cell r="A89">
@@ -5040,6 +5838,15 @@
           <cell r="Q89">
             <v>0</v>
           </cell>
+          <cell r="R89">
+            <v>0</v>
+          </cell>
+          <cell r="S89">
+            <v>0</v>
+          </cell>
+          <cell r="T89">
+            <v>0</v>
+          </cell>
         </row>
         <row r="90">
           <cell r="A90">
@@ -5093,6 +5900,15 @@
           <cell r="Q90">
             <v>0</v>
           </cell>
+          <cell r="R90">
+            <v>0</v>
+          </cell>
+          <cell r="S90">
+            <v>0</v>
+          </cell>
+          <cell r="T90">
+            <v>0</v>
+          </cell>
         </row>
         <row r="91">
           <cell r="A91">
@@ -5146,6 +5962,15 @@
           <cell r="Q91">
             <v>0</v>
           </cell>
+          <cell r="R91">
+            <v>0</v>
+          </cell>
+          <cell r="S91">
+            <v>0</v>
+          </cell>
+          <cell r="T91">
+            <v>0</v>
+          </cell>
         </row>
         <row r="92">
           <cell r="A92">
@@ -5199,6 +6024,15 @@
           <cell r="Q92">
             <v>0</v>
           </cell>
+          <cell r="R92">
+            <v>0</v>
+          </cell>
+          <cell r="S92">
+            <v>0</v>
+          </cell>
+          <cell r="T92">
+            <v>0</v>
+          </cell>
         </row>
         <row r="93">
           <cell r="A93">
@@ -5252,6 +6086,15 @@
           <cell r="Q93">
             <v>0</v>
           </cell>
+          <cell r="R93">
+            <v>0</v>
+          </cell>
+          <cell r="S93">
+            <v>0</v>
+          </cell>
+          <cell r="T93">
+            <v>0</v>
+          </cell>
         </row>
         <row r="94">
           <cell r="A94">
@@ -5305,6 +6148,15 @@
           <cell r="Q94">
             <v>0</v>
           </cell>
+          <cell r="R94">
+            <v>0</v>
+          </cell>
+          <cell r="S94">
+            <v>0</v>
+          </cell>
+          <cell r="T94">
+            <v>0</v>
+          </cell>
         </row>
         <row r="95">
           <cell r="A95">
@@ -5358,6 +6210,15 @@
           <cell r="Q95">
             <v>0</v>
           </cell>
+          <cell r="R95">
+            <v>0</v>
+          </cell>
+          <cell r="S95">
+            <v>0</v>
+          </cell>
+          <cell r="T95">
+            <v>0</v>
+          </cell>
         </row>
         <row r="96">
           <cell r="A96">
@@ -5411,6 +6272,15 @@
           <cell r="Q96">
             <v>0</v>
           </cell>
+          <cell r="R96">
+            <v>0</v>
+          </cell>
+          <cell r="S96">
+            <v>0</v>
+          </cell>
+          <cell r="T96">
+            <v>0</v>
+          </cell>
         </row>
         <row r="97">
           <cell r="A97">
@@ -5464,6 +6334,15 @@
           <cell r="Q97">
             <v>0</v>
           </cell>
+          <cell r="R97">
+            <v>0</v>
+          </cell>
+          <cell r="S97">
+            <v>0</v>
+          </cell>
+          <cell r="T97">
+            <v>0</v>
+          </cell>
         </row>
         <row r="98">
           <cell r="A98">
@@ -5517,6 +6396,15 @@
           <cell r="Q98">
             <v>0</v>
           </cell>
+          <cell r="R98">
+            <v>0</v>
+          </cell>
+          <cell r="S98">
+            <v>0</v>
+          </cell>
+          <cell r="T98">
+            <v>0</v>
+          </cell>
         </row>
         <row r="99">
           <cell r="A99">
@@ -5570,6 +6458,15 @@
           <cell r="Q99">
             <v>0</v>
           </cell>
+          <cell r="R99">
+            <v>0</v>
+          </cell>
+          <cell r="S99">
+            <v>0</v>
+          </cell>
+          <cell r="T99">
+            <v>0</v>
+          </cell>
         </row>
         <row r="100">
           <cell r="A100">
@@ -5623,6 +6520,15 @@
           <cell r="Q100">
             <v>0</v>
           </cell>
+          <cell r="R100">
+            <v>0</v>
+          </cell>
+          <cell r="S100">
+            <v>0</v>
+          </cell>
+          <cell r="T100">
+            <v>0</v>
+          </cell>
         </row>
         <row r="101">
           <cell r="A101">
@@ -5676,6 +6582,15 @@
           <cell r="Q101">
             <v>0</v>
           </cell>
+          <cell r="R101">
+            <v>0</v>
+          </cell>
+          <cell r="S101">
+            <v>0</v>
+          </cell>
+          <cell r="T101">
+            <v>0</v>
+          </cell>
         </row>
         <row r="102">
           <cell r="A102">
@@ -5729,6 +6644,15 @@
           <cell r="Q102">
             <v>0</v>
           </cell>
+          <cell r="R102">
+            <v>0</v>
+          </cell>
+          <cell r="S102">
+            <v>0</v>
+          </cell>
+          <cell r="T102">
+            <v>0</v>
+          </cell>
         </row>
         <row r="103">
           <cell r="A103">
@@ -5782,6 +6706,15 @@
           <cell r="Q103">
             <v>0</v>
           </cell>
+          <cell r="R103">
+            <v>0</v>
+          </cell>
+          <cell r="S103">
+            <v>0</v>
+          </cell>
+          <cell r="T103">
+            <v>0</v>
+          </cell>
         </row>
         <row r="104">
           <cell r="A104">
@@ -5835,6 +6768,15 @@
           <cell r="Q104">
             <v>0</v>
           </cell>
+          <cell r="R104">
+            <v>0</v>
+          </cell>
+          <cell r="S104">
+            <v>0</v>
+          </cell>
+          <cell r="T104">
+            <v>0</v>
+          </cell>
         </row>
         <row r="105">
           <cell r="A105">
@@ -5888,6 +6830,15 @@
           <cell r="Q105">
             <v>0</v>
           </cell>
+          <cell r="R105">
+            <v>0</v>
+          </cell>
+          <cell r="S105">
+            <v>0</v>
+          </cell>
+          <cell r="T105">
+            <v>0</v>
+          </cell>
         </row>
         <row r="106">
           <cell r="A106">
@@ -5941,6 +6892,15 @@
           <cell r="Q106">
             <v>0</v>
           </cell>
+          <cell r="R106">
+            <v>0</v>
+          </cell>
+          <cell r="S106">
+            <v>0</v>
+          </cell>
+          <cell r="T106">
+            <v>0</v>
+          </cell>
         </row>
         <row r="107">
           <cell r="A107">
@@ -5994,6 +6954,15 @@
           <cell r="Q107">
             <v>0</v>
           </cell>
+          <cell r="R107">
+            <v>0</v>
+          </cell>
+          <cell r="S107">
+            <v>0</v>
+          </cell>
+          <cell r="T107">
+            <v>0</v>
+          </cell>
         </row>
         <row r="108">
           <cell r="A108">
@@ -6047,6 +7016,15 @@
           <cell r="Q108">
             <v>0</v>
           </cell>
+          <cell r="R108">
+            <v>0</v>
+          </cell>
+          <cell r="S108">
+            <v>0</v>
+          </cell>
+          <cell r="T108">
+            <v>0</v>
+          </cell>
         </row>
         <row r="109">
           <cell r="A109">
@@ -6100,6 +7078,15 @@
           <cell r="Q109">
             <v>0</v>
           </cell>
+          <cell r="R109">
+            <v>0</v>
+          </cell>
+          <cell r="S109">
+            <v>0</v>
+          </cell>
+          <cell r="T109">
+            <v>0</v>
+          </cell>
         </row>
         <row r="110">
           <cell r="A110">
@@ -6153,6 +7140,15 @@
           <cell r="Q110">
             <v>0</v>
           </cell>
+          <cell r="R110">
+            <v>0</v>
+          </cell>
+          <cell r="S110">
+            <v>0</v>
+          </cell>
+          <cell r="T110">
+            <v>0</v>
+          </cell>
         </row>
         <row r="111">
           <cell r="A111">
@@ -6206,6 +7202,15 @@
           <cell r="Q111">
             <v>0</v>
           </cell>
+          <cell r="R111">
+            <v>0</v>
+          </cell>
+          <cell r="S111">
+            <v>0</v>
+          </cell>
+          <cell r="T111">
+            <v>0</v>
+          </cell>
         </row>
         <row r="112">
           <cell r="A112">
@@ -6259,6 +7264,15 @@
           <cell r="Q112">
             <v>0</v>
           </cell>
+          <cell r="R112">
+            <v>0</v>
+          </cell>
+          <cell r="S112">
+            <v>0</v>
+          </cell>
+          <cell r="T112">
+            <v>0</v>
+          </cell>
         </row>
         <row r="113">
           <cell r="A113">
@@ -6312,6 +7326,15 @@
           <cell r="Q113">
             <v>0</v>
           </cell>
+          <cell r="R113">
+            <v>0</v>
+          </cell>
+          <cell r="S113">
+            <v>0</v>
+          </cell>
+          <cell r="T113">
+            <v>0</v>
+          </cell>
         </row>
         <row r="114">
           <cell r="A114">
@@ -6365,6 +7388,15 @@
           <cell r="Q114">
             <v>0</v>
           </cell>
+          <cell r="R114">
+            <v>0</v>
+          </cell>
+          <cell r="S114">
+            <v>0</v>
+          </cell>
+          <cell r="T114">
+            <v>0</v>
+          </cell>
         </row>
         <row r="115">
           <cell r="A115">
@@ -6418,6 +7450,15 @@
           <cell r="Q115">
             <v>0</v>
           </cell>
+          <cell r="R115">
+            <v>0</v>
+          </cell>
+          <cell r="S115">
+            <v>0</v>
+          </cell>
+          <cell r="T115">
+            <v>0</v>
+          </cell>
         </row>
         <row r="116">
           <cell r="A116">
@@ -6471,6 +7512,15 @@
           <cell r="Q116">
             <v>0</v>
           </cell>
+          <cell r="R116">
+            <v>0</v>
+          </cell>
+          <cell r="S116">
+            <v>0</v>
+          </cell>
+          <cell r="T116">
+            <v>0</v>
+          </cell>
         </row>
         <row r="117">
           <cell r="A117">
@@ -6524,6 +7574,15 @@
           <cell r="Q117">
             <v>0</v>
           </cell>
+          <cell r="R117">
+            <v>0</v>
+          </cell>
+          <cell r="S117">
+            <v>0</v>
+          </cell>
+          <cell r="T117">
+            <v>0</v>
+          </cell>
         </row>
         <row r="118">
           <cell r="A118">
@@ -6577,6 +7636,15 @@
           <cell r="Q118">
             <v>0</v>
           </cell>
+          <cell r="R118">
+            <v>0</v>
+          </cell>
+          <cell r="S118">
+            <v>0</v>
+          </cell>
+          <cell r="T118">
+            <v>0</v>
+          </cell>
         </row>
         <row r="119">
           <cell r="A119">
@@ -6630,6 +7698,15 @@
           <cell r="Q119">
             <v>0</v>
           </cell>
+          <cell r="R119">
+            <v>0</v>
+          </cell>
+          <cell r="S119">
+            <v>0</v>
+          </cell>
+          <cell r="T119">
+            <v>0</v>
+          </cell>
         </row>
         <row r="120">
           <cell r="A120">
@@ -6683,6 +7760,15 @@
           <cell r="Q120">
             <v>0</v>
           </cell>
+          <cell r="R120">
+            <v>0</v>
+          </cell>
+          <cell r="S120">
+            <v>0</v>
+          </cell>
+          <cell r="T120">
+            <v>0</v>
+          </cell>
         </row>
         <row r="121">
           <cell r="A121">
@@ -6736,6 +7822,15 @@
           <cell r="Q121">
             <v>0</v>
           </cell>
+          <cell r="R121">
+            <v>0</v>
+          </cell>
+          <cell r="S121">
+            <v>0</v>
+          </cell>
+          <cell r="T121">
+            <v>0</v>
+          </cell>
         </row>
         <row r="122">
           <cell r="A122">
@@ -6789,6 +7884,15 @@
           <cell r="Q122">
             <v>0</v>
           </cell>
+          <cell r="R122">
+            <v>0</v>
+          </cell>
+          <cell r="S122">
+            <v>0</v>
+          </cell>
+          <cell r="T122">
+            <v>0</v>
+          </cell>
         </row>
         <row r="123">
           <cell r="A123">
@@ -6842,6 +7946,15 @@
           <cell r="Q123">
             <v>0</v>
           </cell>
+          <cell r="R123">
+            <v>0</v>
+          </cell>
+          <cell r="S123">
+            <v>0</v>
+          </cell>
+          <cell r="T123">
+            <v>0</v>
+          </cell>
         </row>
         <row r="124">
           <cell r="A124">
@@ -6895,6 +8008,15 @@
           <cell r="Q124">
             <v>0</v>
           </cell>
+          <cell r="R124">
+            <v>0</v>
+          </cell>
+          <cell r="S124">
+            <v>0</v>
+          </cell>
+          <cell r="T124">
+            <v>0</v>
+          </cell>
         </row>
         <row r="125">
           <cell r="A125">
@@ -6948,6 +8070,15 @@
           <cell r="Q125">
             <v>0</v>
           </cell>
+          <cell r="R125">
+            <v>0</v>
+          </cell>
+          <cell r="S125">
+            <v>0</v>
+          </cell>
+          <cell r="T125">
+            <v>0</v>
+          </cell>
         </row>
         <row r="126">
           <cell r="A126">
@@ -7001,6 +8132,15 @@
           <cell r="Q126">
             <v>0</v>
           </cell>
+          <cell r="R126">
+            <v>0</v>
+          </cell>
+          <cell r="S126">
+            <v>0</v>
+          </cell>
+          <cell r="T126">
+            <v>0</v>
+          </cell>
         </row>
         <row r="127">
           <cell r="A127">
@@ -7054,6 +8194,15 @@
           <cell r="Q127">
             <v>0</v>
           </cell>
+          <cell r="R127">
+            <v>0</v>
+          </cell>
+          <cell r="S127">
+            <v>0</v>
+          </cell>
+          <cell r="T127">
+            <v>0</v>
+          </cell>
         </row>
         <row r="128">
           <cell r="A128">
@@ -7107,6 +8256,15 @@
           <cell r="Q128">
             <v>0</v>
           </cell>
+          <cell r="R128">
+            <v>0</v>
+          </cell>
+          <cell r="S128">
+            <v>0</v>
+          </cell>
+          <cell r="T128">
+            <v>0</v>
+          </cell>
         </row>
         <row r="129">
           <cell r="A129">
@@ -7160,6 +8318,15 @@
           <cell r="Q129">
             <v>0</v>
           </cell>
+          <cell r="R129">
+            <v>0</v>
+          </cell>
+          <cell r="S129">
+            <v>0</v>
+          </cell>
+          <cell r="T129">
+            <v>0</v>
+          </cell>
         </row>
         <row r="130">
           <cell r="A130">
@@ -7213,6 +8380,15 @@
           <cell r="Q130">
             <v>0</v>
           </cell>
+          <cell r="R130">
+            <v>0</v>
+          </cell>
+          <cell r="S130">
+            <v>0</v>
+          </cell>
+          <cell r="T130">
+            <v>0</v>
+          </cell>
         </row>
         <row r="131">
           <cell r="A131">
@@ -7266,6 +8442,15 @@
           <cell r="Q131">
             <v>0</v>
           </cell>
+          <cell r="R131">
+            <v>0</v>
+          </cell>
+          <cell r="S131">
+            <v>0</v>
+          </cell>
+          <cell r="T131">
+            <v>0</v>
+          </cell>
         </row>
         <row r="132">
           <cell r="A132">
@@ -7319,6 +8504,15 @@
           <cell r="Q132">
             <v>0</v>
           </cell>
+          <cell r="R132">
+            <v>0</v>
+          </cell>
+          <cell r="S132">
+            <v>0</v>
+          </cell>
+          <cell r="T132">
+            <v>0</v>
+          </cell>
         </row>
         <row r="133">
           <cell r="A133">
@@ -7372,6 +8566,15 @@
           <cell r="Q133">
             <v>0</v>
           </cell>
+          <cell r="R133">
+            <v>0</v>
+          </cell>
+          <cell r="S133">
+            <v>0</v>
+          </cell>
+          <cell r="T133">
+            <v>0</v>
+          </cell>
         </row>
         <row r="134">
           <cell r="A134">
@@ -7425,6 +8628,15 @@
           <cell r="Q134">
             <v>0</v>
           </cell>
+          <cell r="R134">
+            <v>0</v>
+          </cell>
+          <cell r="S134">
+            <v>0</v>
+          </cell>
+          <cell r="T134">
+            <v>0</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="A135">
@@ -7478,6 +8690,15 @@
           <cell r="Q135">
             <v>0</v>
           </cell>
+          <cell r="R135">
+            <v>0</v>
+          </cell>
+          <cell r="S135">
+            <v>0</v>
+          </cell>
+          <cell r="T135">
+            <v>0</v>
+          </cell>
         </row>
         <row r="136">
           <cell r="A136">
@@ -7531,6 +8752,15 @@
           <cell r="Q136">
             <v>0</v>
           </cell>
+          <cell r="R136">
+            <v>0</v>
+          </cell>
+          <cell r="S136">
+            <v>0</v>
+          </cell>
+          <cell r="T136">
+            <v>0</v>
+          </cell>
         </row>
         <row r="137">
           <cell r="A137">
@@ -7584,6 +8814,15 @@
           <cell r="Q137">
             <v>0</v>
           </cell>
+          <cell r="R137">
+            <v>0</v>
+          </cell>
+          <cell r="S137">
+            <v>0</v>
+          </cell>
+          <cell r="T137">
+            <v>0</v>
+          </cell>
         </row>
         <row r="138">
           <cell r="A138">
@@ -7637,6 +8876,15 @@
           <cell r="Q138">
             <v>0</v>
           </cell>
+          <cell r="R138">
+            <v>0</v>
+          </cell>
+          <cell r="S138">
+            <v>0</v>
+          </cell>
+          <cell r="T138">
+            <v>0</v>
+          </cell>
         </row>
         <row r="139">
           <cell r="A139">
@@ -7690,6 +8938,15 @@
           <cell r="Q139">
             <v>0</v>
           </cell>
+          <cell r="R139">
+            <v>0</v>
+          </cell>
+          <cell r="S139">
+            <v>0</v>
+          </cell>
+          <cell r="T139">
+            <v>0</v>
+          </cell>
         </row>
         <row r="140">
           <cell r="A140">
@@ -7743,6 +9000,15 @@
           <cell r="Q140">
             <v>0</v>
           </cell>
+          <cell r="R140">
+            <v>0</v>
+          </cell>
+          <cell r="S140">
+            <v>0</v>
+          </cell>
+          <cell r="T140">
+            <v>0</v>
+          </cell>
         </row>
         <row r="141">
           <cell r="A141">
@@ -7796,6 +9062,15 @@
           <cell r="Q141">
             <v>0</v>
           </cell>
+          <cell r="R141">
+            <v>0</v>
+          </cell>
+          <cell r="S141">
+            <v>0</v>
+          </cell>
+          <cell r="T141">
+            <v>0</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="A142">
@@ -7849,6 +9124,15 @@
           <cell r="Q142">
             <v>0</v>
           </cell>
+          <cell r="R142">
+            <v>0</v>
+          </cell>
+          <cell r="S142">
+            <v>0</v>
+          </cell>
+          <cell r="T142">
+            <v>0</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="A143">
@@ -7902,6 +9186,15 @@
           <cell r="Q143">
             <v>0</v>
           </cell>
+          <cell r="R143">
+            <v>0</v>
+          </cell>
+          <cell r="S143">
+            <v>0</v>
+          </cell>
+          <cell r="T143">
+            <v>0</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="A144">
@@ -7955,6 +9248,15 @@
           <cell r="Q144">
             <v>0</v>
           </cell>
+          <cell r="R144">
+            <v>0</v>
+          </cell>
+          <cell r="S144">
+            <v>0</v>
+          </cell>
+          <cell r="T144">
+            <v>0</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="A145">
@@ -8008,6 +9310,15 @@
           <cell r="Q145">
             <v>0</v>
           </cell>
+          <cell r="R145">
+            <v>0</v>
+          </cell>
+          <cell r="S145">
+            <v>0</v>
+          </cell>
+          <cell r="T145">
+            <v>0</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="A146">
@@ -8061,6 +9372,15 @@
           <cell r="Q146">
             <v>0</v>
           </cell>
+          <cell r="R146">
+            <v>0</v>
+          </cell>
+          <cell r="S146">
+            <v>0</v>
+          </cell>
+          <cell r="T146">
+            <v>0</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="A147">
@@ -8114,6 +9434,15 @@
           <cell r="Q147">
             <v>0</v>
           </cell>
+          <cell r="R147">
+            <v>0</v>
+          </cell>
+          <cell r="S147">
+            <v>0</v>
+          </cell>
+          <cell r="T147">
+            <v>0</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="A148">
@@ -8167,6 +9496,15 @@
           <cell r="Q148">
             <v>0</v>
           </cell>
+          <cell r="R148">
+            <v>0</v>
+          </cell>
+          <cell r="S148">
+            <v>0</v>
+          </cell>
+          <cell r="T148">
+            <v>0</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="A149">
@@ -8220,6 +9558,15 @@
           <cell r="Q149">
             <v>0</v>
           </cell>
+          <cell r="R149">
+            <v>0</v>
+          </cell>
+          <cell r="S149">
+            <v>0</v>
+          </cell>
+          <cell r="T149">
+            <v>0</v>
+          </cell>
         </row>
         <row r="150">
           <cell r="A150">
@@ -8273,6 +9620,15 @@
           <cell r="Q150">
             <v>0</v>
           </cell>
+          <cell r="R150">
+            <v>0</v>
+          </cell>
+          <cell r="S150">
+            <v>0</v>
+          </cell>
+          <cell r="T150">
+            <v>0</v>
+          </cell>
         </row>
         <row r="151">
           <cell r="A151">
@@ -8326,6 +9682,15 @@
           <cell r="Q151">
             <v>0</v>
           </cell>
+          <cell r="R151">
+            <v>0</v>
+          </cell>
+          <cell r="S151">
+            <v>0</v>
+          </cell>
+          <cell r="T151">
+            <v>0</v>
+          </cell>
         </row>
         <row r="152">
           <cell r="A152">
@@ -8379,6 +9744,15 @@
           <cell r="Q152">
             <v>0.16616377783206299</v>
           </cell>
+          <cell r="R152">
+            <v>0.1661688015169886</v>
+          </cell>
+          <cell r="S152">
+            <v>0</v>
+          </cell>
+          <cell r="T152">
+            <v>0</v>
+          </cell>
         </row>
         <row r="153">
           <cell r="A153">
@@ -8432,6 +9806,15 @@
           <cell r="Q153">
             <v>0.10323088244842341</v>
           </cell>
+          <cell r="R153">
+            <v>0.1032338781298256</v>
+          </cell>
+          <cell r="S153">
+            <v>0</v>
+          </cell>
+          <cell r="T153">
+            <v>0</v>
+          </cell>
         </row>
         <row r="154">
           <cell r="A154">
@@ -8485,6 +9868,15 @@
           <cell r="Q154">
             <v>0.2408720590463212</v>
           </cell>
+          <cell r="R154">
+            <v>0.24087535697102941</v>
+          </cell>
+          <cell r="S154">
+            <v>0</v>
+          </cell>
+          <cell r="T154">
+            <v>0</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="A155">
@@ -8538,6 +9930,15 @@
           <cell r="Q155">
             <v>0.1682329993305654</v>
           </cell>
+          <cell r="R155">
+            <v>0.1682481229258149</v>
+          </cell>
+          <cell r="S155">
+            <v>0</v>
+          </cell>
+          <cell r="T155">
+            <v>0</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="A156">
@@ -8591,6 +9992,15 @@
           <cell r="Q156">
             <v>0.1045164066707213</v>
           </cell>
+          <cell r="R156">
+            <v>0.10452541754498949</v>
+          </cell>
+          <cell r="S156">
+            <v>0</v>
+          </cell>
+          <cell r="T156">
+            <v>0</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="A157">
@@ -8644,6 +10054,15 @@
           <cell r="Q157">
             <v>0.24387161556501641</v>
           </cell>
+          <cell r="R157">
+            <v>0.24388130538441799</v>
+          </cell>
+          <cell r="S157">
+            <v>0</v>
+          </cell>
+          <cell r="T157">
+            <v>0</v>
+          </cell>
         </row>
         <row r="158">
           <cell r="A158">
@@ -8697,6 +10116,15 @@
           <cell r="Q158">
             <v>0.17093636479172319</v>
           </cell>
+          <cell r="R158">
+            <v>0.1709789090795254</v>
+          </cell>
+          <cell r="S158">
+            <v>0</v>
+          </cell>
+          <cell r="T158">
+            <v>0</v>
+          </cell>
         </row>
         <row r="159">
           <cell r="A159">
@@ -8750,6 +10178,15 @@
           <cell r="Q159">
             <v>0.1061958990713934</v>
           </cell>
+          <cell r="R159">
+            <v>0.1062212202027817</v>
+          </cell>
+          <cell r="S159">
+            <v>0</v>
+          </cell>
+          <cell r="T159">
+            <v>0</v>
+          </cell>
         </row>
         <row r="160">
           <cell r="A160">
@@ -8803,6 +10240,15 @@
           <cell r="Q160">
             <v>0.2477904311665845</v>
           </cell>
+          <cell r="R160">
+            <v>0.24781681796000021</v>
+          </cell>
+          <cell r="S160">
+            <v>0</v>
+          </cell>
+          <cell r="T160">
+            <v>0</v>
+          </cell>
         </row>
         <row r="161">
           <cell r="A161">
@@ -8856,6 +10302,15 @@
           <cell r="Q161">
             <v>0.18058907897859339</v>
           </cell>
+          <cell r="R161">
+            <v>0.18070115363811409</v>
+          </cell>
+          <cell r="S161">
+            <v>0</v>
+          </cell>
+          <cell r="T161">
+            <v>0</v>
+          </cell>
         </row>
         <row r="162">
           <cell r="A162">
@@ -8909,6 +10364,15 @@
           <cell r="Q162">
             <v>0.11219274276701589</v>
           </cell>
+          <cell r="R162">
+            <v>0.11225935960695139</v>
+          </cell>
+          <cell r="S162">
+            <v>0</v>
+          </cell>
+          <cell r="T162">
+            <v>0</v>
+          </cell>
         </row>
         <row r="163">
           <cell r="A163">
@@ -8962,6 +10426,15 @@
           <cell r="Q163">
             <v>0.26178306645637051</v>
           </cell>
+          <cell r="R163">
+            <v>0.2618498191289958</v>
+          </cell>
+          <cell r="S163">
+            <v>0</v>
+          </cell>
+          <cell r="T163">
+            <v>0</v>
+          </cell>
         </row>
         <row r="164">
           <cell r="A164">
@@ -9015,6 +10488,15 @@
           <cell r="Q164">
             <v>0.1822857682337154</v>
           </cell>
+          <cell r="R164">
+            <v>0.1825613489402779</v>
+          </cell>
+          <cell r="S164">
+            <v>0</v>
+          </cell>
+          <cell r="T164">
+            <v>0</v>
+          </cell>
         </row>
         <row r="165">
           <cell r="A165">
@@ -9068,6 +10550,15 @@
           <cell r="Q165">
             <v>0.1132468276664578</v>
           </cell>
+          <cell r="R165">
+            <v>0.1134103980700797</v>
+          </cell>
+          <cell r="S165">
+            <v>0</v>
+          </cell>
+          <cell r="T165">
+            <v>0</v>
+          </cell>
         </row>
         <row r="166">
           <cell r="A166">
@@ -9121,6 +10612,15 @@
           <cell r="Q166">
             <v>0.26424259788840149</v>
           </cell>
+          <cell r="R166">
+            <v>0.26439929910310289</v>
+          </cell>
+          <cell r="S166">
+            <v>0</v>
+          </cell>
+          <cell r="T166">
+            <v>0</v>
+          </cell>
         </row>
         <row r="167">
           <cell r="A167">
@@ -9174,6 +10674,15 @@
           <cell r="Q167">
             <v>0.20229393637134691</v>
           </cell>
+          <cell r="R167">
+            <v>0.2029282358785709</v>
+          </cell>
+          <cell r="S167">
+            <v>0</v>
+          </cell>
+          <cell r="T167">
+            <v>0</v>
+          </cell>
         </row>
         <row r="168">
           <cell r="A168">
@@ -9227,6 +10736,15 @@
           <cell r="Q168">
             <v>0.12567709905275021</v>
           </cell>
+          <cell r="R168">
+            <v>0.12605299581223259</v>
+          </cell>
+          <cell r="S168">
+            <v>0</v>
+          </cell>
+          <cell r="T168">
+            <v>0</v>
+          </cell>
         </row>
         <row r="169">
           <cell r="A169">
@@ -9280,6 +10798,15 @@
           <cell r="Q169">
             <v>0.29324656445641689</v>
           </cell>
+          <cell r="R169">
+            <v>0.29358846826652002</v>
+          </cell>
+          <cell r="S169">
+            <v>0</v>
+          </cell>
+          <cell r="T169">
+            <v>0</v>
+          </cell>
         </row>
         <row r="170">
           <cell r="A170">
@@ -9333,6 +10860,15 @@
           <cell r="Q170">
             <v>0.20486177626295299</v>
           </cell>
+          <cell r="R170">
+            <v>0.2062268023208588</v>
+          </cell>
+          <cell r="S170">
+            <v>0</v>
+          </cell>
+          <cell r="T170">
+            <v>0</v>
+          </cell>
         </row>
         <row r="171">
           <cell r="A171">
@@ -9386,6 +10922,15 @@
           <cell r="Q171">
             <v>0.1272723948594251</v>
           </cell>
+          <cell r="R171">
+            <v>0.12807998801489029</v>
+          </cell>
+          <cell r="S171">
+            <v>0</v>
+          </cell>
+          <cell r="T171">
+            <v>0</v>
+          </cell>
         </row>
         <row r="172">
           <cell r="A172">
@@ -9439,6 +10984,15 @@
           <cell r="Q172">
             <v>0.29696892133865838</v>
           </cell>
+          <cell r="R172">
+            <v>0.29766195682002788</v>
+          </cell>
+          <cell r="S172">
+            <v>0</v>
+          </cell>
+          <cell r="T172">
+            <v>0</v>
+          </cell>
         </row>
         <row r="173">
           <cell r="A173">
@@ -9492,6 +11046,15 @@
           <cell r="Q173">
             <v>0.1910394063105198</v>
           </cell>
+          <cell r="R173">
+            <v>0.1937888681042326</v>
+          </cell>
+          <cell r="S173">
+            <v>0</v>
+          </cell>
+          <cell r="T173">
+            <v>0</v>
+          </cell>
         </row>
         <row r="174">
           <cell r="A174">
@@ -9545,6 +11108,15 @@
           <cell r="Q174">
             <v>0.11868511147952759</v>
           </cell>
+          <cell r="R174">
+            <v>0.1203089486478449</v>
+          </cell>
+          <cell r="S174">
+            <v>0</v>
+          </cell>
+          <cell r="T174">
+            <v>0</v>
+          </cell>
         </row>
         <row r="175">
           <cell r="A175">
@@ -9598,6 +11170,15 @@
           <cell r="Q175">
             <v>0.27693192678556439</v>
           </cell>
+          <cell r="R175">
+            <v>0.27823780321715441</v>
+          </cell>
+          <cell r="S175">
+            <v>0</v>
+          </cell>
+          <cell r="T175">
+            <v>0</v>
+          </cell>
         </row>
         <row r="176">
           <cell r="A176">
@@ -9651,6 +11232,15 @@
           <cell r="Q176">
             <v>0.18935741971190681</v>
           </cell>
+          <cell r="R176">
+            <v>0.1945467173206496</v>
+          </cell>
+          <cell r="S176">
+            <v>0</v>
+          </cell>
+          <cell r="T176">
+            <v>0</v>
+          </cell>
         </row>
         <row r="177">
           <cell r="A177">
@@ -9704,6 +11294,15 @@
           <cell r="Q177">
             <v>0.1176401607501532</v>
           </cell>
+          <cell r="R177">
+            <v>0.12069944298196029</v>
+          </cell>
+          <cell r="S177">
+            <v>0</v>
+          </cell>
+          <cell r="T177">
+            <v>0</v>
+          </cell>
         </row>
         <row r="178">
           <cell r="A178">
@@ -9757,6 +11356,15 @@
           <cell r="Q178">
             <v>0.27449370841702397</v>
           </cell>
+          <cell r="R178">
+            <v>0.2767827112641929</v>
+          </cell>
+          <cell r="S178">
+            <v>0</v>
+          </cell>
+          <cell r="T178">
+            <v>0</v>
+          </cell>
         </row>
         <row r="179">
           <cell r="A179">
@@ -9810,6 +11418,15 @@
           <cell r="Q179">
             <v>0.19008883671753149</v>
           </cell>
+          <cell r="R179">
+            <v>0.19927655913195871</v>
+          </cell>
+          <cell r="S179">
+            <v>0</v>
+          </cell>
+          <cell r="T179">
+            <v>0</v>
+          </cell>
         </row>
         <row r="180">
           <cell r="A180">
@@ -9863,6 +11480,15 @@
           <cell r="Q180">
             <v>0.11809456076388369</v>
           </cell>
+          <cell r="R180">
+            <v>0.1235010653675937</v>
+          </cell>
+          <cell r="S180">
+            <v>0</v>
+          </cell>
+          <cell r="T180">
+            <v>0</v>
+          </cell>
         </row>
         <row r="181">
           <cell r="A181">
@@ -9916,6 +11542,15 @@
           <cell r="Q181">
             <v>0.27555397511572888</v>
           </cell>
+          <cell r="R181">
+            <v>0.27928888892428178</v>
+          </cell>
+          <cell r="S181">
+            <v>0</v>
+          </cell>
+          <cell r="T181">
+            <v>0</v>
+          </cell>
         </row>
         <row r="182">
           <cell r="A182">
@@ -9969,6 +11604,15 @@
           <cell r="Q182">
             <v>0.18815017259444591</v>
           </cell>
+          <cell r="R182">
+            <v>0.2034335262123331</v>
+          </cell>
+          <cell r="S182">
+            <v>0</v>
+          </cell>
+          <cell r="T182">
+            <v>0</v>
+          </cell>
         </row>
         <row r="183">
           <cell r="A183">
@@ -10022,6 +11666,15 @@
           <cell r="Q183">
             <v>0.11689014659607699</v>
           </cell>
+          <cell r="R183">
+            <v>0.12586674324100619</v>
+          </cell>
+          <cell r="S183">
+            <v>0</v>
+          </cell>
+          <cell r="T183">
+            <v>0</v>
+          </cell>
         </row>
         <row r="184">
           <cell r="A184">
@@ -10075,6 +11728,15 @@
           <cell r="Q184">
             <v>0.27274367539084649</v>
           </cell>
+          <cell r="R184">
+            <v>0.27842005705487383</v>
+          </cell>
+          <cell r="S184">
+            <v>0</v>
+          </cell>
+          <cell r="T184">
+            <v>0</v>
+          </cell>
         </row>
         <row r="185">
           <cell r="A185">
@@ -10128,6 +11790,15 @@
           <cell r="Q185">
             <v>0.1815707627445409</v>
           </cell>
+          <cell r="R185">
+            <v>0.20550404237699721</v>
+          </cell>
+          <cell r="S185">
+            <v>0</v>
+          </cell>
+          <cell r="T185">
+            <v>0</v>
+          </cell>
         </row>
         <row r="186">
           <cell r="A186">
@@ -10181,6 +11852,15 @@
           <cell r="Q186">
             <v>0.1128026234688525</v>
           </cell>
+          <cell r="R186">
+            <v>0.12683327016581161</v>
+          </cell>
+          <cell r="S186">
+            <v>0</v>
+          </cell>
+          <cell r="T186">
+            <v>0</v>
+          </cell>
         </row>
         <row r="187">
           <cell r="A187">
@@ -10234,6 +11914,15 @@
           <cell r="Q187">
             <v>0.26320612142732258</v>
           </cell>
+          <cell r="R187">
+            <v>0.27125467355283772</v>
+          </cell>
+          <cell r="S187">
+            <v>0</v>
+          </cell>
+          <cell r="T187">
+            <v>0</v>
+          </cell>
         </row>
         <row r="188">
           <cell r="A188">
@@ -10287,6 +11976,15 @@
           <cell r="Q188">
             <v>0.17398223778984029</v>
           </cell>
+          <cell r="R188">
+            <v>0.2093501839893713</v>
+          </cell>
+          <cell r="S188">
+            <v>0</v>
+          </cell>
+          <cell r="T188">
+            <v>0</v>
+          </cell>
         </row>
         <row r="189">
           <cell r="A189">
@@ -10340,6 +12038,15 @@
           <cell r="Q189">
             <v>0.10808817765053851</v>
           </cell>
+          <cell r="R189">
+            <v>0.12878341508017341</v>
+          </cell>
+          <cell r="S189">
+            <v>0</v>
+          </cell>
+          <cell r="T189">
+            <v>0</v>
+          </cell>
         </row>
         <row r="190">
           <cell r="A190">
@@ -10393,6 +12100,15 @@
           <cell r="Q190">
             <v>0.25220574785125649</v>
           </cell>
+          <cell r="R190">
+            <v>0.26286400603861859</v>
+          </cell>
+          <cell r="S190">
+            <v>0</v>
+          </cell>
+          <cell r="T190">
+            <v>0</v>
+          </cell>
         </row>
         <row r="191">
           <cell r="A191">
@@ -10446,6 +12162,15 @@
           <cell r="Q191">
             <v>0.18411155903782031</v>
           </cell>
+          <cell r="R191">
+            <v>0.23357826779413729</v>
+          </cell>
+          <cell r="S191">
+            <v>0</v>
+          </cell>
+          <cell r="T191">
+            <v>0</v>
+          </cell>
         </row>
         <row r="192">
           <cell r="A192">
@@ -10499,6 +12224,15 @@
           <cell r="Q192">
             <v>0.11438111817389</v>
           </cell>
+          <cell r="R192">
+            <v>0.14327245923360379</v>
+          </cell>
+          <cell r="S192">
+            <v>0</v>
+          </cell>
+          <cell r="T192">
+            <v>0</v>
+          </cell>
         </row>
         <row r="193">
           <cell r="A193">
@@ -10552,6 +12286,15 @@
           <cell r="Q193">
             <v>0.26688927573907661</v>
           </cell>
+          <cell r="R193">
+            <v>0.28009030318735473</v>
+          </cell>
+          <cell r="S193">
+            <v>0</v>
+          </cell>
+          <cell r="T193">
+            <v>0</v>
+          </cell>
         </row>
         <row r="194">
           <cell r="A194">
@@ -10605,6 +12348,15 @@
           <cell r="Q194">
             <v>0.17603799579459339</v>
           </cell>
+          <cell r="R194">
+            <v>0.24174390447781091</v>
+          </cell>
+          <cell r="S194">
+            <v>0</v>
+          </cell>
+          <cell r="T194">
+            <v>0</v>
+          </cell>
         </row>
         <row r="195">
           <cell r="A195">
@@ -10658,6 +12410,15 @@
           <cell r="Q195">
             <v>0.1093653375448301</v>
           </cell>
+          <cell r="R195">
+            <v>0.14767144340283089</v>
+          </cell>
+          <cell r="S195">
+            <v>0</v>
+          </cell>
+          <cell r="T195">
+            <v>0</v>
+          </cell>
         </row>
         <row r="196">
           <cell r="A196">
@@ -10711,6 +12472,15 @@
           <cell r="Q196">
             <v>0.25518578760460348</v>
           </cell>
+          <cell r="R196">
+            <v>0.27050018421251087</v>
+          </cell>
+          <cell r="S196">
+            <v>0</v>
+          </cell>
+          <cell r="T196">
+            <v>0</v>
+          </cell>
         </row>
         <row r="197">
           <cell r="A197">
@@ -10764,6 +12534,15 @@
           <cell r="Q197">
             <v>0.1764850049958849</v>
           </cell>
+          <cell r="R197">
+            <v>0.25970419087511348</v>
+          </cell>
+          <cell r="S197">
+            <v>0</v>
+          </cell>
+          <cell r="T197">
+            <v>0</v>
+          </cell>
         </row>
         <row r="198">
           <cell r="A198">
@@ -10817,6 +12596,15 @@
           <cell r="Q198">
             <v>0.1096430464108293</v>
           </cell>
+          <cell r="R198">
+            <v>0.1580731580840842</v>
+          </cell>
+          <cell r="S198">
+            <v>0</v>
+          </cell>
+          <cell r="T198">
+            <v>0</v>
+          </cell>
         </row>
         <row r="199">
           <cell r="A199">
@@ -10870,6 +12658,15 @@
           <cell r="Q199">
             <v>0.25583377495860149</v>
           </cell>
+          <cell r="R199">
+            <v>0.27249230446219108</v>
+          </cell>
+          <cell r="S199">
+            <v>0</v>
+          </cell>
+          <cell r="T199">
+            <v>0</v>
+          </cell>
         </row>
         <row r="200">
           <cell r="A200">
@@ -10923,6 +12720,15 @@
           <cell r="Q200">
             <v>0.1601112696120458</v>
           </cell>
+          <cell r="R200">
+            <v>0.26106738333475171</v>
+          </cell>
+          <cell r="S200">
+            <v>0</v>
+          </cell>
+          <cell r="T200">
+            <v>0</v>
+          </cell>
         </row>
         <row r="201">
           <cell r="A201">
@@ -10976,6 +12782,15 @@
           <cell r="Q201">
             <v>9.9470702144806397E-2</v>
           </cell>
+          <cell r="R201">
+            <v>0.158121735996128</v>
+          </cell>
+          <cell r="S201">
+            <v>0</v>
+          </cell>
+          <cell r="T201">
+            <v>0</v>
+          </cell>
         </row>
         <row r="202">
           <cell r="A202">
@@ -11029,6 +12844,15 @@
           <cell r="Q202">
             <v>0.2320983050045482</v>
           </cell>
+          <cell r="R202">
+            <v>0.24908903465818921</v>
+          </cell>
+          <cell r="S202">
+            <v>0</v>
+          </cell>
+          <cell r="T202">
+            <v>0</v>
+          </cell>
         </row>
         <row r="203">
           <cell r="A203">
@@ -11082,6 +12906,15 @@
           <cell r="Q203">
             <v>0.14056032187803849</v>
           </cell>
+          <cell r="R203">
+            <v>0.25845546951274129</v>
+          </cell>
+          <cell r="S203">
+            <v>0</v>
+          </cell>
+          <cell r="T203">
+            <v>0</v>
+          </cell>
         </row>
         <row r="204">
           <cell r="A204">
@@ -11135,6 +12968,15 @@
           <cell r="Q204">
             <v>8.7324483434466402E-2</v>
           </cell>
+          <cell r="R204">
+            <v>0.15570199099612769</v>
+          </cell>
+          <cell r="S204">
+            <v>0</v>
+          </cell>
+          <cell r="T204">
+            <v>0</v>
+          </cell>
         </row>
         <row r="205">
           <cell r="A205">
@@ -11188,6 +13030,15 @@
           <cell r="Q205">
             <v>0.20375712801375501</v>
           </cell>
+          <cell r="R205">
+            <v>0.21996319600039449</v>
+          </cell>
+          <cell r="S205">
+            <v>0</v>
+          </cell>
+          <cell r="T205">
+            <v>0</v>
+          </cell>
         </row>
         <row r="206">
           <cell r="A206">
@@ -11241,6 +13092,15 @@
           <cell r="Q206">
             <v>0.14574124740443331</v>
           </cell>
+          <cell r="R206">
+            <v>0.27897788855107181</v>
+          </cell>
+          <cell r="S206">
+            <v>0</v>
+          </cell>
+          <cell r="T206">
+            <v>0</v>
+          </cell>
         </row>
         <row r="207">
           <cell r="A207">
@@ -11294,6 +13154,15 @@
           <cell r="Q207">
             <v>9.0543184411100638E-2</v>
           </cell>
+          <cell r="R207">
+            <v>0.16769346733022081</v>
+          </cell>
+          <cell r="S207">
+            <v>0</v>
+          </cell>
+          <cell r="T207">
+            <v>0</v>
+          </cell>
         </row>
         <row r="208">
           <cell r="A208">
@@ -11347,6 +13216,15 @@
           <cell r="Q208">
             <v>0.2112674302925682</v>
           </cell>
+          <cell r="R208">
+            <v>0.22560618445082731</v>
+          </cell>
+          <cell r="S208">
+            <v>0</v>
+          </cell>
+          <cell r="T208">
+            <v>0</v>
+          </cell>
         </row>
         <row r="209">
           <cell r="A209">
@@ -11400,6 +13278,15 @@
           <cell r="Q209">
             <v>0.13954165535403101</v>
           </cell>
+          <cell r="R209">
+            <v>0.28605769821502708</v>
+          </cell>
+          <cell r="S209">
+            <v>0</v>
+          </cell>
+          <cell r="T209">
+            <v>0</v>
+          </cell>
         </row>
         <row r="210">
           <cell r="A210">
@@ -11453,6 +13340,15 @@
           <cell r="Q210">
             <v>8.6691626830181404E-2</v>
           </cell>
+          <cell r="R210">
+            <v>0.17139693077495699</v>
+          </cell>
+          <cell r="S210">
+            <v>0</v>
+          </cell>
+          <cell r="T210">
+            <v>0</v>
+          </cell>
         </row>
         <row r="211">
           <cell r="A211">
@@ -11506,6 +13402,15 @@
           <cell r="Q211">
             <v>0.20228046260375671</v>
           </cell>
+          <cell r="R211">
+            <v>0.21377633998538381</v>
+          </cell>
+          <cell r="S211">
+            <v>0</v>
+          </cell>
+          <cell r="T211">
+            <v>0</v>
+          </cell>
         </row>
         <row r="212">
           <cell r="A212">
@@ -11559,6 +13464,15 @@
           <cell r="Q212">
             <v>0.12337585944457539</v>
           </cell>
+          <cell r="R212">
+            <v>0.27729337151271632</v>
+          </cell>
+          <cell r="S212">
+            <v>0</v>
+          </cell>
+          <cell r="T212">
+            <v>0</v>
+          </cell>
         </row>
         <row r="213">
           <cell r="A213">
@@ -11612,6 +13526,15 @@
           <cell r="Q213">
             <v>7.6648467009267765E-2</v>
           </cell>
+          <cell r="R213">
+            <v>0.16338631401303849</v>
+          </cell>
+          <cell r="S213">
+            <v>0</v>
+          </cell>
+          <cell r="T213">
+            <v>0</v>
+          </cell>
         </row>
         <row r="214">
           <cell r="A214">
@@ -11665,6 +13588,15 @@
           <cell r="Q214">
             <v>0.17884642302162471</v>
           </cell>
+          <cell r="R214">
+            <v>0.1195055579292868</v>
+          </cell>
+          <cell r="S214">
+            <v>0</v>
+          </cell>
+          <cell r="T214">
+            <v>0</v>
+          </cell>
         </row>
         <row r="215">
           <cell r="A215">
@@ -11718,6 +13650,15 @@
           <cell r="Q215">
             <v>0.1432600240224714</v>
           </cell>
+          <cell r="R215">
+            <v>0.30597325823712151</v>
+          </cell>
+          <cell r="S215">
+            <v>0</v>
+          </cell>
+          <cell r="T215">
+            <v>0</v>
+          </cell>
         </row>
         <row r="216">
           <cell r="A216">
@@ -11771,6 +13712,15 @@
           <cell r="Q216">
             <v>8.9001699963566897E-2</v>
           </cell>
+          <cell r="R216">
+            <v>0.18047587727360989</v>
+          </cell>
+          <cell r="S216">
+            <v>0</v>
+          </cell>
+          <cell r="T216">
+            <v>0</v>
+          </cell>
         </row>
         <row r="217">
           <cell r="A217">
@@ -11824,6 +13774,15 @@
           <cell r="Q217">
             <v>0.20767063324832269</v>
           </cell>
+          <cell r="R217">
+            <v>0.13793311042745571</v>
+          </cell>
+          <cell r="S217">
+            <v>0</v>
+          </cell>
+          <cell r="T217">
+            <v>0</v>
+          </cell>
         </row>
         <row r="218">
           <cell r="A218">
@@ -11877,6 +13836,15 @@
           <cell r="Q218">
             <v>0.15106775163247249</v>
           </cell>
+          <cell r="R218">
+            <v>0.32103409544524958</v>
+          </cell>
+          <cell r="S218">
+            <v>0</v>
+          </cell>
+          <cell r="T218">
+            <v>0</v>
+          </cell>
         </row>
         <row r="219">
           <cell r="A219">
@@ -11930,6 +13898,15 @@
           <cell r="Q219">
             <v>9.3852327588992715E-2</v>
           </cell>
+          <cell r="R219">
+            <v>0.18918588969507219</v>
+          </cell>
+          <cell r="S219">
+            <v>0</v>
+          </cell>
+          <cell r="T219">
+            <v>0</v>
+          </cell>
         </row>
         <row r="220">
           <cell r="A220">
@@ -11983,6 +13960,15 @@
           <cell r="Q220">
             <v>0.21898876437431641</v>
           </cell>
+          <cell r="R220">
+            <v>0.1392067545228306</v>
+          </cell>
+          <cell r="S220">
+            <v>0</v>
+          </cell>
+          <cell r="T220">
+            <v>0</v>
+          </cell>
         </row>
         <row r="221">
           <cell r="A221">
@@ -12036,6 +14022,15 @@
           <cell r="Q221">
             <v>0.1589118088039041</v>
           </cell>
+          <cell r="R221">
+            <v>0.33506565438451918</v>
+          </cell>
+          <cell r="S221">
+            <v>0</v>
+          </cell>
+          <cell r="T221">
+            <v>0</v>
+          </cell>
         </row>
         <row r="222">
           <cell r="A222">
@@ -12089,6 +14084,15 @@
           <cell r="Q222">
             <v>9.872552531203177E-2</v>
           </cell>
+          <cell r="R222">
+            <v>0.19731419637106001</v>
+          </cell>
+          <cell r="S222">
+            <v>0</v>
+          </cell>
+          <cell r="T222">
+            <v>0</v>
+          </cell>
         </row>
         <row r="223">
           <cell r="A223">
@@ -12142,6 +14146,15 @@
           <cell r="Q223">
             <v>0.2303595590614074</v>
           </cell>
+          <cell r="R223">
+            <v>0.14082407489277521</v>
+          </cell>
+          <cell r="S223">
+            <v>0</v>
+          </cell>
+          <cell r="T223">
+            <v>0</v>
+          </cell>
         </row>
         <row r="224">
           <cell r="A224">
@@ -12195,6 +14208,15 @@
           <cell r="Q224">
             <v>0.1157084747351524</v>
           </cell>
+          <cell r="R224">
+            <v>0.29747030529178381</v>
+          </cell>
+          <cell r="S224">
+            <v>0</v>
+          </cell>
+          <cell r="T224">
+            <v>0</v>
+          </cell>
         </row>
         <row r="225">
           <cell r="A225">
@@ -12248,6 +14270,15 @@
           <cell r="Q225">
             <v>7.1885028792153763E-2</v>
           </cell>
+          <cell r="R225">
+            <v>0.1733980400796252</v>
+          </cell>
+          <cell r="S225">
+            <v>0</v>
+          </cell>
+          <cell r="T225">
+            <v>0</v>
+          </cell>
         </row>
         <row r="226">
           <cell r="A226">
@@ -12301,6 +14332,15 @@
           <cell r="Q226">
             <v>0.16773173384835871</v>
           </cell>
+          <cell r="R226">
+            <v>6.853296593291E-2</v>
+          </cell>
+          <cell r="S226">
+            <v>0</v>
+          </cell>
+          <cell r="T226">
+            <v>0</v>
+          </cell>
         </row>
         <row r="227">
           <cell r="A227">
@@ -12354,6 +14394,15 @@
           <cell r="Q227">
             <v>0.1105415079047373</v>
           </cell>
+          <cell r="R227">
+            <v>0.29777639784108262</v>
+          </cell>
+          <cell r="S227">
+            <v>0</v>
+          </cell>
+          <cell r="T227">
+            <v>0</v>
+          </cell>
         </row>
         <row r="228">
           <cell r="A228">
@@ -12407,6 +14456,15 @@
           <cell r="Q228">
             <v>6.8674999792785615E-2</v>
           </cell>
+          <cell r="R228">
+            <v>0.1730287152108507</v>
+          </cell>
+          <cell r="S228">
+            <v>0</v>
+          </cell>
+          <cell r="T228">
+            <v>0</v>
+          </cell>
         </row>
         <row r="229">
           <cell r="A229">
@@ -12460,6 +14518,15 @@
           <cell r="Q229">
             <v>0.16024166618316649</v>
           </cell>
+          <cell r="R229">
+            <v>5.1189994506959047E-2</v>
+          </cell>
+          <cell r="S229">
+            <v>0</v>
+          </cell>
+          <cell r="T229">
+            <v>0</v>
+          </cell>
         </row>
         <row r="230">
           <cell r="A230">
@@ -12513,6 +14580,15 @@
           <cell r="Q230">
             <v>0.14187983209710681</v>
           </cell>
+          <cell r="R230">
+            <v>0.33481879901684442</v>
+          </cell>
+          <cell r="S230">
+            <v>0</v>
+          </cell>
+          <cell r="T230">
+            <v>0</v>
+          </cell>
         </row>
         <row r="231">
           <cell r="A231">
@@ -12566,6 +14642,15 @@
           <cell r="Q231">
             <v>8.8144242145367924E-2</v>
           </cell>
+          <cell r="R231">
+            <v>0.1954566225837174</v>
+          </cell>
+          <cell r="S231">
+            <v>0</v>
+          </cell>
+          <cell r="T231">
+            <v>0</v>
+          </cell>
         </row>
         <row r="232">
           <cell r="A232">
@@ -12619,6 +14704,15 @@
           <cell r="Q232">
             <v>0.2056698983391918</v>
           </cell>
+          <cell r="R232">
+            <v>8.6287595213234772E-2</v>
+          </cell>
+          <cell r="S232">
+            <v>0</v>
+          </cell>
+          <cell r="T232">
+            <v>0</v>
+          </cell>
         </row>
         <row r="233">
           <cell r="A233">
@@ -12672,6 +14766,15 @@
           <cell r="Q233">
             <v>0.1728353086699265</v>
           </cell>
+          <cell r="R233">
+            <v>0.37197385929745602</v>
+          </cell>
+          <cell r="S233">
+            <v>0</v>
+          </cell>
+          <cell r="T233">
+            <v>0</v>
+          </cell>
         </row>
         <row r="234">
           <cell r="A234">
@@ -12725,6 +14828,15 @@
           <cell r="Q234">
             <v>0.1073756366461197</v>
           </cell>
+          <cell r="R234">
+            <v>0.21790944436219509</v>
+          </cell>
+          <cell r="S234">
+            <v>0</v>
+          </cell>
+          <cell r="T234">
+            <v>0</v>
+          </cell>
         </row>
         <row r="235">
           <cell r="A235">
@@ -12778,6 +14890,15 @@
           <cell r="Q235">
             <v>0.25054315217427919</v>
           </cell>
+          <cell r="R235">
+            <v>0.12011549019672831</v>
+          </cell>
+          <cell r="S235">
+            <v>0</v>
+          </cell>
+          <cell r="T235">
+            <v>0</v>
+          </cell>
         </row>
         <row r="236">
           <cell r="A236">
@@ -12831,6 +14952,15 @@
           <cell r="Q236">
             <v>0.195726336278706</v>
           </cell>
+          <cell r="R236">
+            <v>0.40170966276164338</v>
+          </cell>
+          <cell r="S236">
+            <v>0</v>
+          </cell>
+          <cell r="T236">
+            <v>0</v>
+          </cell>
         </row>
         <row r="237">
           <cell r="A237">
@@ -12884,6 +15014,15 @@
           <cell r="Q237">
             <v>0.1215969128534638</v>
           </cell>
+          <cell r="R237">
+            <v>0.23569658944072849</v>
+          </cell>
+          <cell r="S237">
+            <v>0</v>
+          </cell>
+          <cell r="T237">
+            <v>0</v>
+          </cell>
         </row>
         <row r="238">
           <cell r="A238">
@@ -12937,6 +15076,15 @@
           <cell r="Q238">
             <v>0.2837261299914155</v>
           </cell>
+          <cell r="R238">
+            <v>0.14139567663493829</v>
+          </cell>
+          <cell r="S238">
+            <v>0</v>
+          </cell>
+          <cell r="T238">
+            <v>0</v>
+          </cell>
         </row>
         <row r="239">
           <cell r="A239">
@@ -12990,6 +15138,15 @@
           <cell r="Q239">
             <v>0.20250152117533271</v>
           </cell>
+          <cell r="R239">
+            <v>0.4160052193037625</v>
+          </cell>
+          <cell r="S239">
+            <v>0</v>
+          </cell>
+          <cell r="T239">
+            <v>0</v>
+          </cell>
         </row>
         <row r="240">
           <cell r="A240">
@@ -13043,6 +15200,15 @@
           <cell r="Q240">
             <v>0.1258060631553839</v>
           </cell>
+          <cell r="R240">
+            <v>0.24383271301746981</v>
+          </cell>
+          <cell r="S240">
+            <v>0</v>
+          </cell>
+          <cell r="T240">
+            <v>0</v>
+          </cell>
         </row>
         <row r="241">
           <cell r="A241">
@@ -13096,6 +15262,15 @@
           <cell r="Q241">
             <v>0.29354748069589581</v>
           </cell>
+          <cell r="R241">
+            <v>0.1384301178402963</v>
+          </cell>
+          <cell r="S241">
+            <v>0</v>
+          </cell>
+          <cell r="T241">
+            <v>0</v>
+          </cell>
         </row>
         <row r="242">
           <cell r="A242">
@@ -13149,6 +15324,15 @@
           <cell r="Q242">
             <v>0.1655490338242388</v>
           </cell>
+          <cell r="R242">
+            <v>0.38716528150773039</v>
+          </cell>
+          <cell r="S242">
+            <v>0</v>
+          </cell>
+          <cell r="T242">
+            <v>0</v>
+          </cell>
         </row>
         <row r="243">
           <cell r="A243">
@@ -13202,6 +15386,15 @@
           <cell r="Q243">
             <v>0.1028489666829326</v>
           </cell>
+          <cell r="R243">
+            <v>0.22511666476986061</v>
+          </cell>
+          <cell r="S243">
+            <v>0</v>
+          </cell>
+          <cell r="T243">
+            <v>0</v>
+          </cell>
         </row>
         <row r="244">
           <cell r="A244">
@@ -13255,6 +15448,15 @@
           <cell r="Q244">
             <v>0.23998092226017609</v>
           </cell>
+          <cell r="R244">
+            <v>7.1224037876306448E-2</v>
+          </cell>
+          <cell r="S244">
+            <v>0</v>
+          </cell>
+          <cell r="T244">
+            <v>0</v>
+          </cell>
         </row>
         <row r="245">
           <cell r="A245">
@@ -13308,6 +15510,15 @@
           <cell r="Q245">
             <v>0.1723614974024634</v>
           </cell>
+          <cell r="R245">
+            <v>0.40252425845650008</v>
+          </cell>
+          <cell r="S245">
+            <v>0</v>
+          </cell>
+          <cell r="T245">
+            <v>0</v>
+          </cell>
         </row>
         <row r="246">
           <cell r="A246">
@@ -13361,6 +15572,15 @@
           <cell r="Q246">
             <v>9.1703712502111082E-2</v>
           </cell>
+          <cell r="R246">
+            <v>0.21844367927998889</v>
+          </cell>
+          <cell r="S246">
+            <v>0</v>
+          </cell>
+          <cell r="T246">
+            <v>0</v>
+          </cell>
         </row>
         <row r="247">
           <cell r="A247">
@@ -13414,6 +15634,15 @@
           <cell r="Q247">
             <v>0.21397532917159251</v>
           </cell>
+          <cell r="R247">
+            <v>3.100089228110714E-2</v>
+          </cell>
+          <cell r="S247">
+            <v>0</v>
+          </cell>
+          <cell r="T247">
+            <v>0</v>
+          </cell>
         </row>
         <row r="248">
           <cell r="A248">
@@ -13467,6 +15696,15 @@
           <cell r="Q248">
             <v>0.17618692493345331</v>
           </cell>
+          <cell r="R248">
+            <v>0.41511637078823371</v>
+          </cell>
+          <cell r="S248">
+            <v>0</v>
+          </cell>
+          <cell r="T248">
+            <v>0</v>
+          </cell>
         </row>
         <row r="249">
           <cell r="A249">
@@ -13520,6 +15758,15 @@
           <cell r="Q249">
             <v>8.0940674187578832E-2</v>
           </cell>
+          <cell r="R249">
+            <v>0.2122659630026999</v>
+          </cell>
+          <cell r="S249">
+            <v>0</v>
+          </cell>
+          <cell r="T249">
+            <v>0</v>
+          </cell>
         </row>
         <row r="250">
           <cell r="A250">
@@ -13559,19 +15806,28 @@
             <v>1.183817950043922E-2</v>
           </cell>
           <cell r="M250">
-            <v>0.49528724700629972</v>
+            <v>0.50402851832315299</v>
           </cell>
           <cell r="N250">
-            <v>0</v>
+            <v>2.0489096641540529E-17</v>
           </cell>
           <cell r="O250">
-            <v>8.7412713168532902E-3</v>
+            <v>8.7412713168533111E-3</v>
           </cell>
           <cell r="P250">
             <v>7.9313658405965253</v>
           </cell>
           <cell r="Q250">
             <v>0.18886157310435051</v>
+          </cell>
+          <cell r="R250">
+            <v>2.0489096641540529E-17</v>
+          </cell>
+          <cell r="S250">
+            <v>0</v>
+          </cell>
+          <cell r="T250">
+            <v>0</v>
           </cell>
         </row>
         <row r="251">
@@ -13626,6 +15882,15 @@
           <cell r="Q251">
             <v>0.2283774487798349</v>
           </cell>
+          <cell r="R251">
+            <v>0.47608778457465362</v>
+          </cell>
+          <cell r="S251">
+            <v>0</v>
+          </cell>
+          <cell r="T251">
+            <v>0</v>
+          </cell>
         </row>
         <row r="252">
           <cell r="A252">
@@ -13679,6 +15944,15 @@
           <cell r="Q252">
             <v>9.7647531784772701E-2</v>
           </cell>
+          <cell r="R252">
+            <v>0.23355760691441849</v>
+          </cell>
+          <cell r="S252">
+            <v>0</v>
+          </cell>
+          <cell r="T252">
+            <v>0</v>
+          </cell>
         </row>
         <row r="253">
           <cell r="A253">
@@ -13732,6 +16006,15 @@
           <cell r="Q253">
             <v>0.22784424083113619</v>
           </cell>
+          <cell r="R253">
+            <v>1.540626720728557E-2</v>
+          </cell>
+          <cell r="S253">
+            <v>0</v>
+          </cell>
+          <cell r="T253">
+            <v>0</v>
+          </cell>
         </row>
         <row r="254">
           <cell r="A254">
@@ -13785,6 +16068,15 @@
           <cell r="Q254">
             <v>0.27667301307187753</v>
           </cell>
+          <cell r="R254">
+            <v>0.53302571370014329</v>
+          </cell>
+          <cell r="S254">
+            <v>0</v>
+          </cell>
+          <cell r="T254">
+            <v>0</v>
+          </cell>
         </row>
         <row r="255">
           <cell r="A255">
@@ -13838,6 +16130,15 @@
           <cell r="Q255">
             <v>0.11172504798997469</v>
           </cell>
+          <cell r="R255">
+            <v>0.25213268045720799</v>
+          </cell>
+          <cell r="S255">
+            <v>0</v>
+          </cell>
+          <cell r="T255">
+            <v>0</v>
+          </cell>
         </row>
         <row r="256">
           <cell r="A256">
@@ -13891,6 +16192,15 @@
           <cell r="Q256">
             <v>0.2606917786432742</v>
           </cell>
+          <cell r="R256">
+            <v>3.3357431566271419E-2</v>
+          </cell>
+          <cell r="S256">
+            <v>0</v>
+          </cell>
+          <cell r="T256">
+            <v>0</v>
+          </cell>
         </row>
         <row r="257">
           <cell r="A257">
@@ -13944,6 +16254,15 @@
           <cell r="Q257">
             <v>0.34007556837147362</v>
           </cell>
+          <cell r="R257">
+            <v>0.6048773009439411</v>
+          </cell>
+          <cell r="S257">
+            <v>0</v>
+          </cell>
+          <cell r="T257">
+            <v>0</v>
+          </cell>
         </row>
         <row r="258">
           <cell r="A258">
@@ -13997,6 +16316,15 @@
           <cell r="Q258">
             <v>0.13332859275983641</v>
           </cell>
+          <cell r="R258">
+            <v>0.27810884610355202</v>
+          </cell>
+          <cell r="S258">
+            <v>0</v>
+          </cell>
+          <cell r="T258">
+            <v>0</v>
+          </cell>
         </row>
         <row r="259">
           <cell r="A259">
@@ -14050,6 +16378,15 @@
           <cell r="Q259">
             <v>0.31110004977295158</v>
           </cell>
+          <cell r="R259">
+            <v>6.8854528406131044E-2</v>
+          </cell>
+          <cell r="S259">
+            <v>0</v>
+          </cell>
+          <cell r="T259">
+            <v>0</v>
+          </cell>
         </row>
         <row r="260">
           <cell r="A260">
@@ -14103,6 +16440,15 @@
           <cell r="Q260">
             <v>0.35132124478597032</v>
           </cell>
+          <cell r="R260">
+            <v>0.62444356540706425</v>
+          </cell>
+          <cell r="S260">
+            <v>0</v>
+          </cell>
+          <cell r="T260">
+            <v>0</v>
+          </cell>
         </row>
         <row r="261">
           <cell r="A261">
@@ -14156,6 +16502,15 @@
           <cell r="Q261">
             <v>0.13041596614163681</v>
           </cell>
+          <cell r="R261">
+            <v>0.2794635561180519</v>
+          </cell>
+          <cell r="S261">
+            <v>0</v>
+          </cell>
+          <cell r="T261">
+            <v>0</v>
+          </cell>
         </row>
         <row r="262">
           <cell r="A262">
@@ -14209,6 +16564,15 @@
           <cell r="Q262">
             <v>0.30430392099715248</v>
           </cell>
+          <cell r="R262">
+            <v>4.7063386704615379E-2</v>
+          </cell>
+          <cell r="S262">
+            <v>0</v>
+          </cell>
+          <cell r="T262">
+            <v>0</v>
+          </cell>
         </row>
         <row r="263">
           <cell r="A263">
@@ -14262,6 +16626,15 @@
           <cell r="Q263">
             <v>0.40186258805002167</v>
           </cell>
+          <cell r="R263">
+            <v>0.68336436398568179</v>
+          </cell>
+          <cell r="S263">
+            <v>0</v>
+          </cell>
+          <cell r="T263">
+            <v>0</v>
+          </cell>
         </row>
         <row r="264">
           <cell r="A264">
@@ -14315,6 +16688,15 @@
           <cell r="Q264">
             <v>0.14550882696586759</v>
           </cell>
+          <cell r="R264">
+            <v>0.29879040873210672</v>
+          </cell>
+          <cell r="S264">
+            <v>0</v>
+          </cell>
+          <cell r="T264">
+            <v>0</v>
+          </cell>
         </row>
         <row r="265">
           <cell r="A265">
@@ -14368,6 +16750,15 @@
           <cell r="Q265">
             <v>0.33952059625369102</v>
           </cell>
+          <cell r="R265">
+            <v>6.7017438110446789E-2</v>
+          </cell>
+          <cell r="S265">
+            <v>0</v>
+          </cell>
+          <cell r="T265">
+            <v>0</v>
+          </cell>
         </row>
         <row r="266">
           <cell r="A266">
@@ -14421,6 +16812,15 @@
           <cell r="Q266">
             <v>0.45370317856812881</v>
           </cell>
+          <cell r="R266">
+            <v>0.7439212616090416</v>
+          </cell>
+          <cell r="S266">
+            <v>0</v>
+          </cell>
+          <cell r="T266">
+            <v>0</v>
+          </cell>
         </row>
         <row r="267">
           <cell r="A267">
@@ -14474,6 +16874,15 @@
           <cell r="Q267">
             <v>0.16102786953733381</v>
           </cell>
+          <cell r="R267">
+            <v>0.31860944629858751</v>
+          </cell>
+          <cell r="S267">
+            <v>0</v>
+          </cell>
+          <cell r="T267">
+            <v>0</v>
+          </cell>
         </row>
         <row r="268">
           <cell r="A268">
@@ -14527,6 +16936,15 @@
           <cell r="Q268">
             <v>0.37573169558711189</v>
           </cell>
+          <cell r="R268">
+            <v>8.7433774947844295E-2</v>
+          </cell>
+          <cell r="S268">
+            <v>0</v>
+          </cell>
+          <cell r="T268">
+            <v>0</v>
+          </cell>
         </row>
         <row r="269">
           <cell r="A269">
@@ -14580,6 +16998,15 @@
           <cell r="Q269">
             <v>0.48996345588165963</v>
           </cell>
+          <cell r="R269">
+            <v>0.78955793835813692</v>
+          </cell>
+          <cell r="S269">
+            <v>0</v>
+          </cell>
+          <cell r="T269">
+            <v>0</v>
+          </cell>
         </row>
         <row r="270">
           <cell r="A270">
@@ -14633,6 +17060,15 @@
           <cell r="Q270">
             <v>0.16927912236379319</v>
           </cell>
+          <cell r="R270">
+            <v>0.3313195226575279</v>
+          </cell>
+          <cell r="S270">
+            <v>0</v>
+          </cell>
+          <cell r="T270">
+            <v>0</v>
+          </cell>
         </row>
         <row r="271">
           <cell r="A271">
@@ -14686,6 +17122,15 @@
           <cell r="Q271">
             <v>0.39498461884885089</v>
           </cell>
+          <cell r="R271">
+            <v>9.0061229360735726E-2</v>
+          </cell>
+          <cell r="S271">
+            <v>0</v>
+          </cell>
+          <cell r="T271">
+            <v>0</v>
+          </cell>
         </row>
         <row r="272">
           <cell r="A272">
@@ -14739,6 +17184,15 @@
           <cell r="Q272">
             <v>0.58464258331535546</v>
           </cell>
+          <cell r="R272">
+            <v>0.89459524197245133</v>
+          </cell>
+          <cell r="S272">
+            <v>0</v>
+          </cell>
+          <cell r="T272">
+            <v>0</v>
+          </cell>
         </row>
         <row r="273">
           <cell r="A273">
@@ -14792,6 +17246,15 @@
           <cell r="Q273">
             <v>0.2040460866723191</v>
           </cell>
+          <cell r="R273">
+            <v>0.37075766091616369</v>
+          </cell>
+          <cell r="S273">
+            <v>0</v>
+          </cell>
+          <cell r="T273">
+            <v>0</v>
+          </cell>
         </row>
         <row r="274">
           <cell r="A274">
@@ -14845,6 +17308,15 @@
           <cell r="Q274">
             <v>0.47610753556874452</v>
           </cell>
+          <cell r="R274">
+            <v>0.15344493488199609</v>
+          </cell>
+          <cell r="S274">
+            <v>0</v>
+          </cell>
+          <cell r="T274">
+            <v>0</v>
+          </cell>
         </row>
         <row r="275">
           <cell r="A275">
@@ -14898,6 +17370,15 @@
           <cell r="Q275">
             <v>0.60619301605554543</v>
           </cell>
+          <cell r="R275">
+            <v>0.92777221621437767</v>
+          </cell>
+          <cell r="S275">
+            <v>0</v>
+          </cell>
+          <cell r="T275">
+            <v>0</v>
+          </cell>
         </row>
         <row r="276">
           <cell r="A276">
@@ -14951,6 +17432,15 @@
           <cell r="Q276">
             <v>0.20590817698074421</v>
           </cell>
+          <cell r="R276">
+            <v>0.37749869373242562</v>
+          </cell>
+          <cell r="S276">
+            <v>0</v>
+          </cell>
+          <cell r="T276">
+            <v>0</v>
+          </cell>
         </row>
         <row r="277">
           <cell r="A277">
@@ -15004,6 +17494,15 @@
           <cell r="Q277">
             <v>0.48045241295506991</v>
           </cell>
+          <cell r="R277">
+            <v>0.13870480549134279</v>
+          </cell>
+          <cell r="S277">
+            <v>0</v>
+          </cell>
+          <cell r="T277">
+            <v>0</v>
+          </cell>
         </row>
         <row r="278">
           <cell r="A278">
@@ -15057,6 +17556,15 @@
           <cell r="Q278">
             <v>0.63411615387511155</v>
           </cell>
+          <cell r="R278">
+            <v>0.96885179853411363</v>
+          </cell>
+          <cell r="S278">
+            <v>0</v>
+          </cell>
+          <cell r="T278">
+            <v>0</v>
+          </cell>
         </row>
         <row r="279">
           <cell r="A279">
@@ -15110,6 +17618,15 @@
           <cell r="Q279">
             <v>0.21124917382364511</v>
           </cell>
+          <cell r="R279">
+            <v>0.38787618253625122</v>
+          </cell>
+          <cell r="S279">
+            <v>0</v>
+          </cell>
+          <cell r="T279">
+            <v>0</v>
+          </cell>
         </row>
         <row r="280">
           <cell r="A280">
@@ -15163,6 +17680,15 @@
           <cell r="Q280">
             <v>0.49291473892183851</v>
           </cell>
+          <cell r="R280">
+            <v>0.130542692798506</v>
+          </cell>
+          <cell r="S280">
+            <v>0</v>
+          </cell>
+          <cell r="T280">
+            <v>0</v>
+          </cell>
         </row>
         <row r="281">
           <cell r="A281">
@@ -15216,6 +17742,15 @@
           <cell r="Q281">
             <v>0.64459086511459796</v>
           </cell>
+          <cell r="R281">
+            <v>0.99428347987154209</v>
+          </cell>
+          <cell r="S281">
+            <v>0</v>
+          </cell>
+          <cell r="T281">
+            <v>0</v>
+          </cell>
         </row>
         <row r="282">
           <cell r="A282">
@@ -15269,6 +17804,15 @@
           <cell r="Q282">
             <v>0.20981817806930489</v>
           </cell>
+          <cell r="R282">
+            <v>0.39158032835368789</v>
+          </cell>
+          <cell r="S282">
+            <v>0</v>
+          </cell>
+          <cell r="T282">
+            <v>0</v>
+          </cell>
         </row>
         <row r="283">
           <cell r="A283">
@@ -15322,6 +17866,15 @@
           <cell r="Q283">
             <v>0.48957574882837801</v>
           </cell>
+          <cell r="R283">
+            <v>0.10483688239579141</v>
+          </cell>
+          <cell r="S283">
+            <v>0</v>
+          </cell>
+          <cell r="T283">
+            <v>0</v>
+          </cell>
         </row>
         <row r="284">
           <cell r="A284">
@@ -15375,6 +17928,15 @@
           <cell r="Q284">
             <v>0.70286857514248435</v>
           </cell>
+          <cell r="R284">
+            <v>1.0696522541288671</v>
+          </cell>
+          <cell r="S284">
+            <v>0</v>
+          </cell>
+          <cell r="T284">
+            <v>0</v>
+          </cell>
         </row>
         <row r="285">
           <cell r="A285">
@@ -15428,6 +17990,15 @@
           <cell r="Q285">
             <v>0.22977948519916719</v>
           </cell>
+          <cell r="R285">
+            <v>0.41676161189260041</v>
+          </cell>
+          <cell r="S285">
+            <v>0</v>
+          </cell>
+          <cell r="T285">
+            <v>0</v>
+          </cell>
         </row>
         <row r="286">
           <cell r="A286">
@@ -15481,6 +18052,15 @@
           <cell r="Q286">
             <v>0.53615213213139012</v>
           </cell>
+          <cell r="R286">
+            <v>0.12701266970680161</v>
+          </cell>
+          <cell r="S286">
+            <v>0</v>
+          </cell>
+          <cell r="T286">
+            <v>0</v>
+          </cell>
         </row>
         <row r="287">
           <cell r="A287">
@@ -15534,6 +18114,15 @@
           <cell r="Q287">
             <v>0.7479688676423395</v>
           </cell>
+          <cell r="R287">
+            <v>1.13321773649281</v>
+          </cell>
+          <cell r="S287">
+            <v>0</v>
+          </cell>
+          <cell r="T287">
+            <v>0</v>
+          </cell>
         </row>
         <row r="288">
           <cell r="A288">
@@ -15587,6 +18176,15 @@
           <cell r="Q288">
             <v>0.24479926080836739</v>
           </cell>
+          <cell r="R288">
+            <v>0.43590697443236798</v>
+          </cell>
+          <cell r="S288">
+            <v>0</v>
+          </cell>
+          <cell r="T288">
+            <v>0</v>
+          </cell>
         </row>
         <row r="289">
           <cell r="A289">
@@ -15640,6 +18238,15 @@
           <cell r="Q289">
             <v>0.57119827521952393</v>
           </cell>
+          <cell r="R289">
+            <v>0.1154447267536319</v>
+          </cell>
+          <cell r="S289">
+            <v>0</v>
+          </cell>
+          <cell r="T289">
+            <v>0</v>
+          </cell>
         </row>
         <row r="290">
           <cell r="A290">
@@ -15693,6 +18300,15 @@
           <cell r="Q290">
             <v>0.82620407175693489</v>
           </cell>
+          <cell r="R290">
+            <v>1.2345230397689879</v>
+          </cell>
+          <cell r="S290">
+            <v>0</v>
+          </cell>
+          <cell r="T290">
+            <v>0</v>
+          </cell>
         </row>
         <row r="291">
           <cell r="A291">
@@ -15746,6 +18362,15 @@
           <cell r="Q291">
             <v>0.27433141390879751</v>
           </cell>
+          <cell r="R291">
+            <v>0.4715502777331263</v>
+          </cell>
+          <cell r="S291">
+            <v>0</v>
+          </cell>
+          <cell r="T291">
+            <v>0</v>
+          </cell>
         </row>
         <row r="292">
           <cell r="A292">
@@ -15799,6 +18424,15 @@
           <cell r="Q292">
             <v>0.64010663245386101</v>
           </cell>
+          <cell r="R292">
+            <v>0.16058738230947761</v>
+          </cell>
+          <cell r="S292">
+            <v>0</v>
+          </cell>
+          <cell r="T292">
+            <v>0</v>
+          </cell>
         </row>
         <row r="293">
           <cell r="A293">
@@ -15852,6 +18486,15 @@
           <cell r="Q293">
             <v>0.89531866684353023</v>
           </cell>
+          <cell r="R293">
+            <v>1.33034146751086</v>
+          </cell>
+          <cell r="S293">
+            <v>0</v>
+          </cell>
+          <cell r="T293">
+            <v>0</v>
+          </cell>
         </row>
         <row r="294">
           <cell r="A294">
@@ -15905,6 +18548,15 @@
           <cell r="Q294">
             <v>0.30041859766010531</v>
           </cell>
+          <cell r="R294">
+            <v>0.5043583043651646</v>
+          </cell>
+          <cell r="S294">
+            <v>0</v>
+          </cell>
+          <cell r="T294">
+            <v>0</v>
+          </cell>
         </row>
         <row r="295">
           <cell r="A295">
@@ -15958,6 +18610,15 @@
           <cell r="Q295">
             <v>0.7009767278735789</v>
           </cell>
+          <cell r="R295">
+            <v>0.1940774322019222</v>
+          </cell>
+          <cell r="S295">
+            <v>0</v>
+          </cell>
+          <cell r="T295">
+            <v>0</v>
+          </cell>
         </row>
         <row r="296">
           <cell r="A296">
@@ -16011,6 +18672,15 @@
           <cell r="Q296">
             <v>0.92971789884196687</v>
           </cell>
+          <cell r="R296">
+            <v>1.395517889687965</v>
+          </cell>
+          <cell r="S296">
+            <v>0</v>
+          </cell>
+          <cell r="T296">
+            <v>0</v>
+          </cell>
         </row>
         <row r="297">
           <cell r="A297">
@@ -16064,6 +18734,15 @@
           <cell r="Q297">
             <v>0.31253736264405041</v>
           </cell>
+          <cell r="R297">
+            <v>0.52408540304992024</v>
+          </cell>
+          <cell r="S297">
+            <v>0</v>
+          </cell>
+          <cell r="T297">
+            <v>0</v>
+          </cell>
         </row>
         <row r="298">
           <cell r="A298">
@@ -16117,6 +18796,15 @@
           <cell r="Q298">
             <v>0.72925384616945099</v>
           </cell>
+          <cell r="R298">
+            <v>0.19077966274427499</v>
+          </cell>
+          <cell r="S298">
+            <v>0</v>
+          </cell>
+          <cell r="T298">
+            <v>0</v>
+          </cell>
         </row>
         <row r="299">
           <cell r="A299">
@@ -16170,6 +18858,15 @@
           <cell r="Q299">
             <v>1.0309516934080061</v>
           </cell>
+          <cell r="R299">
+            <v>1.53180730924826</v>
+          </cell>
+          <cell r="S299">
+            <v>0</v>
+          </cell>
+          <cell r="T299">
+            <v>0</v>
+          </cell>
         </row>
         <row r="300">
           <cell r="A300">
@@ -16223,6 +18920,15 @@
           <cell r="Q300">
             <v>0.35203047625747702</v>
           </cell>
+          <cell r="R300">
+            <v>0.57228868609951244</v>
+          </cell>
+          <cell r="S300">
+            <v>0</v>
+          </cell>
+          <cell r="T300">
+            <v>0</v>
+          </cell>
         </row>
         <row r="301">
           <cell r="A301">
@@ -16276,6 +18982,15 @@
           <cell r="Q301">
             <v>0.82140444460077955</v>
           </cell>
+          <cell r="R301">
+            <v>0.2468315128591235</v>
+          </cell>
+          <cell r="S301">
+            <v>0</v>
+          </cell>
+          <cell r="T301">
+            <v>0</v>
+          </cell>
         </row>
         <row r="302">
           <cell r="A302">
@@ -16329,6 +19044,15 @@
           <cell r="Q302">
             <v>1.104728826003629</v>
           </cell>
+          <cell r="R302">
+            <v>1.644776944063556</v>
+          </cell>
+          <cell r="S302">
+            <v>0</v>
+          </cell>
+          <cell r="T302">
+            <v>0</v>
+          </cell>
         </row>
         <row r="303">
           <cell r="A303">
@@ -16382,6 +19106,15 @@
           <cell r="Q303">
             <v>0.38013779324879521</v>
           </cell>
+          <cell r="R303">
+            <v>0.61028750122114517</v>
+          </cell>
+          <cell r="S303">
+            <v>0</v>
+          </cell>
+          <cell r="T303">
+            <v>0</v>
+          </cell>
         </row>
         <row r="304">
           <cell r="A304">
@@ -16435,6 +19168,15 @@
           <cell r="Q304">
             <v>0.88698818424718884</v>
           </cell>
+          <cell r="R304">
+            <v>0.27186306639122682</v>
+          </cell>
+          <cell r="S304">
+            <v>0</v>
+          </cell>
+          <cell r="T304">
+            <v>0</v>
+          </cell>
         </row>
         <row r="305">
           <cell r="A305">
@@ -16488,6 +19230,15 @@
           <cell r="Q305">
             <v>1.043173132648159</v>
           </cell>
+          <cell r="R305">
+            <v>1.6260335372551089</v>
+          </cell>
+          <cell r="S305">
+            <v>0</v>
+          </cell>
+          <cell r="T305">
+            <v>0</v>
+          </cell>
         </row>
         <row r="306">
           <cell r="A306">
@@ -16541,6 +19292,15 @@
           <cell r="Q306">
             <v>0.35393891256932031</v>
           </cell>
+          <cell r="R306">
+            <v>0.59507464689987533</v>
+          </cell>
+          <cell r="S306">
+            <v>0</v>
+          </cell>
+          <cell r="T306">
+            <v>0</v>
+          </cell>
         </row>
         <row r="307">
           <cell r="A307">
@@ -16594,6 +19354,15 @@
           <cell r="Q307">
             <v>0.82585746266174742</v>
           </cell>
+          <cell r="R307">
+            <v>0.1662458453478714</v>
+          </cell>
+          <cell r="S307">
+            <v>0</v>
+          </cell>
+          <cell r="T307">
+            <v>0</v>
+          </cell>
         </row>
         <row r="308">
           <cell r="A308">
@@ -16647,6 +19416,15 @@
           <cell r="Q308">
             <v>1.1065507670289909</v>
           </cell>
+          <cell r="R308">
+            <v>1.735039052264669</v>
+          </cell>
+          <cell r="S308">
+            <v>0</v>
+          </cell>
+          <cell r="T308">
+            <v>0</v>
+          </cell>
         </row>
         <row r="309">
           <cell r="A309">
@@ -16700,6 +19478,15 @@
           <cell r="Q309">
             <v>0.37764402348474041</v>
           </cell>
+          <cell r="R309">
+            <v>0.63063203385638378</v>
+          </cell>
+          <cell r="S309">
+            <v>0</v>
+          </cell>
+          <cell r="T309">
+            <v>0</v>
+          </cell>
         </row>
         <row r="310">
           <cell r="A310">
@@ -16753,6 +19540,15 @@
           <cell r="Q310">
             <v>0.88116938813106116</v>
           </cell>
+          <cell r="R310">
+            <v>0.17401502628884891</v>
+          </cell>
+          <cell r="S310">
+            <v>0</v>
+          </cell>
+          <cell r="T310">
+            <v>0</v>
+          </cell>
         </row>
         <row r="311">
           <cell r="A311">
@@ -16806,6 +19602,15 @@
           <cell r="Q311">
             <v>1.166174116258351</v>
           </cell>
+          <cell r="R311">
+            <v>1.8421873605353809</v>
+          </cell>
+          <cell r="S311">
+            <v>0</v>
+          </cell>
+          <cell r="T311">
+            <v>0</v>
+          </cell>
         </row>
         <row r="312">
           <cell r="A312">
@@ -16859,6 +19664,15 @@
           <cell r="Q312">
             <v>0.39966744200882459</v>
           </cell>
+          <cell r="R312">
+            <v>0.66507231559642355</v>
+          </cell>
+          <cell r="S312">
+            <v>0</v>
+          </cell>
+          <cell r="T312">
+            <v>0</v>
+          </cell>
         </row>
         <row r="313">
           <cell r="A313">
@@ -16912,6 +19726,15 @@
           <cell r="Q313">
             <v>0.93255736468725681</v>
           </cell>
+          <cell r="R313">
+            <v>0.17584528292181351</v>
+          </cell>
+          <cell r="S313">
+            <v>0</v>
+          </cell>
+          <cell r="T313">
+            <v>0</v>
+          </cell>
         </row>
         <row r="314">
           <cell r="A314">
@@ -16965,6 +19788,15 @@
           <cell r="Q314">
             <v>1.3248448344954049</v>
           </cell>
+          <cell r="R314">
+            <v>2.0494866271325169</v>
+          </cell>
+          <cell r="S314">
+            <v>0</v>
+          </cell>
+          <cell r="T314">
+            <v>0</v>
+          </cell>
         </row>
         <row r="315">
           <cell r="A315">
@@ -17018,6 +19850,15 @@
           <cell r="Q315">
             <v>0.46022931659731658</v>
           </cell>
+          <cell r="R315">
+            <v>0.73833858518641193</v>
+          </cell>
+          <cell r="S315">
+            <v>0</v>
+          </cell>
+          <cell r="T315">
+            <v>0</v>
+          </cell>
         </row>
         <row r="316">
           <cell r="A316">
@@ -17071,6 +19912,15 @@
           <cell r="Q316">
             <v>1.073868405393738</v>
           </cell>
+          <cell r="R316">
+            <v>0.26651350282943947</v>
+          </cell>
+          <cell r="S316">
+            <v>0</v>
+          </cell>
+          <cell r="T316">
+            <v>0</v>
+          </cell>
         </row>
         <row r="317">
           <cell r="A317">
@@ -17124,6 +19974,15 @@
           <cell r="Q317">
             <v>1.498728669684229</v>
           </cell>
+          <cell r="R317">
+            <v>2.2726293742428259</v>
+          </cell>
+          <cell r="S317">
+            <v>0</v>
+          </cell>
+          <cell r="T317">
+            <v>0</v>
+          </cell>
         </row>
         <row r="318">
           <cell r="A318">
@@ -17177,6 +20036,15 @@
           <cell r="Q318">
             <v>0.52584155817069034</v>
           </cell>
+          <cell r="R318">
+            <v>0.81677286652435666</v>
+          </cell>
+          <cell r="S318">
+            <v>0</v>
+          </cell>
+          <cell r="T318">
+            <v>0</v>
+          </cell>
         </row>
         <row r="319">
           <cell r="A319">
@@ -17230,6 +20098,15 @@
           <cell r="Q319">
             <v>1.2269636357316109</v>
           </cell>
+          <cell r="R319">
+            <v>0.36846996053460479</v>
+          </cell>
+          <cell r="S319">
+            <v>0</v>
+          </cell>
+          <cell r="T319">
+            <v>0</v>
+          </cell>
         </row>
         <row r="320">
           <cell r="A320">
@@ -17283,6 +20160,15 @@
           <cell r="Q320">
             <v>1.6470845036958139</v>
           </cell>
+          <cell r="R320">
+            <v>2.4708246528258901</v>
+          </cell>
+          <cell r="S320">
+            <v>0</v>
+          </cell>
+          <cell r="T320">
+            <v>0</v>
+          </cell>
         </row>
         <row r="321">
           <cell r="A321">
@@ -17336,6 +20222,15 @@
           <cell r="Q321">
             <v>0.58129492690205542</v>
           </cell>
+          <cell r="R321">
+            <v>0.8851479411132257</v>
+          </cell>
+          <cell r="S321">
+            <v>0</v>
+          </cell>
+          <cell r="T321">
+            <v>0</v>
+          </cell>
         </row>
         <row r="322">
           <cell r="A322">
@@ -17389,6 +20284,15 @@
           <cell r="Q322">
             <v>1.35635482943813</v>
           </cell>
+          <cell r="R322">
+            <v>0.44635169105699352</v>
+          </cell>
+          <cell r="S322">
+            <v>0</v>
+          </cell>
+          <cell r="T322">
+            <v>0</v>
+          </cell>
         </row>
         <row r="323">
           <cell r="A323">
@@ -17442,6 +20346,15 @@
           <cell r="Q323">
             <v>1.785860324872323</v>
           </cell>
+          <cell r="R323">
+            <v>2.6603732430654068</v>
+          </cell>
+          <cell r="S323">
+            <v>0</v>
+          </cell>
+          <cell r="T323">
+            <v>0</v>
+          </cell>
         </row>
         <row r="324">
           <cell r="A324">
@@ -17495,6 +20408,15 @@
           <cell r="Q324">
             <v>0.6325593416901798</v>
           </cell>
+          <cell r="R324">
+            <v>0.94956202823608249</v>
+          </cell>
+          <cell r="S324">
+            <v>0</v>
+          </cell>
+          <cell r="T324">
+            <v>0</v>
+          </cell>
         </row>
         <row r="325">
           <cell r="A325">
@@ -17548,6 +20470,15 @@
           <cell r="Q325">
             <v>1.4759717972770869</v>
           </cell>
+          <cell r="R325">
+            <v>0.51376798891605147</v>
+          </cell>
+          <cell r="S325">
+            <v>0</v>
+          </cell>
+          <cell r="T325">
+            <v>0</v>
+          </cell>
         </row>
         <row r="326">
           <cell r="A326">
@@ -17601,6 +20532,15 @@
           <cell r="Q326">
             <v>1.7407623780422909</v>
           </cell>
+          <cell r="R326">
+            <v>2.6674856092381471</v>
+          </cell>
+          <cell r="S326">
+            <v>0</v>
+          </cell>
+          <cell r="T326">
+            <v>0</v>
+          </cell>
         </row>
         <row r="327">
           <cell r="A327">
@@ -17654,6 +20594,15 @@
           <cell r="Q327">
             <v>0.61255422549752137</v>
           </cell>
+          <cell r="R327">
+            <v>0.94304403598280806</v>
+          </cell>
+          <cell r="S327">
+            <v>0</v>
+          </cell>
+          <cell r="T327">
+            <v>0</v>
+          </cell>
         </row>
         <row r="328">
           <cell r="A328">
@@ -17707,6 +20656,15 @@
           <cell r="Q328">
             <v>1.4292931928275501</v>
           </cell>
+          <cell r="R328">
+            <v>0.4116710238434248</v>
+          </cell>
+          <cell r="S328">
+            <v>0</v>
+          </cell>
+          <cell r="T328">
+            <v>0</v>
+          </cell>
         </row>
         <row r="329">
           <cell r="A329">
@@ -17760,6 +20718,15 @@
           <cell r="Q329">
             <v>1.414616128304061</v>
           </cell>
+          <cell r="R329">
+            <v>2.3960329337803858</v>
+          </cell>
+          <cell r="S329">
+            <v>0</v>
+          </cell>
+          <cell r="T329">
+            <v>0</v>
+          </cell>
         </row>
         <row r="330">
           <cell r="A330">
@@ -17813,6 +20780,15 @@
           <cell r="Q330">
             <v>0.48599471031974839</v>
           </cell>
+          <cell r="R330">
+            <v>0.83080802622624628</v>
+          </cell>
+          <cell r="S330">
+            <v>0</v>
+          </cell>
+          <cell r="T330">
+            <v>0</v>
+          </cell>
         </row>
         <row r="331">
           <cell r="A331">
@@ -17866,6 +20842,15 @@
           <cell r="Q331">
             <v>1.133987657412747</v>
           </cell>
+          <cell r="R331">
+            <v>6.0258260991709771E-2</v>
+          </cell>
+          <cell r="S331">
+            <v>0</v>
+          </cell>
+          <cell r="T331">
+            <v>0</v>
+          </cell>
         </row>
         <row r="332">
           <cell r="A332">
@@ -17919,6 +20904,15 @@
           <cell r="Q332">
             <v>1.9111671273438131</v>
           </cell>
+          <cell r="R332">
+            <v>2.9056150541099832</v>
+          </cell>
+          <cell r="S332">
+            <v>0</v>
+          </cell>
+          <cell r="T332">
+            <v>0</v>
+          </cell>
         </row>
         <row r="333">
           <cell r="A333">
@@ -17972,6 +20966,15 @@
           <cell r="Q333">
             <v>0.67243023304318794</v>
           </cell>
+          <cell r="R333">
+            <v>1.0145607699399231</v>
+          </cell>
+          <cell r="S333">
+            <v>0</v>
+          </cell>
+          <cell r="T333">
+            <v>0</v>
+          </cell>
         </row>
         <row r="334">
           <cell r="A334">
@@ -18025,6 +21028,15 @@
           <cell r="Q334">
             <v>1.5690038771007719</v>
           </cell>
+          <cell r="R334">
+            <v>0.41940601550193979</v>
+          </cell>
+          <cell r="S334">
+            <v>0</v>
+          </cell>
+          <cell r="T334">
+            <v>0</v>
+          </cell>
         </row>
         <row r="335">
           <cell r="A335">
@@ -18078,6 +21090,15 @@
           <cell r="Q335">
             <v>2.018459122067163</v>
           </cell>
+          <cell r="R335">
+            <v>3.074059590041077</v>
+          </cell>
+          <cell r="S335">
+            <v>0</v>
+          </cell>
+          <cell r="T335">
+            <v>0</v>
+          </cell>
         </row>
         <row r="336">
           <cell r="A336">
@@ -18131,6 +21152,15 @@
           <cell r="Q336">
             <v>0.70910758929228046</v>
           </cell>
+          <cell r="R336">
+            <v>1.0677779745039779</v>
+          </cell>
+          <cell r="S336">
+            <v>0</v>
+          </cell>
+          <cell r="T336">
+            <v>0</v>
+          </cell>
         </row>
         <row r="337">
           <cell r="A337">
@@ -18184,6 +21214,15 @@
           <cell r="Q337">
             <v>1.6545843750153211</v>
           </cell>
+          <cell r="R337">
+            <v>0.43907304286681209</v>
+          </cell>
+          <cell r="S337">
+            <v>0</v>
+          </cell>
+          <cell r="T337">
+            <v>0</v>
+          </cell>
         </row>
         <row r="338">
           <cell r="A338">
@@ -18237,6 +21276,15 @@
           <cell r="Q338">
             <v>2.2254308734615651</v>
           </cell>
+          <cell r="R338">
+            <v>3.347453241644708</v>
+          </cell>
+          <cell r="S338">
+            <v>0</v>
+          </cell>
+          <cell r="T338">
+            <v>0</v>
+          </cell>
         </row>
         <row r="339">
           <cell r="A339">
@@ -18290,6 +21338,15 @@
           <cell r="Q339">
             <v>0.78184949182527841</v>
           </cell>
+          <cell r="R339">
+            <v>1.1587169973740681</v>
+          </cell>
+          <cell r="S339">
+            <v>0</v>
+          </cell>
+          <cell r="T339">
+            <v>0</v>
+          </cell>
         </row>
         <row r="340">
           <cell r="A340">
@@ -18343,6 +21400,15 @@
           <cell r="Q340">
             <v>1.824315480925649</v>
           </cell>
+          <cell r="R340">
+            <v>0.53726203741268186</v>
+          </cell>
+          <cell r="S340">
+            <v>0</v>
+          </cell>
+          <cell r="T340">
+            <v>0</v>
+          </cell>
         </row>
         <row r="341">
           <cell r="A341">
@@ -18396,6 +21462,15 @@
           <cell r="Q341">
             <v>2.3816419211984399</v>
           </cell>
+          <cell r="R341">
+            <v>3.5761446057799651</v>
+          </cell>
+          <cell r="S341">
+            <v>0</v>
+          </cell>
+          <cell r="T341">
+            <v>0</v>
+          </cell>
         </row>
         <row r="342">
           <cell r="A342">
@@ -18449,6 +21524,15 @@
           <cell r="Q342">
             <v>0.83452406916377786</v>
           </cell>
+          <cell r="R342">
+            <v>1.231472893131548</v>
+          </cell>
+          <cell r="S342">
+            <v>0</v>
+          </cell>
+          <cell r="T342">
+            <v>0</v>
+          </cell>
         </row>
         <row r="343">
           <cell r="A343">
@@ -18502,6 +21586,15 @@
           <cell r="Q343">
             <v>1.947222828048814</v>
           </cell>
+          <cell r="R343">
+            <v>0.58221474221586444</v>
+          </cell>
+          <cell r="S343">
+            <v>0</v>
+          </cell>
+          <cell r="T343">
+            <v>0</v>
+          </cell>
         </row>
         <row r="344">
           <cell r="A344">
@@ -18555,6 +21648,15 @@
           <cell r="Q344">
             <v>2.545092708970746</v>
           </cell>
+          <cell r="R344">
+            <v>3.8185257924643099</v>
+          </cell>
+          <cell r="S344">
+            <v>0</v>
+          </cell>
+          <cell r="T344">
+            <v>0</v>
+          </cell>
         </row>
         <row r="345">
           <cell r="A345">
@@ -18608,6 +21710,15 @@
           <cell r="Q345">
             <v>0.88902099674827728</v>
           </cell>
+          <cell r="R345">
+            <v>1.307861098049673</v>
+          </cell>
+          <cell r="S345">
+            <v>0</v>
+          </cell>
+          <cell r="T345">
+            <v>0</v>
+          </cell>
         </row>
         <row r="346">
           <cell r="A346">
@@ -18661,6 +21772,15 @@
           <cell r="Q346">
             <v>2.074382325745979</v>
           </cell>
+          <cell r="R346">
+            <v>0.62022653963030161</v>
+          </cell>
+          <cell r="S346">
+            <v>0</v>
+          </cell>
+          <cell r="T346">
+            <v>0</v>
+          </cell>
         </row>
         <row r="347">
           <cell r="A347">
@@ -18714,6 +21834,15 @@
           <cell r="Q347">
             <v>2.6289088251015849</v>
           </cell>
+          <cell r="R347">
+            <v>3.988798875606248</v>
+          </cell>
+          <cell r="S347">
+            <v>0</v>
+          </cell>
+          <cell r="T347">
+            <v>0</v>
+          </cell>
         </row>
         <row r="348">
           <cell r="A348">
@@ -18767,6 +21896,15 @@
           <cell r="Q348">
             <v>0.91100856061421298</v>
           </cell>
+          <cell r="R348">
+            <v>1.354149373501049</v>
+          </cell>
+          <cell r="S348">
+            <v>0</v>
+          </cell>
+          <cell r="T348">
+            <v>0</v>
+          </cell>
         </row>
         <row r="349">
           <cell r="A349">
@@ -18820,6 +21958,15 @@
           <cell r="Q349">
             <v>2.1256866414331639</v>
           </cell>
+          <cell r="R349">
+            <v>0.57789585709654889</v>
+          </cell>
+          <cell r="S349">
+            <v>0</v>
+          </cell>
+          <cell r="T349">
+            <v>0</v>
+          </cell>
         </row>
         <row r="350">
           <cell r="A350">
@@ -18873,6 +22020,15 @@
           <cell r="Q350">
             <v>2.8269620636430761</v>
           </cell>
+          <cell r="R350">
+            <v>4.2808597254566889</v>
+          </cell>
+          <cell r="S350">
+            <v>0</v>
+          </cell>
+          <cell r="T350">
+            <v>0</v>
+          </cell>
         </row>
         <row r="351">
           <cell r="A351">
@@ -18926,6 +22082,15 @@
           <cell r="Q351">
             <v>0.97536964387915204</v>
           </cell>
+          <cell r="R351">
+            <v>1.445055888801795</v>
+          </cell>
+          <cell r="S351">
+            <v>0</v>
+          </cell>
+          <cell r="T351">
+            <v>0</v>
+          </cell>
         </row>
         <row r="352">
           <cell r="A352">
@@ -18979,6 +22144,15 @@
           <cell r="Q352">
             <v>2.2758625023846881</v>
           </cell>
+          <cell r="R352">
+            <v>0.62643502086366509</v>
+          </cell>
+          <cell r="S352">
+            <v>0</v>
+          </cell>
+          <cell r="T352">
+            <v>0</v>
+          </cell>
         </row>
         <row r="353">
           <cell r="A353">
@@ -19032,6 +22206,15 @@
           <cell r="Q353">
             <v>3.1249437316519479</v>
           </cell>
+          <cell r="R353">
+            <v>4.6803346483345116</v>
+          </cell>
+          <cell r="S353">
+            <v>0</v>
+          </cell>
+          <cell r="T353">
+            <v>0</v>
+          </cell>
         </row>
         <row r="354">
           <cell r="A354">
@@ -19085,6 +22268,15 @@
           <cell r="Q354">
             <v>1.0663790984985639</v>
           </cell>
+          <cell r="R354">
+            <v>1.564798051095361</v>
+          </cell>
+          <cell r="S354">
+            <v>0</v>
+          </cell>
+          <cell r="T354">
+            <v>0</v>
+          </cell>
         </row>
         <row r="355">
           <cell r="A355">
@@ -19138,6 +22330,15 @@
           <cell r="Q355">
             <v>2.4882178964966499</v>
           </cell>
+          <cell r="R355">
+            <v>0.72929603668609055</v>
+          </cell>
+          <cell r="S355">
+            <v>0</v>
+          </cell>
+          <cell r="T355">
+            <v>0</v>
+          </cell>
         </row>
         <row r="356">
           <cell r="A356">
@@ -19191,6 +22392,15 @@
           <cell r="Q356">
             <v>3.1083483863229602</v>
           </cell>
+          <cell r="R356">
+            <v>4.7723083163646596</v>
+          </cell>
+          <cell r="S356">
+            <v>0</v>
+          </cell>
+          <cell r="T356">
+            <v>0</v>
+          </cell>
         </row>
         <row r="357">
           <cell r="A357">
@@ -19244,6 +22454,15 @@
           <cell r="Q357">
             <v>1.027332615657149</v>
           </cell>
+          <cell r="R357">
+            <v>1.55650682547202</v>
+          </cell>
+          <cell r="S357">
+            <v>0</v>
+          </cell>
+          <cell r="T357">
+            <v>0</v>
+          </cell>
         </row>
         <row r="358">
           <cell r="A358">
@@ -19297,6 +22516,15 @@
           <cell r="Q358">
             <v>2.3971094365333481</v>
           </cell>
+          <cell r="R358">
+            <v>0.52134725925814207</v>
+          </cell>
+          <cell r="S358">
+            <v>0</v>
+          </cell>
+          <cell r="T358">
+            <v>0</v>
+          </cell>
         </row>
         <row r="359">
           <cell r="A359">
@@ -19350,6 +22578,15 @@
           <cell r="Q359">
             <v>4.1173670239673674</v>
           </cell>
+          <cell r="R359">
+            <v>5.8963690998670364</v>
+          </cell>
+          <cell r="S359">
+            <v>0</v>
+          </cell>
+          <cell r="T359">
+            <v>0</v>
+          </cell>
         </row>
         <row r="360">
           <cell r="A360">
@@ -19403,6 +22640,15 @@
           <cell r="Q360">
             <v>1.346480949489421</v>
           </cell>
+          <cell r="R360">
+            <v>1.9082071354462931</v>
+          </cell>
+          <cell r="S360">
+            <v>0</v>
+          </cell>
+          <cell r="T360">
+            <v>0</v>
+          </cell>
         </row>
         <row r="361">
           <cell r="A361">
@@ -19456,6 +22702,15 @@
           <cell r="Q361">
             <v>3.1417888821419822</v>
           </cell>
+          <cell r="R361">
+            <v>1.142543128100789</v>
+          </cell>
+          <cell r="S361">
+            <v>0</v>
+          </cell>
+          <cell r="T361">
+            <v>0</v>
+          </cell>
         </row>
         <row r="362">
           <cell r="A362">
@@ -19509,6 +22764,15 @@
           <cell r="Q362">
             <v>3.9016550699647401</v>
           </cell>
+          <cell r="R362">
+            <v>5.8015312504944587</v>
+          </cell>
+          <cell r="S362">
+            <v>0</v>
+          </cell>
+          <cell r="T362">
+            <v>0</v>
+          </cell>
         </row>
         <row r="363">
           <cell r="A363">
@@ -19562,6 +22826,15 @@
           <cell r="Q363">
             <v>1.230580767522252</v>
           </cell>
+          <cell r="R363">
+            <v>1.826415647752561</v>
+          </cell>
+          <cell r="S363">
+            <v>0</v>
+          </cell>
+          <cell r="T363">
+            <v>0</v>
+          </cell>
         </row>
         <row r="364">
           <cell r="A364">
@@ -19615,6 +22888,15 @@
           <cell r="Q364">
             <v>2.8713551242185869</v>
           </cell>
+          <cell r="R364">
+            <v>0.74268408245358319</v>
+          </cell>
+          <cell r="S364">
+            <v>0</v>
+          </cell>
+          <cell r="T364">
+            <v>0</v>
+          </cell>
         </row>
         <row r="365">
           <cell r="A365">
@@ -19657,7 +22939,7 @@
             <v>0</v>
           </cell>
           <cell r="N365">
-            <v>6.0772643597195977</v>
+            <v>6.0309086102673906</v>
           </cell>
           <cell r="O365">
             <v>0</v>
@@ -19667,6 +22949,15 @@
           </cell>
           <cell r="Q365">
             <v>4.0509705458253062</v>
+          </cell>
+          <cell r="R365">
+            <v>6.0309086102673906</v>
+          </cell>
+          <cell r="S365">
+            <v>4.635574945220796E-2</v>
+          </cell>
+          <cell r="T365">
+            <v>4.635574945220796E-2</v>
           </cell>
         </row>
         <row r="366">
@@ -19710,7 +23001,7 @@
             <v>0</v>
           </cell>
           <cell r="N366">
-            <v>1.863483886953708</v>
+            <v>1.849363476104803</v>
           </cell>
           <cell r="O366">
             <v>0</v>
@@ -19720,6 +23011,15 @@
           </cell>
           <cell r="Q366">
             <v>1.232121510443507</v>
+          </cell>
+          <cell r="R366">
+            <v>1.849363476104803</v>
+          </cell>
+          <cell r="S366">
+            <v>1.4120410848905441E-2</v>
+          </cell>
+          <cell r="T366">
+            <v>1.4120410848905441E-2</v>
           </cell>
         </row>
         <row r="367">
@@ -19760,10 +23060,10 @@
             <v>6.936342171392143E-2</v>
           </cell>
           <cell r="M367">
-            <v>3.7369514246090429</v>
+            <v>3.6435276389938172</v>
           </cell>
           <cell r="N367">
-            <v>0.61117764494960936</v>
+            <v>0.67165380525072271</v>
           </cell>
           <cell r="O367">
             <v>0</v>
@@ -19773,6 +23073,15 @@
           </cell>
           <cell r="Q367">
             <v>2.8749501910348489</v>
+          </cell>
+          <cell r="R367">
+            <v>0.67165380525072271</v>
+          </cell>
+          <cell r="S367">
+            <v>3.2947625314112688E-2</v>
+          </cell>
+          <cell r="T367">
+            <v>3.2947625314112688E-2</v>
           </cell>
         </row>
         <row r="368">
@@ -19816,7 +23125,7 @@
             <v>0</v>
           </cell>
           <cell r="N368">
-            <v>7.0592922444208197</v>
+            <v>6.960609030133706</v>
           </cell>
           <cell r="O368">
             <v>0</v>
@@ -19826,6 +23135,15 @@
           </cell>
           <cell r="Q368">
             <v>4.9007326946491849</v>
+          </cell>
+          <cell r="R368">
+            <v>6.960609030133706</v>
+          </cell>
+          <cell r="S368">
+            <v>9.86832142871132E-2</v>
+          </cell>
+          <cell r="T368">
+            <v>9.86832142871132E-2</v>
           </cell>
         </row>
         <row r="369">
@@ -19869,7 +23187,7 @@
             <v>0</v>
           </cell>
           <cell r="N369">
-            <v>2.1168585151690689</v>
+            <v>2.086996590738956</v>
           </cell>
           <cell r="O369">
             <v>0</v>
@@ -19879,6 +23197,15 @@
           </cell>
           <cell r="Q369">
             <v>1.448515475271277</v>
+          </cell>
+          <cell r="R369">
+            <v>2.086996590738956</v>
+          </cell>
+          <cell r="S369">
+            <v>2.986192443011236E-2</v>
+          </cell>
+          <cell r="T369">
+            <v>2.986192443011236E-2</v>
           </cell>
         </row>
         <row r="370">
@@ -19919,10 +23246,10 @@
             <v>7.3345077547644383E-2</v>
           </cell>
           <cell r="M370">
-            <v>3.9644592477497538</v>
+            <v>3.766236285362266</v>
           </cell>
           <cell r="N370">
-            <v>0.97487728764474146</v>
+            <v>1.103422426361967</v>
           </cell>
           <cell r="O370">
             <v>0</v>
@@ -19932,6 +23259,15 @@
           </cell>
           <cell r="Q370">
             <v>3.3798694422996451</v>
+          </cell>
+          <cell r="R370">
+            <v>1.103422426361967</v>
+          </cell>
+          <cell r="S370">
+            <v>6.9677823670262151E-2</v>
+          </cell>
+          <cell r="T370">
+            <v>6.9677823670262151E-2</v>
           </cell>
         </row>
         <row r="371">
@@ -19975,7 +23311,7 @@
             <v>0</v>
           </cell>
           <cell r="N371">
-            <v>7.4649356594881553</v>
+            <v>7.3074819333757031</v>
           </cell>
           <cell r="O371">
             <v>0</v>
@@ -19985,6 +23321,15 @@
           </cell>
           <cell r="Q371">
             <v>5.167232388822498</v>
+          </cell>
+          <cell r="R371">
+            <v>7.3074819333757031</v>
+          </cell>
+          <cell r="S371">
+            <v>0.15745372611245209</v>
+          </cell>
+          <cell r="T371">
+            <v>0.15745372611245209</v>
           </cell>
         </row>
         <row r="372">
@@ -20028,7 +23373,7 @@
             <v>0</v>
           </cell>
           <cell r="N372">
-            <v>2.1927849653327112</v>
+            <v>2.1454462663949792</v>
           </cell>
           <cell r="O372">
             <v>0</v>
@@ -20038,6 +23383,15 @@
           </cell>
           <cell r="Q372">
             <v>1.4857649235932291</v>
+          </cell>
+          <cell r="R372">
+            <v>2.1454462663949792</v>
+          </cell>
+          <cell r="S372">
+            <v>4.7338698937732272E-2</v>
+          </cell>
+          <cell r="T372">
+            <v>4.7338698937732272E-2</v>
           </cell>
         </row>
         <row r="373">
@@ -20078,10 +23432,10 @@
             <v>7.7513659079327696E-2</v>
           </cell>
           <cell r="M373">
-            <v>4.2033251898430182</v>
+            <v>3.888075800604792</v>
           </cell>
           <cell r="N373">
-            <v>0.91317306259997399</v>
+            <v>1.1179654876501579</v>
           </cell>
           <cell r="O373">
             <v>0</v>
@@ -20091,6 +23445,15 @@
           </cell>
           <cell r="Q373">
             <v>3.4667848217175359</v>
+          </cell>
+          <cell r="R373">
+            <v>1.1179654876501579</v>
+          </cell>
+          <cell r="S373">
+            <v>0.110456964188042</v>
+          </cell>
+          <cell r="T373">
+            <v>0.110456964188042</v>
           </cell>
         </row>
         <row r="374">
@@ -20134,7 +23497,7 @@
             <v>0</v>
           </cell>
           <cell r="N374">
-            <v>7.9805432672366097</v>
+            <v>7.7572370357877034</v>
           </cell>
           <cell r="O374">
             <v>0</v>
@@ -20144,6 +23507,15 @@
           </cell>
           <cell r="Q374">
             <v>5.5350761011099197</v>
+          </cell>
+          <cell r="R374">
+            <v>7.7572370357877034</v>
+          </cell>
+          <cell r="S374">
+            <v>0.22330623144890699</v>
+          </cell>
+          <cell r="T374">
+            <v>0.22330623144890699</v>
           </cell>
         </row>
         <row r="375">
@@ -20187,7 +23559,7 @@
             <v>0</v>
           </cell>
           <cell r="N375">
-            <v>2.2770631302087221</v>
+            <v>2.2103554774052401</v>
           </cell>
           <cell r="O375">
             <v>0</v>
@@ -20197,6 +23569,15 @@
           </cell>
           <cell r="Q375">
             <v>1.529230556497956</v>
+          </cell>
+          <cell r="R375">
+            <v>2.2103554774052401</v>
+          </cell>
+          <cell r="S375">
+            <v>6.6707652803481704E-2</v>
+          </cell>
+          <cell r="T375">
+            <v>6.6707652803481704E-2</v>
           </cell>
         </row>
         <row r="376">
@@ -20237,10 +23618,10 @@
             <v>8.1921678881468729E-2</v>
           </cell>
           <cell r="M376">
-            <v>4.4566507412717922</v>
+            <v>4.0109856671446131</v>
           </cell>
           <cell r="N376">
-            <v>0.85649656254855788</v>
+            <v>1.1465104468009459</v>
           </cell>
           <cell r="O376">
             <v>0</v>
@@ -20250,6 +23631,15 @@
           </cell>
           <cell r="Q376">
             <v>3.5682046318285638</v>
+          </cell>
+          <cell r="R376">
+            <v>1.1465104468009459</v>
+          </cell>
+          <cell r="S376">
+            <v>0.1556511898747906</v>
+          </cell>
+          <cell r="T376">
+            <v>0.1556511898747906</v>
           </cell>
         </row>
         <row r="377">
@@ -20293,7 +23683,7 @@
             <v>0</v>
           </cell>
           <cell r="N377">
-            <v>8.4587255835013764</v>
+            <v>8.1616320615431359</v>
           </cell>
           <cell r="O377">
             <v>0</v>
@@ -20303,6 +23693,15 @@
           </cell>
           <cell r="Q377">
             <v>5.8547129668276794</v>
+          </cell>
+          <cell r="R377">
+            <v>8.1616320615431359</v>
+          </cell>
+          <cell r="S377">
+            <v>0.29709352195824001</v>
+          </cell>
+          <cell r="T377">
+            <v>0.29709352195824001</v>
           </cell>
         </row>
         <row r="378">
@@ -20346,7 +23745,7 @@
             <v>0</v>
           </cell>
           <cell r="N378">
-            <v>2.3573991918200972</v>
+            <v>2.2692198405400101</v>
           </cell>
           <cell r="O378">
             <v>0</v>
@@ -20356,6 +23755,15 @@
           </cell>
           <cell r="Q378">
             <v>1.5660784577595359</v>
+          </cell>
+          <cell r="R378">
+            <v>2.2692198405400101</v>
+          </cell>
+          <cell r="S378">
+            <v>8.8179351280087179E-2</v>
+          </cell>
+          <cell r="T378">
+            <v>8.8179351280087179E-2</v>
           </cell>
         </row>
         <row r="379">
@@ -20396,10 +23804,10 @@
             <v>8.6632345117278658E-2</v>
           </cell>
           <cell r="M379">
-            <v>4.7281975431349119</v>
+            <v>4.1371728502430489</v>
           </cell>
           <cell r="N379">
-            <v>0.77240057111197935</v>
+            <v>1.1576734443503061</v>
           </cell>
           <cell r="O379">
             <v>0</v>
@@ -20409,6 +23817,15 @@
           </cell>
           <cell r="Q379">
             <v>3.654183068105584</v>
+          </cell>
+          <cell r="R379">
+            <v>1.1576734443503061</v>
+          </cell>
+          <cell r="S379">
+            <v>0.20575181965353681</v>
+          </cell>
+          <cell r="T379">
+            <v>0.20575181965353681</v>
           </cell>
         </row>
         <row r="380">
@@ -20452,7 +23869,7 @@
             <v>0</v>
           </cell>
           <cell r="N380">
-            <v>9.048398366965591</v>
+            <v>8.6685286214045654</v>
           </cell>
           <cell r="O380">
             <v>0</v>
@@ -20462,6 +23879,15 @@
           </cell>
           <cell r="Q380">
             <v>6.2728786042451814</v>
+          </cell>
+          <cell r="R380">
+            <v>8.6685286214045654</v>
+          </cell>
+          <cell r="S380">
+            <v>0.37986974556102598</v>
+          </cell>
+          <cell r="T380">
+            <v>0.37986974556102598</v>
           </cell>
         </row>
         <row r="381">
@@ -20505,7 +23931,7 @@
             <v>0</v>
           </cell>
           <cell r="N381">
-            <v>2.4393305743784941</v>
+            <v>2.327320442892344</v>
           </cell>
           <cell r="O381">
             <v>0</v>
@@ -20515,6 +23941,15 @@
           </cell>
           <cell r="Q381">
             <v>1.6013359169460371</v>
+          </cell>
+          <cell r="R381">
+            <v>2.327320442892344</v>
+          </cell>
+          <cell r="S381">
+            <v>0.1120101314861504</v>
+          </cell>
+          <cell r="T381">
+            <v>0.1120101314861504</v>
           </cell>
         </row>
         <row r="382">
@@ -20555,10 +23990,10 @@
             <v>9.1704201216731313E-2</v>
           </cell>
           <cell r="M382">
-            <v>5.0215790034324046</v>
+            <v>4.2683421529175432</v>
           </cell>
           <cell r="N382">
-            <v>0.67019233678408197</v>
+            <v>1.162072213831258</v>
           </cell>
           <cell r="O382">
             <v>0</v>
@@ -20568,6 +24003,15 @@
           </cell>
           <cell r="Q382">
             <v>3.7364504728740839</v>
+          </cell>
+          <cell r="R382">
+            <v>1.162072213831258</v>
+          </cell>
+          <cell r="S382">
+            <v>0.26135697346768422</v>
+          </cell>
+          <cell r="T382">
+            <v>0.26135697346768422</v>
           </cell>
         </row>
         <row r="383">
@@ -20611,7 +24055,7 @@
             <v>0</v>
           </cell>
           <cell r="N383">
-            <v>9.6709964299424023</v>
+            <v>9.1981814092705054</v>
           </cell>
           <cell r="O383">
             <v>0</v>
@@ -20621,6 +24065,15 @@
           </cell>
           <cell r="Q383">
             <v>6.7092354587864076</v>
+          </cell>
+          <cell r="R383">
+            <v>9.1981814092705054</v>
+          </cell>
+          <cell r="S383">
+            <v>0.47281502067189651</v>
+          </cell>
+          <cell r="T383">
+            <v>0.47281502067189651</v>
           </cell>
         </row>
         <row r="384">
@@ -20664,7 +24117,7 @@
             <v>0</v>
           </cell>
           <cell r="N384">
-            <v>2.5237208515559462</v>
+            <v>2.385246008656666</v>
           </cell>
           <cell r="O384">
             <v>0</v>
@@ -20674,6 +24127,15 @@
           </cell>
           <cell r="Q384">
             <v>1.635520969963167</v>
+          </cell>
+          <cell r="R384">
+            <v>2.385246008656666</v>
+          </cell>
+          <cell r="S384">
+            <v>0.13847484289928019</v>
+          </cell>
+          <cell r="T384">
+            <v>0.13847484289928019</v>
           </cell>
         </row>
         <row r="385">
@@ -20714,10 +24176,10 @@
             <v>9.7175328350372098E-2</v>
           </cell>
           <cell r="M385">
-            <v>5.3394161733495071</v>
+            <v>4.4050183430133441</v>
           </cell>
           <cell r="N385">
-            <v>0.54926581361436677</v>
+            <v>1.160555677185543</v>
           </cell>
           <cell r="O385">
             <v>0</v>
@@ -20727,6 +24189,15 @@
           </cell>
           <cell r="Q385">
             <v>3.8162155965807201</v>
+          </cell>
+          <cell r="R385">
+            <v>1.160555677185543</v>
+          </cell>
+          <cell r="S385">
+            <v>0.32310796676498721</v>
+          </cell>
+          <cell r="T385">
+            <v>0.32310796676498721</v>
           </cell>
         </row>
         <row r="386">
@@ -20770,7 +24241,7 @@
             <v>0</v>
           </cell>
           <cell r="N386">
-            <v>10.268619886374511</v>
+            <v>9.6914943250679411</v>
           </cell>
           <cell r="O386">
             <v>0</v>
@@ -20780,6 +24251,15 @@
           </cell>
           <cell r="Q386">
             <v>7.1048008068377113</v>
+          </cell>
+          <cell r="R386">
+            <v>9.6914943250679411</v>
+          </cell>
+          <cell r="S386">
+            <v>0.57712556130657133</v>
+          </cell>
+          <cell r="T386">
+            <v>0.57712556130657133</v>
           </cell>
         </row>
         <row r="387">
@@ -20823,7 +24303,7 @@
             <v>0</v>
           </cell>
           <cell r="N387">
-            <v>2.598420208058819</v>
+            <v>2.4305912622125629</v>
           </cell>
           <cell r="O387">
             <v>0</v>
@@ -20833,6 +24313,15 @@
           </cell>
           <cell r="Q387">
             <v>1.6563917042325671</v>
+          </cell>
+          <cell r="R387">
+            <v>2.4305912622125629</v>
+          </cell>
+          <cell r="S387">
+            <v>0.16782894584625491</v>
+          </cell>
+          <cell r="T387">
+            <v>0.16782894584625491</v>
           </cell>
         </row>
         <row r="388">
@@ -20873,10 +24362,10 @@
             <v>0.1030528614845424</v>
           </cell>
           <cell r="M388">
-            <v>5.6827769039704368</v>
+            <v>4.5462215231763494</v>
           </cell>
           <cell r="N388">
-            <v>0.380203581500139</v>
+            <v>1.125158088652966</v>
           </cell>
           <cell r="O388">
             <v>0</v>
@@ -20886,6 +24375,15 @@
           </cell>
           <cell r="Q388">
             <v>3.8649139765426539</v>
+          </cell>
+          <cell r="R388">
+            <v>1.125158088652966</v>
+          </cell>
+          <cell r="S388">
+            <v>0.391600873641261</v>
+          </cell>
+          <cell r="T388">
+            <v>0.391600873641261</v>
           </cell>
         </row>
         <row r="389">
@@ -20929,7 +24427,7 @@
             <v>0</v>
           </cell>
           <cell r="N389">
-            <v>10.89866203992745</v>
+            <v>10.2047411364818</v>
           </cell>
           <cell r="O389">
             <v>0</v>
@@ -20939,6 +24437,15 @@
           </cell>
           <cell r="Q389">
             <v>7.5165894892678624</v>
+          </cell>
+          <cell r="R389">
+            <v>10.2047411364818</v>
+          </cell>
+          <cell r="S389">
+            <v>0.69392090344564783</v>
+          </cell>
+          <cell r="T389">
+            <v>0.69392090344564783</v>
           </cell>
         </row>
         <row r="390">
@@ -20982,7 +24489,7 @@
             <v>0</v>
           </cell>
           <cell r="N390">
-            <v>2.669156553929894</v>
+            <v>2.4688803697215458</v>
           </cell>
           <cell r="O390">
             <v>0</v>
@@ -20992,6 +24499,15 @@
           </cell>
           <cell r="Q390">
             <v>1.6698407189711511</v>
+          </cell>
+          <cell r="R390">
+            <v>2.4688803697215458</v>
+          </cell>
+          <cell r="S390">
+            <v>0.20027618420834739</v>
+          </cell>
+          <cell r="T390">
+            <v>0.20027618420834739</v>
           </cell>
         </row>
         <row r="391">
@@ -21032,10 +24548,10 @@
             <v>0.10931253718974129</v>
           </cell>
           <cell r="M391">
-            <v>6.0511474850672853</v>
+            <v>4.689639300927146</v>
           </cell>
           <cell r="N391">
-            <v>0.1768844741024668</v>
+            <v>1.071081561756462</v>
           </cell>
           <cell r="O391">
             <v>0</v>
@@ -21045,6 +24561,15 @@
           </cell>
           <cell r="Q391">
             <v>3.8962950109326848</v>
+          </cell>
+          <cell r="R391">
+            <v>1.071081561756462</v>
+          </cell>
+          <cell r="S391">
+            <v>0.46731109648614388</v>
+          </cell>
+          <cell r="T391">
+            <v>0.46731109648614388</v>
           </cell>
         </row>
         <row r="392">
@@ -21088,7 +24613,7 @@
             <v>0</v>
           </cell>
           <cell r="N392">
-            <v>11.50440379867038</v>
+            <v>10.68018038822991</v>
           </cell>
           <cell r="O392">
             <v>0</v>
@@ -21098,6 +24623,15 @@
           </cell>
           <cell r="Q392">
             <v>7.887922217024669</v>
+          </cell>
+          <cell r="R392">
+            <v>10.68018038822991</v>
+          </cell>
+          <cell r="S392">
+            <v>0.82422341044046299</v>
+          </cell>
+          <cell r="T392">
+            <v>0.82422341044046299</v>
           </cell>
         </row>
         <row r="393">
@@ -21141,7 +24675,7 @@
             <v>0</v>
           </cell>
           <cell r="N393">
-            <v>2.7388638106176448</v>
+            <v>2.5029045912294272</v>
           </cell>
           <cell r="O393">
             <v>0</v>
@@ -21151,6 +24685,15 @@
           </cell>
           <cell r="Q393">
             <v>1.679130046654457</v>
+          </cell>
+          <cell r="R393">
+            <v>2.5029045912294272</v>
+          </cell>
+          <cell r="S393">
+            <v>0.23595921938821809</v>
+          </cell>
+          <cell r="T393">
+            <v>0.23595921938821809</v>
           </cell>
         </row>
         <row r="394">
@@ -21191,19 +24734,28 @@
             <v>0.1159097919801773</v>
           </cell>
           <cell r="M394">
-            <v>6.3906822247745039</v>
+            <v>4.8322624252035702</v>
           </cell>
           <cell r="N394">
-            <v>0</v>
+            <v>1.0078482876650909</v>
           </cell>
           <cell r="O394">
-            <v>5.2334342163589599E-2</v>
+            <v>0</v>
           </cell>
           <cell r="P394">
             <v>87.852063844882977</v>
           </cell>
           <cell r="Q394">
             <v>3.9179701088604002</v>
+          </cell>
+          <cell r="R394">
+            <v>1.0078482876650909</v>
+          </cell>
+          <cell r="S394">
+            <v>0.55057151190584219</v>
+          </cell>
+          <cell r="T394">
+            <v>0.55057151190584219</v>
           </cell>
         </row>
         <row r="395">
@@ -21247,7 +24799,7 @@
             <v>0</v>
           </cell>
           <cell r="N395">
-            <v>11.2094600965245</v>
+            <v>10.24042511659211</v>
           </cell>
           <cell r="O395">
             <v>0</v>
@@ -21257,6 +24809,15 @@
           </cell>
           <cell r="Q395">
             <v>7.3423938869240146</v>
+          </cell>
+          <cell r="R395">
+            <v>10.24042511659211</v>
+          </cell>
+          <cell r="S395">
+            <v>0.96903497993238874</v>
+          </cell>
+          <cell r="T395">
+            <v>0.96903497993238874</v>
           </cell>
         </row>
         <row r="396">
@@ -21300,7 +24861,7 @@
             <v>0</v>
           </cell>
           <cell r="N396">
-            <v>2.6139113004405332</v>
+            <v>2.33892964255402</v>
           </cell>
           <cell r="O396">
             <v>0</v>
@@ -21310,6 +24871,15 @@
           </cell>
           <cell r="Q396">
             <v>1.490963318579555</v>
+          </cell>
+          <cell r="R396">
+            <v>2.33892964255402</v>
+          </cell>
+          <cell r="S396">
+            <v>0.27498165788651308</v>
+          </cell>
+          <cell r="T396">
+            <v>0.27498165788651308</v>
           </cell>
         </row>
         <row r="397">
@@ -21350,19 +24920,28 @@
             <v>0.122798826488395</v>
           </cell>
           <cell r="M397">
-            <v>6.0991263676945762</v>
+            <v>4.971234061854747</v>
           </cell>
           <cell r="N397">
-            <v>0</v>
+            <v>0.48626843743796588</v>
           </cell>
           <cell r="O397">
-            <v>0.75774820038093593</v>
+            <v>0</v>
           </cell>
           <cell r="P397">
             <v>91.330978254902021</v>
           </cell>
           <cell r="Q397">
             <v>3.4789144100189628</v>
+          </cell>
+          <cell r="R397">
+            <v>0.48626843743796588</v>
+          </cell>
+          <cell r="S397">
+            <v>0.64162386840186392</v>
+          </cell>
+          <cell r="T397">
+            <v>0.64162386840186392</v>
           </cell>
         </row>
         <row r="398">
@@ -21406,7 +24985,7 @@
             <v>0</v>
           </cell>
           <cell r="N398">
-            <v>11.47329295233749</v>
+            <v>10.343753598140671</v>
           </cell>
           <cell r="O398">
             <v>0</v>
@@ -21416,6 +24995,15 @@
           </cell>
           <cell r="Q398">
             <v>7.3387226637939591</v>
+          </cell>
+          <cell r="R398">
+            <v>10.343753598140671</v>
+          </cell>
+          <cell r="S398">
+            <v>1.1295393541968179</v>
+          </cell>
+          <cell r="T398">
+            <v>1.1295393541968179</v>
           </cell>
         </row>
         <row r="399">
@@ -21459,7 +25047,7 @@
             <v>0</v>
           </cell>
           <cell r="N399">
-            <v>2.645111037486283</v>
+            <v>2.327644305184271</v>
           </cell>
           <cell r="O399">
             <v>0</v>
@@ -21469,6 +25057,15 @@
           </cell>
           <cell r="Q399">
             <v>1.4562898098975749</v>
+          </cell>
+          <cell r="R399">
+            <v>2.327644305184271</v>
+          </cell>
+          <cell r="S399">
+            <v>0.31746673230201089</v>
+          </cell>
+          <cell r="T399">
+            <v>0.31746673230201089</v>
           </cell>
         </row>
         <row r="400">
@@ -21509,19 +25106,28 @@
             <v>0.1299571418780161</v>
           </cell>
           <cell r="M400">
-            <v>6.1719257541346586</v>
+            <v>5.104777522141549</v>
           </cell>
           <cell r="N400">
-            <v>0</v>
+            <v>0.32639252328841789</v>
           </cell>
           <cell r="O400">
-            <v>1.1206135632104111</v>
+            <v>0</v>
           </cell>
           <cell r="P400">
             <v>94.728987811329645</v>
           </cell>
           <cell r="Q400">
             <v>3.3980095564276729</v>
+          </cell>
+          <cell r="R400">
+            <v>0.32639252328841789</v>
+          </cell>
+          <cell r="S400">
+            <v>0.74075570870469187</v>
+          </cell>
+          <cell r="T400">
+            <v>0.74075570870469187</v>
           </cell>
         </row>
         <row r="401">
@@ -21565,7 +25171,7 @@
             <v>0</v>
           </cell>
           <cell r="N401">
-            <v>11.71468317717715</v>
+            <v>10.40741407640671</v>
           </cell>
           <cell r="O401">
             <v>0</v>
@@ -21575,6 +25181,15 @@
           </cell>
           <cell r="Q401">
             <v>7.2940133287390623</v>
+          </cell>
+          <cell r="R401">
+            <v>10.40741407640671</v>
+          </cell>
+          <cell r="S401">
+            <v>1.307269100770432</v>
+          </cell>
+          <cell r="T401">
+            <v>1.307269100770432</v>
           </cell>
         </row>
         <row r="402">
@@ -21618,7 +25233,7 @@
             <v>0</v>
           </cell>
           <cell r="N402">
-            <v>2.6718651524444712</v>
+            <v>2.3082551674566001</v>
           </cell>
           <cell r="O402">
             <v>0</v>
@@ -21628,6 +25243,15 @@
           </cell>
           <cell r="Q402">
             <v>1.414372605866375</v>
+          </cell>
+          <cell r="R402">
+            <v>2.3082551674566001</v>
+          </cell>
+          <cell r="S402">
+            <v>0.36360998498787123</v>
+          </cell>
+          <cell r="T402">
+            <v>0.36360998498787123</v>
           </cell>
         </row>
         <row r="403">
@@ -21668,19 +25292,28 @@
             <v>0.1373964855554709</v>
           </cell>
           <cell r="M403">
-            <v>6.2343520223704321</v>
+            <v>5.2323972592084669</v>
           </cell>
           <cell r="N403">
-            <v>0</v>
+            <v>0.15353146485693189</v>
           </cell>
           <cell r="O403">
-            <v>1.517347620901371</v>
+            <v>0</v>
           </cell>
           <cell r="P403">
             <v>98.029190558351218</v>
           </cell>
           <cell r="Q403">
             <v>3.3002027470215389</v>
+          </cell>
+          <cell r="R403">
+            <v>0.15353146485693189</v>
+          </cell>
+          <cell r="S403">
+            <v>0.84842329830503271</v>
+          </cell>
+          <cell r="T403">
+            <v>0.84842329830503271</v>
           </cell>
         </row>
         <row r="404">
@@ -21724,7 +25357,7 @@
             <v>0</v>
           </cell>
           <cell r="N404">
-            <v>11.94168318696372</v>
+            <v>10.437366290708679</v>
           </cell>
           <cell r="O404">
             <v>0</v>
@@ -21734,6 +25367,15 @@
           </cell>
           <cell r="Q404">
             <v>7.2134447833015916</v>
+          </cell>
+          <cell r="R404">
+            <v>10.437366290708679</v>
+          </cell>
+          <cell r="S404">
+            <v>1.504316896255036</v>
+          </cell>
+          <cell r="T404">
+            <v>1.504316896255036</v>
           </cell>
         </row>
         <row r="405">
@@ -21777,7 +25419,7 @@
             <v>0</v>
           </cell>
           <cell r="N405">
-            <v>2.6962936322582558</v>
+            <v>2.2825569108416439</v>
           </cell>
           <cell r="O405">
             <v>0</v>
@@ -21787,6 +25429,15 @@
           </cell>
           <cell r="Q405">
             <v>1.3668550091836631</v>
+          </cell>
+          <cell r="R405">
+            <v>2.2825569108416439</v>
+          </cell>
+          <cell r="S405">
+            <v>0.41373672141661288</v>
+          </cell>
+          <cell r="T405">
+            <v>0.41373672141661288</v>
           </cell>
         </row>
         <row r="406">
@@ -21827,19 +25478,28 @@
             <v>0.1451707794444255</v>
           </cell>
           <cell r="M406">
-            <v>6.2913518086025988</v>
+            <v>5.3549587018145726</v>
           </cell>
           <cell r="N406">
-            <v>0</v>
+            <v>-2.9802322387695308E-17</v>
           </cell>
           <cell r="O406">
-            <v>1.947046194189052</v>
+            <v>2.8992576517403071E-2</v>
           </cell>
           <cell r="P406">
             <v>101.2185189131132</v>
           </cell>
           <cell r="Q406">
             <v>3.1893283547618818</v>
+          </cell>
+          <cell r="R406">
+            <v>-2.9802322387695308E-17</v>
+          </cell>
+          <cell r="S406">
+            <v>0.96538568330542929</v>
+          </cell>
+          <cell r="T406">
+            <v>0.96538568330542929</v>
           </cell>
         </row>
         <row r="407">
@@ -21883,7 +25543,7 @@
             <v>0</v>
           </cell>
           <cell r="N407">
-            <v>12.16482400787601</v>
+            <v>10.441260417761031</v>
           </cell>
           <cell r="O407">
             <v>0</v>
@@ -21893,6 +25553,15 @@
           </cell>
           <cell r="Q407">
             <v>7.103244428671271</v>
+          </cell>
+          <cell r="R407">
+            <v>10.441260417761031</v>
+          </cell>
+          <cell r="S407">
+            <v>1.7235635901149819</v>
+          </cell>
+          <cell r="T407">
+            <v>1.7235635901149819</v>
           </cell>
         </row>
         <row r="408">
@@ -21936,7 +25605,7 @@
             <v>0</v>
           </cell>
           <cell r="N408">
-            <v>2.720894415559667</v>
+            <v>2.252541706752043</v>
           </cell>
           <cell r="O408">
             <v>0</v>
@@ -21946,6 +25615,15 @@
           </cell>
           <cell r="Q408">
             <v>1.315397037550502</v>
+          </cell>
+          <cell r="R408">
+            <v>2.252541706752043</v>
+          </cell>
+          <cell r="S408">
+            <v>0.46835270880762531</v>
+          </cell>
+          <cell r="T408">
+            <v>0.46835270880762531</v>
           </cell>
         </row>
         <row r="409">
@@ -21986,19 +25664,28 @@
             <v>0.15337866487267249</v>
           </cell>
           <cell r="M409">
-            <v>6.348753636305891</v>
+            <v>5.4745654769006631</v>
           </cell>
           <cell r="N409">
-            <v>0</v>
+            <v>-2.0861625671386721E-16</v>
           </cell>
           <cell r="O409">
-            <v>2.4105511267351711</v>
+            <v>0.2186348278125633</v>
           </cell>
           <cell r="P409">
             <v>104.2877786673977</v>
           </cell>
           <cell r="Q409">
             <v>3.0692597542845039</v>
+          </cell>
+          <cell r="R409">
+            <v>-2.0861625671386721E-16</v>
+          </cell>
+          <cell r="S409">
+            <v>1.092822987217791</v>
+          </cell>
+          <cell r="T409">
+            <v>1.092822987217791</v>
           </cell>
         </row>
         <row r="410">
@@ -22042,7 +25729,7 @@
             <v>0</v>
           </cell>
           <cell r="N410">
-            <v>12.396166711850871</v>
+            <v>10.427067959277419</v>
           </cell>
           <cell r="O410">
             <v>0</v>
@@ -22052,6 +25739,15 @@
           </cell>
           <cell r="Q410">
             <v>6.9690273607656623</v>
+          </cell>
+          <cell r="R410">
+            <v>10.427067959277419</v>
+          </cell>
+          <cell r="S410">
+            <v>1.969098752573454</v>
+          </cell>
+          <cell r="T410">
+            <v>1.969098752573454</v>
           </cell>
         </row>
         <row r="411">
@@ -22095,7 +25791,7 @@
             <v>0</v>
           </cell>
           <cell r="N411">
-            <v>2.748367775617282</v>
+            <v>2.2201371628016018</v>
           </cell>
           <cell r="O411">
             <v>0</v>
@@ -22105,6 +25801,15 @@
           </cell>
           <cell r="Q411">
             <v>1.2613735464889571</v>
+          </cell>
+          <cell r="R411">
+            <v>2.2201371628016018</v>
+          </cell>
+          <cell r="S411">
+            <v>0.52823061281568018</v>
+          </cell>
+          <cell r="T411">
+            <v>0.52823061281568018</v>
           </cell>
         </row>
         <row r="412">
@@ -22145,19 +25850,28 @@
             <v>0.1621760653381473</v>
           </cell>
           <cell r="M412">
-            <v>6.4128581431069911</v>
+            <v>5.5948011929385784</v>
           </cell>
           <cell r="N412">
-            <v>0</v>
+            <v>5.9604644775390629E-17</v>
           </cell>
           <cell r="O412">
-            <v>2.911810511790641</v>
+            <v>0.41448114640150729</v>
           </cell>
           <cell r="P412">
             <v>107.2309836092053</v>
           </cell>
           <cell r="Q412">
             <v>2.9432049418075659</v>
+          </cell>
+          <cell r="R412">
+            <v>5.9604644775390629E-17</v>
+          </cell>
+          <cell r="S412">
+            <v>1.23253809656992</v>
+          </cell>
+          <cell r="T412">
+            <v>1.23253809656992</v>
           </cell>
         </row>
         <row r="413">
@@ -22201,7 +25915,7 @@
             <v>0</v>
           </cell>
           <cell r="N413">
-            <v>12.64961862154056</v>
+            <v>10.40272937837948</v>
           </cell>
           <cell r="O413">
             <v>0</v>
@@ -22211,6 +25925,15 @@
           </cell>
           <cell r="Q413">
             <v>6.8149772443996008</v>
+          </cell>
+          <cell r="R413">
+            <v>10.40272937837948</v>
+          </cell>
+          <cell r="S413">
+            <v>2.2468892431610739</v>
+          </cell>
+          <cell r="T413">
+            <v>2.2468892431610739</v>
           </cell>
         </row>
         <row r="414">
@@ -22254,7 +25977,7 @@
             <v>0</v>
           </cell>
           <cell r="N414">
-            <v>2.781738125161592</v>
+            <v>2.1871841930725631</v>
           </cell>
           <cell r="O414">
             <v>0</v>
@@ -22264,6 +25987,15 @@
           </cell>
           <cell r="Q414">
             <v>1.2057515406109389</v>
+          </cell>
+          <cell r="R414">
+            <v>2.1871841930725631</v>
+          </cell>
+          <cell r="S414">
+            <v>0.59455393208902951</v>
+          </cell>
+          <cell r="T414">
+            <v>0.59455393208902951</v>
           </cell>
         </row>
         <row r="415">
@@ -22304,19 +26036,28 @@
             <v>0.17180092980900749</v>
           </cell>
           <cell r="M415">
-            <v>6.4907222920437162</v>
+            <v>5.7212306305606022</v>
           </cell>
           <cell r="N415">
-            <v>0</v>
+            <v>-4.7683715820312503E-16</v>
           </cell>
           <cell r="O415">
-            <v>3.4592440219747269</v>
+            <v>0.61780084672462321</v>
           </cell>
           <cell r="P415">
             <v>110.0444038706307</v>
           </cell>
           <cell r="Q415">
             <v>2.813420261425525</v>
+          </cell>
+          <cell r="R415">
+            <v>-4.7683715820312503E-16</v>
+          </cell>
+          <cell r="S415">
+            <v>1.3872925082077361</v>
+          </cell>
+          <cell r="T415">
+            <v>1.3872925082077361</v>
           </cell>
         </row>
         <row r="416">
@@ -22360,7 +26101,7 @@
             <v>0</v>
           </cell>
           <cell r="N416">
-            <v>12.94142447804105</v>
+            <v>10.37608878289104</v>
           </cell>
           <cell r="O416">
             <v>0</v>
@@ -22370,6 +26111,15 @@
           </cell>
           <cell r="Q416">
             <v>6.6438372577683547</v>
+          </cell>
+          <cell r="R416">
+            <v>10.37608878289104</v>
+          </cell>
+          <cell r="S416">
+            <v>2.5653356951500048</v>
+          </cell>
+          <cell r="T416">
+            <v>2.5653356951500048</v>
           </cell>
         </row>
         <row r="417">
@@ -22413,7 +26163,7 @@
             <v>0</v>
           </cell>
           <cell r="N417">
-            <v>2.8244744094154242</v>
+            <v>2.1554275178443909</v>
           </cell>
           <cell r="O417">
             <v>0</v>
@@ -22423,6 +26173,15 @@
           </cell>
           <cell r="Q417">
             <v>1.149073178003361</v>
+          </cell>
+          <cell r="R417">
+            <v>2.1554275178443909</v>
+          </cell>
+          <cell r="S417">
+            <v>0.66904689157103314</v>
+          </cell>
+          <cell r="T417">
+            <v>0.66904689157103314</v>
           </cell>
         </row>
         <row r="418">
@@ -22463,19 +26222,28 @@
             <v>0.18258589633517469</v>
           </cell>
           <cell r="M418">
-            <v>6.5904402886359899</v>
+            <v>5.861156889361621</v>
           </cell>
           <cell r="N418">
-            <v>0</v>
+            <v>-1.1920928955078131E-16</v>
           </cell>
           <cell r="O418">
-            <v>4.0662086011124137</v>
+            <v>0.83182601439137527</v>
           </cell>
           <cell r="P418">
             <v>112.72557461930511</v>
           </cell>
           <cell r="Q418">
             <v>2.681170748674508</v>
+          </cell>
+          <cell r="R418">
+            <v>-1.1920928955078131E-16</v>
+          </cell>
+          <cell r="S418">
+            <v>1.5611094136657451</v>
+          </cell>
+          <cell r="T418">
+            <v>1.5611094136657451</v>
           </cell>
         </row>
         <row r="419">
@@ -22519,7 +26287,7 @@
             <v>0</v>
           </cell>
           <cell r="N419">
-            <v>13.28957243430226</v>
+            <v>10.354829000415551</v>
           </cell>
           <cell r="O419">
             <v>0</v>
@@ -22529,6 +26297,15 @@
           </cell>
           <cell r="Q419">
             <v>6.4584874172127362</v>
+          </cell>
+          <cell r="R419">
+            <v>10.354829000415551</v>
+          </cell>
+          <cell r="S419">
+            <v>2.9347434338867102</v>
+          </cell>
+          <cell r="T419">
+            <v>2.9347434338867102</v>
           </cell>
         </row>
         <row r="420">
@@ -22572,7 +26349,7 @@
             <v>0</v>
           </cell>
           <cell r="N420">
-            <v>2.8803399544759132</v>
+            <v>2.126467008327102</v>
           </cell>
           <cell r="O420">
             <v>0</v>
@@ -22582,6 +26359,15 @@
           </cell>
           <cell r="Q420">
             <v>1.091749081884394</v>
+          </cell>
+          <cell r="R420">
+            <v>2.126467008327102</v>
+          </cell>
+          <cell r="S420">
+            <v>0.75387294614881073</v>
+          </cell>
+          <cell r="T420">
+            <v>0.75387294614881073</v>
           </cell>
         </row>
         <row r="421">
@@ -22622,19 +26408,28 @@
             <v>0.1949071328916592</v>
           </cell>
           <cell r="M421">
-            <v>6.7207932271104651</v>
+            <v>6.0210904390546096</v>
           </cell>
           <cell r="N421">
-            <v>0</v>
+            <v>2.3841857910156251E-16</v>
           </cell>
           <cell r="O421">
-            <v>4.7479504663268903</v>
+            <v>1.05933408629137</v>
           </cell>
           <cell r="P421">
             <v>115.2729891437023</v>
           </cell>
           <cell r="Q421">
             <v>2.54741452439692</v>
+          </cell>
+          <cell r="R421">
+            <v>2.3841857910156251E-16</v>
+          </cell>
+          <cell r="S421">
+            <v>1.759036874347224</v>
+          </cell>
+          <cell r="T421">
+            <v>1.759036874347224</v>
           </cell>
         </row>
         <row r="422">
@@ -22678,7 +26473,7 @@
             <v>0</v>
           </cell>
           <cell r="N422">
-            <v>13.70756564490812</v>
+            <v>10.343049667802889</v>
           </cell>
           <cell r="O422">
             <v>0</v>
@@ -22688,6 +26483,15 @@
           </cell>
           <cell r="Q422">
             <v>6.2622598706464316</v>
+          </cell>
+          <cell r="R422">
+            <v>10.343049667802889</v>
+          </cell>
+          <cell r="S422">
+            <v>3.3645159771052322</v>
+          </cell>
+          <cell r="T422">
+            <v>3.3645159771052322</v>
           </cell>
         </row>
         <row r="423">
@@ -22731,7 +26535,7 @@
             <v>0</v>
           </cell>
           <cell r="N423">
-            <v>2.9520236257387409</v>
+            <v>2.100998645478708</v>
           </cell>
           <cell r="O423">
             <v>0</v>
@@ -22741,6 +26545,15 @@
           </cell>
           <cell r="Q423">
             <v>1.034131606120529</v>
+          </cell>
+          <cell r="R423">
+            <v>2.100998645478708</v>
+          </cell>
+          <cell r="S423">
+            <v>0.85102498026003381</v>
+          </cell>
+          <cell r="T423">
+            <v>0.85102498026003381</v>
           </cell>
         </row>
         <row r="424">
@@ -22781,19 +26594,28 @@
             <v>0.20902367936211369</v>
           </cell>
           <cell r="M424">
-            <v>6.8880551267237298</v>
+            <v>6.2012659113053434</v>
           </cell>
           <cell r="N424">
-            <v>0</v>
+            <v>-2.3841857910156251E-16</v>
           </cell>
           <cell r="O424">
-            <v>5.5144766958869607</v>
+            <v>1.2989357385216951</v>
           </cell>
           <cell r="P424">
             <v>117.68596289131671</v>
           </cell>
           <cell r="Q424">
             <v>2.4129737476145681</v>
+          </cell>
+          <cell r="R424">
+            <v>-2.3841857910156251E-16</v>
+          </cell>
+          <cell r="S424">
+            <v>1.985724953940081</v>
+          </cell>
+          <cell r="T424">
+            <v>1.985724953940081</v>
           </cell>
         </row>
         <row r="425">
@@ -22837,7 +26659,7 @@
             <v>0</v>
           </cell>
           <cell r="N425">
-            <v>14.205782390447441</v>
+            <v>10.34800197810193</v>
           </cell>
           <cell r="O425">
             <v>0</v>
@@ -22847,6 +26669,15 @@
           </cell>
           <cell r="Q425">
             <v>6.0703796605591487</v>
+          </cell>
+          <cell r="R425">
+            <v>10.34800197810193</v>
+          </cell>
+          <cell r="S425">
+            <v>3.8577804123455119</v>
+          </cell>
+          <cell r="T425">
+            <v>3.8577804123455119</v>
           </cell>
         </row>
         <row r="426">
@@ -22890,7 +26721,7 @@
             <v>0</v>
           </cell>
           <cell r="N426">
-            <v>3.0362020896242421</v>
+            <v>2.075073343286844</v>
           </cell>
           <cell r="O426">
             <v>0</v>
@@ -22900,6 +26731,15 @@
           </cell>
           <cell r="Q426">
             <v>0.97385772422196282</v>
+          </cell>
+          <cell r="R426">
+            <v>2.075073343286844</v>
+          </cell>
+          <cell r="S426">
+            <v>0.9611287463373982</v>
+          </cell>
+          <cell r="T426">
+            <v>0.9611287463373982</v>
           </cell>
         </row>
         <row r="427">
@@ -22940,19 +26780,28 @@
             <v>0.22482543773974201</v>
           </cell>
           <cell r="M427">
-            <v>7.0844715424565639</v>
+            <v>6.3890150048857066</v>
           </cell>
           <cell r="N427">
-            <v>0</v>
+            <v>-2.3841857910156251E-16</v>
           </cell>
           <cell r="O427">
-            <v>6.3660863625659809</v>
+            <v>1.5471772038830709</v>
           </cell>
           <cell r="P427">
             <v>119.9582975811681</v>
           </cell>
           <cell r="Q427">
             <v>2.2723346898512471</v>
+          </cell>
+          <cell r="R427">
+            <v>-2.3841857910156251E-16</v>
+          </cell>
+          <cell r="S427">
+            <v>2.2426337414539268</v>
+          </cell>
+          <cell r="T427">
+            <v>2.2426337414539268</v>
           </cell>
         </row>
         <row r="428">
@@ -22996,7 +26845,7 @@
             <v>0</v>
           </cell>
           <cell r="N428">
-            <v>14.747508920034949</v>
+            <v>10.342001225431011</v>
           </cell>
           <cell r="O428">
             <v>0</v>
@@ -23006,6 +26855,15 @@
           </cell>
           <cell r="Q428">
             <v>5.8743720947850582</v>
+          </cell>
+          <cell r="R428">
+            <v>10.342001225431011</v>
+          </cell>
+          <cell r="S428">
+            <v>4.405507694603938</v>
+          </cell>
+          <cell r="T428">
+            <v>4.405507694603938</v>
           </cell>
         </row>
         <row r="429">
@@ -23049,7 +26907,7 @@
             <v>0</v>
           </cell>
           <cell r="N429">
-            <v>3.129853922551971</v>
+            <v>2.0477380959002338</v>
           </cell>
           <cell r="O429">
             <v>0</v>
@@ -23059,6 +26917,15 @@
           </cell>
           <cell r="Q429">
             <v>0.91409957464944924</v>
+          </cell>
+          <cell r="R429">
+            <v>2.0477380959002338</v>
+          </cell>
+          <cell r="S429">
+            <v>1.0821158266517381</v>
+          </cell>
+          <cell r="T429">
+            <v>1.0821158266517381</v>
           </cell>
         </row>
         <row r="430">
@@ -23099,19 +26966,28 @@
             <v>0.24162075874201491</v>
           </cell>
           <cell r="M430">
-            <v>7.3029924859545998</v>
+            <v>6.5557312773625043</v>
           </cell>
           <cell r="N430">
-            <v>0</v>
+            <v>-2.3841857910156251E-16</v>
           </cell>
           <cell r="O430">
-            <v>7.265299241517635</v>
+            <v>1.777675720261958</v>
           </cell>
           <cell r="P430">
             <v>122.0911965886835</v>
           </cell>
           <cell r="Q430">
             <v>2.1328990075153822</v>
+          </cell>
+          <cell r="R430">
+            <v>-2.3841857910156251E-16</v>
+          </cell>
+          <cell r="S430">
+            <v>2.5249369288540562</v>
+          </cell>
+          <cell r="T430">
+            <v>2.5249369288540562</v>
           </cell>
         </row>
         <row r="431">
@@ -23155,7 +27031,7 @@
             <v>0</v>
           </cell>
           <cell r="N431">
-            <v>15.281435180545371</v>
+            <v>10.297464901497561</v>
           </cell>
           <cell r="O431">
             <v>0</v>
@@ -23165,6 +27041,15 @@
           </cell>
           <cell r="Q431">
             <v>5.6744073975975828</v>
+          </cell>
+          <cell r="R431">
+            <v>10.297464901497561</v>
+          </cell>
+          <cell r="S431">
+            <v>4.9839702790478206</v>
+          </cell>
+          <cell r="T431">
+            <v>4.9839702790478206</v>
           </cell>
         </row>
         <row r="432">
@@ -23208,7 +27093,7 @@
             <v>0</v>
           </cell>
           <cell r="N432">
-            <v>3.2221296796751542</v>
+            <v>2.0134959991535148</v>
           </cell>
           <cell r="O432">
             <v>0</v>
@@ -23218,6 +27103,15 @@
           </cell>
           <cell r="Q432">
             <v>0.85546054056216603</v>
+          </cell>
+          <cell r="R432">
+            <v>2.0134959991535148</v>
+          </cell>
+          <cell r="S432">
+            <v>1.2086336805216391</v>
+          </cell>
+          <cell r="T432">
+            <v>1.2086336805216391</v>
           </cell>
         </row>
         <row r="433">
@@ -23258,19 +27152,28 @@
             <v>0.25813686540507941</v>
           </cell>
           <cell r="M433">
-            <v>7.5183025859086907</v>
+            <v>6.6615972452190917</v>
           </cell>
           <cell r="N433">
-            <v>0</v>
+            <v>-4.7683715820312503E-16</v>
           </cell>
           <cell r="O433">
-            <v>8.1560438734303542</v>
+            <v>1.963439913860894</v>
           </cell>
           <cell r="P433">
             <v>124.0872711833283</v>
           </cell>
           <cell r="Q433">
             <v>1.9960745946450551</v>
+          </cell>
+          <cell r="R433">
+            <v>-4.7683715820312503E-16</v>
+          </cell>
+          <cell r="S433">
+            <v>2.8201452545504928</v>
+          </cell>
+          <cell r="T433">
+            <v>2.8201452545504928</v>
           </cell>
         </row>
         <row r="434">
@@ -23314,7 +27217,7 @@
             <v>0</v>
           </cell>
           <cell r="N434">
-            <v>15.745819789284999</v>
+            <v>10.185123969720911</v>
           </cell>
           <cell r="O434">
             <v>0</v>
@@ -23324,6 +27227,15 @@
           </cell>
           <cell r="Q434">
             <v>5.467783597545731</v>
+          </cell>
+          <cell r="R434">
+            <v>10.185123969720911</v>
+          </cell>
+          <cell r="S434">
+            <v>5.5606958195640814</v>
+          </cell>
+          <cell r="T434">
+            <v>5.5606958195640814</v>
           </cell>
         </row>
         <row r="435">
@@ -23367,7 +27279,7 @@
             <v>0</v>
           </cell>
           <cell r="N435">
-            <v>3.300345076302952</v>
+            <v>1.966988443650709</v>
           </cell>
           <cell r="O435">
             <v>0</v>
@@ -23377,6 +27289,15 @@
           </cell>
           <cell r="Q435">
             <v>0.79847733068827642</v>
+          </cell>
+          <cell r="R435">
+            <v>1.966988443650709</v>
+          </cell>
+          <cell r="S435">
+            <v>1.3333566326522419</v>
+          </cell>
+          <cell r="T435">
+            <v>1.3333566326522419</v>
           </cell>
         </row>
         <row r="436">
@@ -23417,19 +27338,28 @@
             <v>0.2729092522972425</v>
           </cell>
           <cell r="M436">
-            <v>7.7008051780402207</v>
+            <v>6.6701452856032528</v>
           </cell>
           <cell r="N436">
-            <v>0</v>
+            <v>9.5367431640625006E-16</v>
           </cell>
           <cell r="O436">
-            <v>8.9745580359679202</v>
+            <v>2.0805055837515982</v>
           </cell>
           <cell r="P436">
             <v>125.95038495493441</v>
           </cell>
           <cell r="Q436">
             <v>1.863113771605978</v>
+          </cell>
+          <cell r="R436">
+            <v>9.5367431640625006E-16</v>
+          </cell>
+          <cell r="S436">
+            <v>3.1111654761885661</v>
+          </cell>
+          <cell r="T436">
+            <v>3.1111654761885661</v>
           </cell>
         </row>
         <row r="437">
@@ -23473,7 +27403,7 @@
             <v>0</v>
           </cell>
           <cell r="N437">
-            <v>16.101650342572189</v>
+            <v>9.9908821486254737</v>
           </cell>
           <cell r="O437">
             <v>0</v>
@@ -23483,6 +27413,15 @@
           </cell>
           <cell r="Q437">
             <v>5.2519083531473436</v>
+          </cell>
+          <cell r="R437">
+            <v>9.9908821486254737</v>
+          </cell>
+          <cell r="S437">
+            <v>6.1107681939467131</v>
+          </cell>
+          <cell r="T437">
+            <v>6.1107681939467131</v>
           </cell>
         </row>
         <row r="438">
@@ -23526,7 +27465,7 @@
             <v>0</v>
           </cell>
           <cell r="N438">
-            <v>3.356801306096588</v>
+            <v>1.90619093548549</v>
           </cell>
           <cell r="O438">
             <v>0</v>
@@ -23536,6 +27475,15 @@
           </cell>
           <cell r="Q438">
             <v>0.74366665447404812</v>
+          </cell>
+          <cell r="R438">
+            <v>1.90619093548549</v>
+          </cell>
+          <cell r="S438">
+            <v>1.450610370611098</v>
+          </cell>
+          <cell r="T438">
+            <v>1.450610370611098</v>
           </cell>
         </row>
         <row r="439">
@@ -23576,19 +27524,28 @@
             <v>0.28503221317270688</v>
           </cell>
           <cell r="M439">
-            <v>7.8325363808920381</v>
+            <v>6.5676816575902182</v>
           </cell>
           <cell r="N439">
             <v>0</v>
           </cell>
           <cell r="O439">
-            <v>9.6812813726818874</v>
+            <v>2.1199028081240749</v>
           </cell>
           <cell r="P439">
             <v>127.68560714870711</v>
           </cell>
           <cell r="Q439">
             <v>1.735222193772779</v>
+          </cell>
+          <cell r="R439">
+            <v>0</v>
+          </cell>
+          <cell r="S439">
+            <v>3.3847575314258962</v>
+          </cell>
+          <cell r="T439">
+            <v>3.3847575314258962</v>
           </cell>
         </row>
         <row r="440">
@@ -23632,7 +27589,7 @@
             <v>0</v>
           </cell>
           <cell r="N440">
-            <v>16.371407713222212</v>
+            <v>9.7320817935696553</v>
           </cell>
           <cell r="O440">
             <v>0</v>
@@ -23642,6 +27599,15 @@
           </cell>
           <cell r="Q440">
             <v>5.0292369880419594</v>
+          </cell>
+          <cell r="R440">
+            <v>9.7320817935696553</v>
+          </cell>
+          <cell r="S440">
+            <v>6.6393259196525571</v>
+          </cell>
+          <cell r="T440">
+            <v>6.6393259196525571</v>
           </cell>
         </row>
         <row r="441">
@@ -23685,7 +27651,7 @@
             <v>0</v>
           </cell>
           <cell r="N441">
-            <v>3.3964197550557889</v>
+            <v>1.8350459760272091</v>
           </cell>
           <cell r="O441">
             <v>0</v>
@@ -23695,6 +27661,15 @@
           </cell>
           <cell r="Q441">
             <v>0.69156173434600821</v>
+          </cell>
+          <cell r="R441">
+            <v>1.8350459760272091</v>
+          </cell>
+          <cell r="S441">
+            <v>1.5613737790285791</v>
+          </cell>
+          <cell r="T441">
+            <v>1.5613737790285791</v>
           </cell>
         </row>
         <row r="442">
@@ -23735,19 +27710,28 @@
             <v>0.29499639549797702</v>
           </cell>
           <cell r="M442">
-            <v>7.9249794284635069</v>
+            <v>6.3774874062744598</v>
           </cell>
           <cell r="N442">
-            <v>0</v>
+            <v>-2.3841857910156251E-16</v>
           </cell>
           <cell r="O442">
-            <v>10.29641316089211</v>
+            <v>2.0957134622109712</v>
           </cell>
           <cell r="P442">
             <v>129.29925119551461</v>
           </cell>
           <cell r="Q442">
             <v>1.6136440468073521</v>
+          </cell>
+          <cell r="R442">
+            <v>-2.3841857910156251E-16</v>
+          </cell>
+          <cell r="S442">
+            <v>3.643205484400017</v>
+          </cell>
+          <cell r="T442">
+            <v>3.643205484400017</v>
           </cell>
         </row>
         <row r="443">
@@ -23791,7 +27775,7 @@
             <v>0</v>
           </cell>
           <cell r="N443">
-            <v>16.65784419607915</v>
+            <v>9.461002011219696</v>
           </cell>
           <cell r="O443">
             <v>0</v>
@@ -23801,6 +27785,15 @@
           </cell>
           <cell r="Q443">
             <v>4.8113618097201378</v>
+          </cell>
+          <cell r="R443">
+            <v>9.461002011219696</v>
+          </cell>
+          <cell r="S443">
+            <v>7.1968421848594586</v>
+          </cell>
+          <cell r="T443">
+            <v>7.1968421848594586</v>
           </cell>
         </row>
         <row r="444">
@@ -23844,7 +27837,7 @@
             <v>0</v>
           </cell>
           <cell r="N444">
-            <v>3.4400217689645438</v>
+            <v>1.7633415732818849</v>
           </cell>
           <cell r="O444">
             <v>0</v>
@@ -23854,6 +27847,15 @@
           </cell>
           <cell r="Q444">
             <v>0.64266613261184691</v>
+          </cell>
+          <cell r="R444">
+            <v>1.7633415732818849</v>
+          </cell>
+          <cell r="S444">
+            <v>1.6766801956826589</v>
+          </cell>
+          <cell r="T444">
+            <v>1.6766801956826589</v>
           </cell>
         </row>
         <row r="445">
@@ -23894,19 +27896,28 @@
             <v>0.30504902845428478</v>
           </cell>
           <cell r="M445">
-            <v>8.0267174609172738</v>
+            <v>6.1561144524477021</v>
           </cell>
           <cell r="N445">
-            <v>0</v>
+            <v>-2.3841857910156251E-16</v>
           </cell>
           <cell r="O445">
-            <v>10.91517316199876</v>
+            <v>2.0416507814566369</v>
           </cell>
           <cell r="P445">
             <v>130.79880550494229</v>
           </cell>
           <cell r="Q445">
             <v>1.4995543094276429</v>
+          </cell>
+          <cell r="R445">
+            <v>-2.3841857910156251E-16</v>
+          </cell>
+          <cell r="S445">
+            <v>3.9122537899262042</v>
+          </cell>
+          <cell r="T445">
+            <v>3.9122537899262042</v>
           </cell>
         </row>
         <row r="446">
@@ -23950,7 +27961,7 @@
             <v>0</v>
           </cell>
           <cell r="N446">
-            <v>17.113774666009771</v>
+            <v>9.2457947195413244</v>
           </cell>
           <cell r="O446">
             <v>0</v>
@@ -23960,6 +27971,15 @@
           </cell>
           <cell r="Q446">
             <v>4.6187418150362651</v>
+          </cell>
+          <cell r="R446">
+            <v>9.2457947195413244</v>
+          </cell>
+          <cell r="S446">
+            <v>7.8679799464684441</v>
+          </cell>
+          <cell r="T446">
+            <v>7.8679799464684441</v>
           </cell>
         </row>
         <row r="447">
@@ -24003,7 +28023,7 @@
             <v>0</v>
           </cell>
           <cell r="N447">
-            <v>3.517709910040995</v>
+            <v>1.7025094205947719</v>
           </cell>
           <cell r="O447">
             <v>0</v>
@@ -24013,6 +28033,15 @@
           </cell>
           <cell r="Q447">
             <v>0.59741657686603256</v>
+          </cell>
+          <cell r="R447">
+            <v>1.7025094205947719</v>
+          </cell>
+          <cell r="S447">
+            <v>1.815200489446223</v>
+          </cell>
+          <cell r="T447">
+            <v>1.815200489446223</v>
           </cell>
         </row>
         <row r="448">
@@ -24053,19 +28082,28 @@
             <v>0.3184562262186354</v>
           </cell>
           <cell r="M448">
-            <v>8.2079897900956578</v>
+            <v>5.9651349619810716</v>
           </cell>
           <cell r="N448">
-            <v>0</v>
+            <v>-4.7683715820312503E-16</v>
           </cell>
           <cell r="O448">
-            <v>11.675793416507929</v>
+            <v>1.9926129805932691</v>
           </cell>
           <cell r="P448">
             <v>132.19277751762959</v>
           </cell>
           <cell r="Q448">
             <v>1.3939720126874089</v>
+          </cell>
+          <cell r="R448">
+            <v>-4.7683715820312503E-16</v>
+          </cell>
+          <cell r="S448">
+            <v>4.2354678087078534</v>
+          </cell>
+          <cell r="T448">
+            <v>4.2354678087078534</v>
           </cell>
         </row>
         <row r="449">
@@ -24109,7 +28147,7 @@
             <v>0</v>
           </cell>
           <cell r="N449">
-            <v>17.856771982328318</v>
+            <v>9.1318646172808098</v>
           </cell>
           <cell r="O449">
             <v>0</v>
@@ -24119,6 +28157,15 @@
           </cell>
           <cell r="Q449">
             <v>4.4732382519797946</v>
+          </cell>
+          <cell r="R449">
+            <v>9.1318646172808098</v>
+          </cell>
+          <cell r="S449">
+            <v>8.724907365047514</v>
+          </cell>
+          <cell r="T449">
+            <v>8.724907365047514</v>
           </cell>
         </row>
         <row r="450">
@@ -24162,7 +28209,7 @@
             <v>0</v>
           </cell>
           <cell r="N450">
-            <v>3.651707509108455</v>
+            <v>1.658675491153349</v>
           </cell>
           <cell r="O450">
             <v>0</v>
@@ -24172,6 +28219,15 @@
           </cell>
           <cell r="Q450">
             <v>0.55620767305451502</v>
+          </cell>
+          <cell r="R450">
+            <v>1.658675491153349</v>
+          </cell>
+          <cell r="S450">
+            <v>1.993032017955106</v>
+          </cell>
+          <cell r="T450">
+            <v>1.993032017955106</v>
           </cell>
         </row>
         <row r="451">
@@ -24212,19 +28268,28 @@
             <v>0.33759767999239543</v>
           </cell>
           <cell r="M451">
-            <v>8.5206508545863873</v>
+            <v>5.8293731611681476</v>
           </cell>
           <cell r="N451">
-            <v>0</v>
+            <v>-2.3841857910156251E-16</v>
           </cell>
           <cell r="O451">
-            <v>12.67706973147963</v>
+            <v>1.959130348477006</v>
           </cell>
           <cell r="P451">
             <v>133.49059542142339</v>
           </cell>
           <cell r="Q451">
             <v>1.2978179037938691</v>
+          </cell>
+          <cell r="R451">
+            <v>-2.3841857910156251E-16</v>
+          </cell>
+          <cell r="S451">
+            <v>4.6504080418952487</v>
+          </cell>
+          <cell r="T451">
+            <v>4.6504080418952487</v>
           </cell>
         </row>
         <row r="452">
@@ -24268,7 +28333,7 @@
             <v>0</v>
           </cell>
           <cell r="N452">
-            <v>18.870764491518109</v>
+            <v>9.1045614388543594</v>
           </cell>
           <cell r="O452">
             <v>0</v>
@@ -24278,6 +28343,15 @@
           </cell>
           <cell r="Q452">
             <v>4.383536823108706</v>
+          </cell>
+          <cell r="R452">
+            <v>9.1045614388543594</v>
+          </cell>
+          <cell r="S452">
+            <v>9.766203052663748</v>
+          </cell>
+          <cell r="T452">
+            <v>9.766203052663748</v>
           </cell>
         </row>
         <row r="453">
@@ -24321,7 +28395,7 @@
             <v>0</v>
           </cell>
           <cell r="N453">
-            <v>3.8374955893030478</v>
+            <v>1.6271829952080581</v>
           </cell>
           <cell r="O453">
             <v>0</v>
@@ -24331,6 +28405,15 @@
           </cell>
           <cell r="Q453">
             <v>0.51910313296190991</v>
+          </cell>
+          <cell r="R453">
+            <v>1.6271829952080581</v>
+          </cell>
+          <cell r="S453">
+            <v>2.2103125940949901</v>
+          </cell>
+          <cell r="T453">
+            <v>2.2103125940949901</v>
           </cell>
         </row>
         <row r="454">
@@ -24371,19 +28454,28 @@
             <v>0.36192253002724978</v>
           </cell>
           <cell r="M454">
-            <v>8.9541563750404496</v>
+            <v>5.7113038998823491</v>
           </cell>
           <cell r="N454">
-            <v>0</v>
+            <v>2.3841857910156251E-16</v>
           </cell>
           <cell r="O454">
-            <v>13.89105922448895</v>
+            <v>1.9145435777302111</v>
           </cell>
           <cell r="P454">
             <v>134.70183606500129</v>
           </cell>
           <cell r="Q454">
             <v>1.21124064357779</v>
+          </cell>
+          <cell r="R454">
+            <v>2.3841857910156251E-16</v>
+          </cell>
+          <cell r="S454">
+            <v>5.1573960528883092</v>
+          </cell>
+          <cell r="T454">
+            <v>5.1573960528883092</v>
           </cell>
         </row>
       </sheetData>
@@ -24713,21 +28805,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D827CAF-F478-4566-B47C-13DEC40D273F}">
-  <dimension ref="A2:Q7"/>
+  <dimension ref="A2:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2">
         <v>2050</v>
@@ -24737,13 +28830,13 @@
         <v>Al Flows in Passenger cars - 2050</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>0</v>
@@ -24782,22 +28875,31 @@
         <v>11</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="5" t="s">
-        <v>14</v>
+      <c r="R4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <f>$B$2</f>
         <v>2050</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <f>ROUND(SUMIFS([1]Sheet1!C:C,[1]Sheet1!$A:$A,$A5,[1]Sheet1!$B:$B,$B5),2)</f>
@@ -24845,7 +28947,7 @@
       </c>
       <c r="N5" s="7">
         <f>ROUND(SUMIFS([1]Sheet1!N:N,[1]Sheet1!$A:$A,$A5,[1]Sheet1!$B:$B,$B5),2)</f>
-        <v>18.87</v>
+        <v>9.1</v>
       </c>
       <c r="O5" s="7">
         <f>ROUND(SUMIFS([1]Sheet1!O:O,[1]Sheet1!$A:$A,$A5,[1]Sheet1!$B:$B,$B5),2)</f>
@@ -24855,18 +28957,30 @@
         <f>ROUND(SUMIFS([1]Sheet1!P:P,[1]Sheet1!$A:$A,$A5,[1]Sheet1!$B:$B,$B5),2)</f>
         <v>242.4</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f>ROUND(SUMIFS([1]Sheet1!Q:Q,[1]Sheet1!$A:$A,$A5,[1]Sheet1!$B:$B,$B5),2)</f>
         <v>4.38</v>
       </c>
+      <c r="R5" s="7">
+        <f>ROUND(SUMIFS([1]Sheet1!R:R,[1]Sheet1!$A:$A,$A5,[1]Sheet1!$B:$B,$B5),2)</f>
+        <v>9.1</v>
+      </c>
+      <c r="S5" s="7">
+        <f>ROUND(SUMIFS([1]Sheet1!S:S,[1]Sheet1!$A:$A,$A5,[1]Sheet1!$B:$B,$B5),2)</f>
+        <v>9.77</v>
+      </c>
+      <c r="T5" s="8">
+        <f>ROUND(SUMIFS([1]Sheet1!T:T,[1]Sheet1!$A:$A,$A5,[1]Sheet1!$B:$B,$B5),2)</f>
+        <v>9.77</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <f t="shared" ref="A6:A7" si="0">$B$2</f>
         <v>2050</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
         <f>ROUND(SUMIFS([1]Sheet1!C:C,[1]Sheet1!$A:$A,$A6,[1]Sheet1!$B:$B,$B6),2)</f>
@@ -24914,7 +29028,7 @@
       </c>
       <c r="N6" s="7">
         <f>ROUND(SUMIFS([1]Sheet1!N:N,[1]Sheet1!$A:$A,$A6,[1]Sheet1!$B:$B,$B6),2)</f>
-        <v>3.84</v>
+        <v>1.63</v>
       </c>
       <c r="O6" s="7">
         <f>ROUND(SUMIFS([1]Sheet1!O:O,[1]Sheet1!$A:$A,$A6,[1]Sheet1!$B:$B,$B6),2)</f>
@@ -24924,18 +29038,30 @@
         <f>ROUND(SUMIFS([1]Sheet1!P:P,[1]Sheet1!$A:$A,$A6,[1]Sheet1!$B:$B,$B6),2)</f>
         <v>57.73</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <f>ROUND(SUMIFS([1]Sheet1!Q:Q,[1]Sheet1!$A:$A,$A6,[1]Sheet1!$B:$B,$B6),2)</f>
         <v>0.52</v>
       </c>
+      <c r="R6" s="7">
+        <f>ROUND(SUMIFS([1]Sheet1!R:R,[1]Sheet1!$A:$A,$A6,[1]Sheet1!$B:$B,$B6),2)</f>
+        <v>1.63</v>
+      </c>
+      <c r="S6" s="7">
+        <f>ROUND(SUMIFS([1]Sheet1!S:S,[1]Sheet1!$A:$A,$A6,[1]Sheet1!$B:$B,$B6),2)</f>
+        <v>2.21</v>
+      </c>
+      <c r="T6" s="8">
+        <f>ROUND(SUMIFS([1]Sheet1!T:T,[1]Sheet1!$A:$A,$A6,[1]Sheet1!$B:$B,$B6),2)</f>
+        <v>2.21</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>2050</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="11">
         <f>ROUND(SUMIFS([1]Sheet1!C:C,[1]Sheet1!$A:$A,$A7,[1]Sheet1!$B:$B,$B7),2)</f>
@@ -24979,7 +29105,7 @@
       </c>
       <c r="M7" s="11">
         <f>ROUND(SUMIFS([1]Sheet1!M:M,[1]Sheet1!$A:$A,$A7,[1]Sheet1!$B:$B,$B7),2)</f>
-        <v>8.9499999999999993</v>
+        <v>5.71</v>
       </c>
       <c r="N7" s="11">
         <f>ROUND(SUMIFS([1]Sheet1!N:N,[1]Sheet1!$A:$A,$A7,[1]Sheet1!$B:$B,$B7),2)</f>
@@ -24987,15 +29113,27 @@
       </c>
       <c r="O7" s="11">
         <f>ROUND(SUMIFS([1]Sheet1!O:O,[1]Sheet1!$A:$A,$A7,[1]Sheet1!$B:$B,$B7),2)</f>
-        <v>13.89</v>
+        <v>1.91</v>
       </c>
       <c r="P7" s="11">
         <f>ROUND(SUMIFS([1]Sheet1!P:P,[1]Sheet1!$A:$A,$A7,[1]Sheet1!$B:$B,$B7),2)</f>
         <v>134.69999999999999</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <f>ROUND(SUMIFS([1]Sheet1!Q:Q,[1]Sheet1!$A:$A,$A7,[1]Sheet1!$B:$B,$B7),2)</f>
         <v>1.21</v>
+      </c>
+      <c r="R7" s="11">
+        <f>ROUND(SUMIFS([1]Sheet1!R:R,[1]Sheet1!$A:$A,$A7,[1]Sheet1!$B:$B,$B7),2)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="11">
+        <f>ROUND(SUMIFS([1]Sheet1!S:S,[1]Sheet1!$A:$A,$A7,[1]Sheet1!$B:$B,$B7),2)</f>
+        <v>5.16</v>
+      </c>
+      <c r="T7" s="12">
+        <f>ROUND(SUMIFS([1]Sheet1!T:T,[1]Sheet1!$A:$A,$A7,[1]Sheet1!$B:$B,$B7),2)</f>
+        <v>5.16</v>
       </c>
     </row>
   </sheetData>
